--- a/Fase 3/Evidencias Grupales/Canvas Inmobiliapp.xlsx
+++ b/Fase 3/Evidencias Grupales/Canvas Inmobiliapp.xlsx
@@ -293,7 +293,7 @@
     <t xml:space="preserve">Un programa que permita la interacción fácil entre gente que desee comprar una propiedad y los que deseen venderlas, por medio de un mapa interactivo por el que podrán seleccionar dichas propiedades para ver sus detalles desde el precio hasta los metros cuadrados.                                                                                                  </t>
   </si>
   <si>
-    <t xml:space="preserve">Ser la primera aplicación de venta inmobiliaria con un mapa interactivo funcional, para la fácil.
+    <t xml:space="preserve">Ser la primera aplicación de venta inmobiliaria con un mapa interactivo funcional por street view, para la fácil revisión y adquisición de nuevas propiedades.
 </t>
   </si>
   <si>
@@ -322,7 +322,7 @@
   <si>
     <t>1. Cantidad de propiedades inscritas. 
 2. Cantidad de usuarios registrados. 
-3. Cantidad de profesionales transacciones realizadas. 
+3. Cantidad de transacciones realizadas. 
 4. Cantidad de inmobiliarias ocupando nuestro servicio.</t>
   </si>
   <si>
@@ -330,7 +330,7 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">1.Personas que deseen publicar sus propiedades para la venta y que estén buscando una manera fácil de publicitarlas.
+    <t xml:space="preserve">Personas que deseen publicar sus propiedades para la venta y que estén buscando una manera fácil de publicitarlas.
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t xml:space="preserve">Ingresos </t>
   </si>
   <si>
-    <t>Cómisión 5% (venta estándar de casa a 3194 Uf)</t>
+    <t>Cómisión 1% (venta estándar de casa a 3194 Uf)</t>
   </si>
   <si>
     <t>Venta estándar de casa a 3194 Uf</t>
@@ -471,10 +471,10 @@
     <t>% asignación</t>
   </si>
   <si>
-    <t>Coto empresa rol</t>
+    <t>Costo empresa rol</t>
   </si>
   <si>
-    <t>Cotos mensual</t>
+    <t>Costos mensual</t>
   </si>
   <si>
     <t>Publicidad</t>
@@ -498,7 +498,7 @@
     <t>Margen de operación</t>
   </si>
   <si>
-    <t>Coto/ Tarifa</t>
+    <t>Costo/ Tarifa</t>
   </si>
   <si>
     <t>Ingresos</t>
@@ -524,7 +524,7 @@
     <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="36">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -637,6 +637,11 @@
       <name val="Open Sans"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF344846"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="0"/>
@@ -662,7 +667,7 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF344846"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -671,7 +676,23 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color rgb="FF344846"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF344846"/>
       <name val="Open Sans"/>
     </font>
     <font>
@@ -687,6 +708,13 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FF344846"/>
       <name val="Open Sans"/>
     </font>
     <font>
@@ -1199,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1377,98 +1405,69 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="42" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="42" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="42" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="42" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="42" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="42" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="43" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="43" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="45" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="46" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="47" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="47" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="47" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="47" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="47" fillId="10" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="27" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1476,18 +1475,59 @@
     <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="47" fillId="10" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="47" fillId="0" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="32" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="32" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="47" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="47" fillId="10" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="47" fillId="10" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1498,17 +1538,17 @@
     <xf borderId="47" fillId="10" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="47" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1517,7 +1557,7 @@
     <xf borderId="47" fillId="10" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1566,15 +1606,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13201650" cy="6238875"/>
+    <xdr:ext cx="10953750" cy="6610350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3429,11 +3469,11 @@
         <v>30</v>
       </c>
       <c r="G9" s="12"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="30" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="31" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="1"/>
@@ -6575,687 +6615,687 @@
       <c r="L6" s="91">
         <v>0.0</v>
       </c>
-      <c r="M6" s="91">
+      <c r="M6" s="93">
         <v>2.0</v>
       </c>
       <c r="N6" s="84"/>
       <c r="O6" s="84"/>
     </row>
     <row r="7" ht="28.5" customHeight="1">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="100">
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101">
         <v>1.0</v>
       </c>
       <c r="O7" s="84"/>
     </row>
     <row r="8" ht="28.5" customHeight="1">
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103">
         <v>1.0</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="103">
         <v>2.0</v>
       </c>
-      <c r="H8" s="102">
+      <c r="H8" s="103">
         <v>3.0</v>
       </c>
-      <c r="I8" s="102">
+      <c r="I8" s="103">
         <v>4.0</v>
       </c>
-      <c r="J8" s="102">
+      <c r="J8" s="103">
         <v>5.0</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="103">
         <v>6.0</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="103">
         <v>7.0</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="103">
         <v>8.0</v>
       </c>
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="104" t="s">
         <v>66</v>
       </c>
       <c r="O8" s="84"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106">
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107">
         <f>SUM(F10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="107">
         <f>+G10+G11</f>
         <v>0</v>
       </c>
-      <c r="H9" s="106">
+      <c r="H9" s="107">
         <f t="shared" ref="H9:M9" si="1">SUM(H10)</f>
-        <v>159</v>
-      </c>
-      <c r="I9" s="106">
+        <v>31</v>
+      </c>
+      <c r="I9" s="107">
         <f t="shared" si="1"/>
-        <v>318</v>
-      </c>
-      <c r="J9" s="106">
+        <v>62</v>
+      </c>
+      <c r="J9" s="107">
         <f t="shared" si="1"/>
-        <v>318</v>
-      </c>
-      <c r="K9" s="106">
+        <v>62</v>
+      </c>
+      <c r="K9" s="107">
         <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-      <c r="L9" s="106">
+        <v>31</v>
+      </c>
+      <c r="L9" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="106">
+      <c r="M9" s="107">
         <f t="shared" si="1"/>
-        <v>318</v>
-      </c>
-      <c r="N9" s="106">
+        <v>62</v>
+      </c>
+      <c r="N9" s="107">
         <f>+SUM(N10)</f>
-        <v>1272</v>
+        <v>248</v>
       </c>
       <c r="O9" s="84"/>
     </row>
     <row r="10" ht="34.5" customHeight="1">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="109">
-        <v>159.0</v>
-      </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110">
-        <f>0*D10</f>
+      <c r="D10" s="110">
+        <v>31.0</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111">
+        <f>F6*D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="110">
-        <f>0*D10</f>
+      <c r="G10" s="111">
+        <f>G6*D10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="110">
-        <f>1*D10</f>
-        <v>159</v>
-      </c>
-      <c r="I10" s="110">
-        <f>2*D10</f>
-        <v>318</v>
-      </c>
-      <c r="J10" s="110">
-        <f>2*D10</f>
-        <v>318</v>
-      </c>
-      <c r="K10" s="110">
-        <f>1*D10</f>
-        <v>159</v>
-      </c>
-      <c r="L10" s="110">
-        <f>0*D10</f>
+      <c r="H10" s="111">
+        <f>H6*D10</f>
+        <v>31</v>
+      </c>
+      <c r="I10" s="111">
+        <f>I6*D10</f>
+        <v>62</v>
+      </c>
+      <c r="J10" s="111">
+        <f>J6*D10</f>
+        <v>62</v>
+      </c>
+      <c r="K10" s="111">
+        <f>K6*D10</f>
+        <v>31</v>
+      </c>
+      <c r="L10" s="111">
+        <f>L6*D10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="110">
-        <f>2*D10</f>
-        <v>318</v>
-      </c>
-      <c r="N10" s="111">
+      <c r="M10" s="111">
+        <f>M6*D10</f>
+        <v>62</v>
+      </c>
+      <c r="N10" s="112">
         <f t="shared" ref="N10:N12" si="2">+SUM(F10:M10)</f>
-        <v>1272</v>
+        <v>248</v>
       </c>
       <c r="O10" s="84"/>
     </row>
     <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="112"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="111">
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="112">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="84"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
     </row>
     <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="111">
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="112">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="84"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="106">
+      <c r="F13" s="107">
         <f t="shared" ref="F13:N13" si="3">SUM(F14:F19)</f>
         <v>79</v>
       </c>
-      <c r="G13" s="106">
+      <c r="G13" s="107">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="107">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="I13" s="106">
+      <c r="I13" s="107">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="J13" s="106">
+      <c r="J13" s="107">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="K13" s="106">
+      <c r="K13" s="107">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="L13" s="106">
+      <c r="L13" s="107">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="M13" s="106">
+      <c r="M13" s="107">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="N13" s="106">
+      <c r="N13" s="107">
         <f t="shared" si="3"/>
         <v>632</v>
       </c>
       <c r="O13" s="84"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="112"/>
-      <c r="B14" s="117" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="119">
         <v>1.0</v>
       </c>
-      <c r="D14" s="119">
+      <c r="D14" s="120">
         <v>25.0</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="116">
         <f t="shared" ref="E14:E16" si="5">+C14*D14</f>
         <v>25</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="111">
         <f t="shared" ref="F14:G14" si="4">+D14</f>
         <v>25</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="111">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="111">
         <v>25.0</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="111">
         <v>25.0</v>
       </c>
-      <c r="J14" s="110">
+      <c r="J14" s="111">
         <v>25.0</v>
       </c>
-      <c r="K14" s="110">
+      <c r="K14" s="111">
         <v>25.0</v>
       </c>
-      <c r="L14" s="110">
+      <c r="L14" s="111">
         <v>25.0</v>
       </c>
-      <c r="M14" s="110">
+      <c r="M14" s="111">
         <v>25.0</v>
       </c>
-      <c r="N14" s="111">
+      <c r="N14" s="112">
         <f t="shared" ref="N14:N18" si="6">SUM(F14:M14)</f>
         <v>200</v>
       </c>
       <c r="O14" s="84"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="112"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="117" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="120">
+      <c r="C15" s="121">
         <v>1.0</v>
       </c>
-      <c r="D15" s="119">
+      <c r="D15" s="120">
         <v>27.0</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="116">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="F15" s="109">
+      <c r="F15" s="122">
         <v>27.0</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="122">
         <v>27.0</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="122">
         <v>27.0</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="111">
         <f>+E15</f>
         <v>27</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="122">
         <v>27.0</v>
       </c>
-      <c r="K15" s="109">
+      <c r="K15" s="122">
         <v>27.0</v>
       </c>
-      <c r="L15" s="109">
+      <c r="L15" s="122">
         <v>27.0</v>
       </c>
-      <c r="M15" s="110">
+      <c r="M15" s="111">
         <f>+I15</f>
         <v>27</v>
       </c>
-      <c r="N15" s="111">
+      <c r="N15" s="112">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="O15" s="84"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="112"/>
-      <c r="B16" s="121" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="120">
+      <c r="C16" s="121">
         <v>1.0</v>
       </c>
-      <c r="D16" s="119">
+      <c r="D16" s="120">
         <v>27.0</v>
       </c>
-      <c r="E16" s="115">
+      <c r="E16" s="116">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="111">
         <f t="shared" ref="F16:M16" si="7">+E16</f>
         <v>27</v>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="111">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="H16" s="110">
+      <c r="H16" s="111">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="I16" s="110">
+      <c r="I16" s="111">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="J16" s="110">
+      <c r="J16" s="111">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="K16" s="110">
+      <c r="K16" s="111">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="L16" s="110">
+      <c r="L16" s="111">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="M16" s="110">
+      <c r="M16" s="111">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="N16" s="111">
+      <c r="N16" s="112">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="O16" s="84"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="112"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="51"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="111">
+      <c r="C17" s="124"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="112">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O17" s="84"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="112"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110" t="str">
+      <c r="A18" s="113"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111" t="str">
         <f>+E18</f>
         <v/>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110" t="str">
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111" t="str">
         <f>+H18</f>
         <v/>
       </c>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="111">
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="112">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O18" s="84"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="124"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="128" t="str">
+      <c r="A19" s="126"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130" t="str">
         <f>+E19</f>
         <v/>
       </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="124"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="126"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="106">
+      <c r="C20" s="106"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="107">
         <f t="shared" ref="F20:N20" si="8">SUM(F21:F23)</f>
         <v>96</v>
       </c>
-      <c r="G20" s="106">
+      <c r="G20" s="107">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="107">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="I20" s="106">
+      <c r="I20" s="107">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="J20" s="106">
+      <c r="J20" s="107">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="K20" s="106">
+      <c r="K20" s="107">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="L20" s="106">
+      <c r="L20" s="107">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="M20" s="106">
+      <c r="M20" s="107">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="N20" s="106">
+      <c r="N20" s="107">
         <f t="shared" si="8"/>
         <v>306</v>
       </c>
       <c r="O20" s="84"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="119">
+      <c r="C21" s="115"/>
+      <c r="D21" s="120">
         <v>30.0</v>
       </c>
-      <c r="E21" s="119">
+      <c r="E21" s="120">
         <v>30.0</v>
       </c>
-      <c r="F21" s="119">
+      <c r="F21" s="120">
         <v>30.0</v>
       </c>
-      <c r="G21" s="119">
+      <c r="G21" s="120">
         <v>30.0</v>
       </c>
-      <c r="H21" s="119">
+      <c r="H21" s="120">
         <v>30.0</v>
       </c>
-      <c r="I21" s="119">
+      <c r="I21" s="120">
         <v>30.0</v>
       </c>
-      <c r="J21" s="119">
+      <c r="J21" s="120">
         <v>30.0</v>
       </c>
-      <c r="K21" s="119">
+      <c r="K21" s="120">
         <v>30.0</v>
       </c>
-      <c r="L21" s="119">
+      <c r="L21" s="120">
         <v>30.0</v>
       </c>
-      <c r="M21" s="119">
+      <c r="M21" s="120">
         <v>30.0</v>
       </c>
-      <c r="N21" s="111">
+      <c r="N21" s="112">
         <f t="shared" ref="N21:N23" si="9">SUM(F21:M21)</f>
         <v>240</v>
       </c>
       <c r="O21" s="84"/>
     </row>
     <row r="22" ht="22.5" customHeight="1">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="119">
+      <c r="C22" s="115"/>
+      <c r="D22" s="120">
         <v>66.0</v>
       </c>
-      <c r="E22" s="119">
+      <c r="E22" s="120">
         <v>66.0</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="120">
         <v>66.0</v>
       </c>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="111">
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="112">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="O22" s="84"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
-      <c r="B23" s="131"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111">
+      <c r="B23" s="134"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O23" s="84"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="133">
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="137">
         <v>0.0</v>
       </c>
-      <c r="G24" s="133">
+      <c r="G24" s="137">
         <v>0.0</v>
       </c>
-      <c r="H24" s="134">
+      <c r="H24" s="138">
         <f t="shared" ref="H24:K24" si="10">1-H13/H9</f>
-        <v>0.5031446541</v>
-      </c>
-      <c r="I24" s="134">
+        <v>-1.548387097</v>
+      </c>
+      <c r="I24" s="138">
         <f t="shared" si="10"/>
-        <v>0.751572327</v>
-      </c>
-      <c r="J24" s="134">
+        <v>-0.2741935484</v>
+      </c>
+      <c r="J24" s="138">
         <f t="shared" si="10"/>
-        <v>0.751572327</v>
-      </c>
-      <c r="K24" s="134">
+        <v>-0.2741935484</v>
+      </c>
+      <c r="K24" s="138">
         <f t="shared" si="10"/>
-        <v>0.5031446541</v>
-      </c>
-      <c r="L24" s="133">
+        <v>-1.548387097</v>
+      </c>
+      <c r="L24" s="137">
         <v>0.0</v>
       </c>
-      <c r="M24" s="134">
+      <c r="M24" s="138">
         <f>1-M13/M9</f>
-        <v>0.751572327</v>
-      </c>
-      <c r="N24" s="135"/>
+        <v>-0.2741935484</v>
+      </c>
+      <c r="N24" s="139"/>
       <c r="O24" s="84"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
@@ -7275,8 +7315,8 @@
       <c r="O25" s="84"/>
     </row>
     <row r="26" ht="34.5" customHeight="1">
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85"/>
       <c r="H26" s="85"/>
@@ -7289,16 +7329,16 @@
       <c r="O26" s="84"/>
     </row>
     <row r="27" ht="22.5" customHeight="1">
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="110">
+      <c r="C27" s="111">
         <f>+N9</f>
-        <v>1272</v>
+        <v>248</v>
       </c>
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
-      <c r="F27" s="139"/>
+      <c r="F27" s="143"/>
       <c r="H27" s="85"/>
       <c r="I27" s="85"/>
       <c r="J27" s="85"/>
@@ -7309,10 +7349,10 @@
       <c r="O27" s="84"/>
     </row>
     <row r="28" ht="22.5" customHeight="1">
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="111">
         <f>+N13</f>
         <v>632</v>
       </c>
@@ -7328,17 +7368,17 @@
       <c r="O28" s="84"/>
     </row>
     <row r="29" ht="22.5" customHeight="1">
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="110">
+      <c r="C29" s="111">
         <f>+N20</f>
         <v>306</v>
       </c>
       <c r="D29" s="85"/>
       <c r="E29" s="85"/>
       <c r="H29" s="85"/>
-      <c r="I29" s="140"/>
+      <c r="I29" s="144"/>
       <c r="J29" s="85"/>
       <c r="K29" s="85"/>
       <c r="L29" s="85"/>
@@ -7347,12 +7387,12 @@
       <c r="O29" s="84"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="142">
+      <c r="C30" s="146">
         <f>+C27-C28-C29</f>
-        <v>334</v>
+        <v>-690</v>
       </c>
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
@@ -7366,12 +7406,12 @@
       <c r="O30" s="84"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="143">
+      <c r="C31" s="147">
         <f>1-C28/C27</f>
-        <v>0.5031446541</v>
+        <v>-1.548387097</v>
       </c>
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
@@ -7386,7 +7426,7 @@
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="B32" s="84"/>
-      <c r="C32" s="144"/>
+      <c r="C32" s="148"/>
       <c r="D32" s="84"/>
       <c r="E32" s="84"/>
       <c r="F32" s="85"/>
@@ -7404,7 +7444,7 @@
       <c r="B33" s="84"/>
       <c r="C33" s="84"/>
       <c r="D33" s="84"/>
-      <c r="E33" s="145"/>
+      <c r="E33" s="149"/>
       <c r="F33" s="85"/>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
@@ -7769,1754 +7809,1754 @@
       <c r="O55" s="84"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
-      <c r="J56" s="146"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="146"/>
-      <c r="M56" s="146"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="150"/>
+      <c r="L56" s="150"/>
+      <c r="M56" s="150"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
-      <c r="J57" s="146"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="146"/>
-      <c r="M57" s="146"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
+      <c r="L57" s="150"/>
+      <c r="M57" s="150"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="F58" s="146"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="146"/>
-      <c r="M58" s="146"/>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="150"/>
+      <c r="K58" s="150"/>
+      <c r="L58" s="150"/>
+      <c r="M58" s="150"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="146"/>
-      <c r="K59" s="146"/>
-      <c r="L59" s="146"/>
-      <c r="M59" s="146"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="150"/>
+      <c r="K59" s="150"/>
+      <c r="L59" s="150"/>
+      <c r="M59" s="150"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="146"/>
-      <c r="M60" s="146"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="150"/>
+      <c r="I60" s="150"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="150"/>
+      <c r="L60" s="150"/>
+      <c r="M60" s="150"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="146"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="146"/>
-      <c r="M61" s="146"/>
+      <c r="F61" s="150"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="150"/>
+      <c r="I61" s="150"/>
+      <c r="J61" s="150"/>
+      <c r="K61" s="150"/>
+      <c r="L61" s="150"/>
+      <c r="M61" s="150"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="146"/>
-      <c r="M62" s="146"/>
+      <c r="F62" s="150"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="150"/>
+      <c r="I62" s="150"/>
+      <c r="J62" s="150"/>
+      <c r="K62" s="150"/>
+      <c r="L62" s="150"/>
+      <c r="M62" s="150"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="146"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="146"/>
-      <c r="M63" s="146"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="150"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="150"/>
+      <c r="M63" s="150"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="F64" s="146"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="146"/>
-      <c r="J64" s="146"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="146"/>
-      <c r="M64" s="146"/>
+      <c r="F64" s="150"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="150"/>
+      <c r="J64" s="150"/>
+      <c r="K64" s="150"/>
+      <c r="L64" s="150"/>
+      <c r="M64" s="150"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="F65" s="146"/>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146"/>
-      <c r="I65" s="146"/>
-      <c r="J65" s="146"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="146"/>
-      <c r="M65" s="146"/>
+      <c r="F65" s="150"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="150"/>
+      <c r="I65" s="150"/>
+      <c r="J65" s="150"/>
+      <c r="K65" s="150"/>
+      <c r="L65" s="150"/>
+      <c r="M65" s="150"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="F66" s="146"/>
-      <c r="G66" s="146"/>
-      <c r="H66" s="146"/>
-      <c r="I66" s="146"/>
-      <c r="J66" s="146"/>
-      <c r="K66" s="146"/>
-      <c r="L66" s="146"/>
-      <c r="M66" s="146"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="150"/>
+      <c r="J66" s="150"/>
+      <c r="K66" s="150"/>
+      <c r="L66" s="150"/>
+      <c r="M66" s="150"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="F67" s="146"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="146"/>
-      <c r="I67" s="146"/>
-      <c r="J67" s="146"/>
-      <c r="K67" s="146"/>
-      <c r="L67" s="146"/>
-      <c r="M67" s="146"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="150"/>
+      <c r="K67" s="150"/>
+      <c r="L67" s="150"/>
+      <c r="M67" s="150"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="F68" s="146"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
-      <c r="J68" s="146"/>
-      <c r="K68" s="146"/>
-      <c r="L68" s="146"/>
-      <c r="M68" s="146"/>
+      <c r="F68" s="150"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="150"/>
+      <c r="I68" s="150"/>
+      <c r="J68" s="150"/>
+      <c r="K68" s="150"/>
+      <c r="L68" s="150"/>
+      <c r="M68" s="150"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="F69" s="146"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
-      <c r="J69" s="146"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="146"/>
-      <c r="M69" s="146"/>
+      <c r="F69" s="150"/>
+      <c r="G69" s="150"/>
+      <c r="H69" s="150"/>
+      <c r="I69" s="150"/>
+      <c r="J69" s="150"/>
+      <c r="K69" s="150"/>
+      <c r="L69" s="150"/>
+      <c r="M69" s="150"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="F70" s="146"/>
-      <c r="G70" s="146"/>
-      <c r="H70" s="146"/>
-      <c r="I70" s="146"/>
-      <c r="J70" s="146"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="146"/>
-      <c r="M70" s="146"/>
+      <c r="F70" s="150"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="150"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="150"/>
+      <c r="K70" s="150"/>
+      <c r="L70" s="150"/>
+      <c r="M70" s="150"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="F71" s="146"/>
-      <c r="G71" s="146"/>
-      <c r="H71" s="146"/>
-      <c r="I71" s="146"/>
-      <c r="J71" s="146"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="146"/>
-      <c r="M71" s="146"/>
+      <c r="F71" s="150"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="150"/>
+      <c r="I71" s="150"/>
+      <c r="J71" s="150"/>
+      <c r="K71" s="150"/>
+      <c r="L71" s="150"/>
+      <c r="M71" s="150"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="F72" s="146"/>
-      <c r="G72" s="146"/>
-      <c r="H72" s="146"/>
-      <c r="I72" s="146"/>
-      <c r="J72" s="146"/>
-      <c r="K72" s="146"/>
-      <c r="L72" s="146"/>
-      <c r="M72" s="146"/>
+      <c r="F72" s="150"/>
+      <c r="G72" s="150"/>
+      <c r="H72" s="150"/>
+      <c r="I72" s="150"/>
+      <c r="J72" s="150"/>
+      <c r="K72" s="150"/>
+      <c r="L72" s="150"/>
+      <c r="M72" s="150"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="F73" s="146"/>
-      <c r="G73" s="146"/>
-      <c r="H73" s="146"/>
-      <c r="I73" s="146"/>
-      <c r="J73" s="146"/>
-      <c r="K73" s="146"/>
-      <c r="L73" s="146"/>
-      <c r="M73" s="146"/>
+      <c r="F73" s="150"/>
+      <c r="G73" s="150"/>
+      <c r="H73" s="150"/>
+      <c r="I73" s="150"/>
+      <c r="J73" s="150"/>
+      <c r="K73" s="150"/>
+      <c r="L73" s="150"/>
+      <c r="M73" s="150"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="F74" s="146"/>
-      <c r="G74" s="146"/>
-      <c r="H74" s="146"/>
-      <c r="I74" s="146"/>
-      <c r="J74" s="146"/>
-      <c r="K74" s="146"/>
-      <c r="L74" s="146"/>
-      <c r="M74" s="146"/>
+      <c r="F74" s="150"/>
+      <c r="G74" s="150"/>
+      <c r="H74" s="150"/>
+      <c r="I74" s="150"/>
+      <c r="J74" s="150"/>
+      <c r="K74" s="150"/>
+      <c r="L74" s="150"/>
+      <c r="M74" s="150"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="F75" s="146"/>
-      <c r="G75" s="146"/>
-      <c r="H75" s="146"/>
-      <c r="I75" s="146"/>
-      <c r="J75" s="146"/>
-      <c r="K75" s="146"/>
-      <c r="L75" s="146"/>
-      <c r="M75" s="146"/>
+      <c r="F75" s="150"/>
+      <c r="G75" s="150"/>
+      <c r="H75" s="150"/>
+      <c r="I75" s="150"/>
+      <c r="J75" s="150"/>
+      <c r="K75" s="150"/>
+      <c r="L75" s="150"/>
+      <c r="M75" s="150"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="F76" s="146"/>
-      <c r="G76" s="146"/>
-      <c r="H76" s="146"/>
-      <c r="I76" s="146"/>
-      <c r="J76" s="146"/>
-      <c r="K76" s="146"/>
-      <c r="L76" s="146"/>
-      <c r="M76" s="146"/>
+      <c r="F76" s="150"/>
+      <c r="G76" s="150"/>
+      <c r="H76" s="150"/>
+      <c r="I76" s="150"/>
+      <c r="J76" s="150"/>
+      <c r="K76" s="150"/>
+      <c r="L76" s="150"/>
+      <c r="M76" s="150"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="F77" s="146"/>
-      <c r="G77" s="146"/>
-      <c r="H77" s="146"/>
-      <c r="I77" s="146"/>
-      <c r="J77" s="146"/>
-      <c r="K77" s="146"/>
-      <c r="L77" s="146"/>
-      <c r="M77" s="146"/>
+      <c r="F77" s="150"/>
+      <c r="G77" s="150"/>
+      <c r="H77" s="150"/>
+      <c r="I77" s="150"/>
+      <c r="J77" s="150"/>
+      <c r="K77" s="150"/>
+      <c r="L77" s="150"/>
+      <c r="M77" s="150"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="F78" s="146"/>
-      <c r="G78" s="146"/>
-      <c r="H78" s="146"/>
-      <c r="I78" s="146"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="146"/>
-      <c r="L78" s="146"/>
-      <c r="M78" s="146"/>
+      <c r="F78" s="150"/>
+      <c r="G78" s="150"/>
+      <c r="H78" s="150"/>
+      <c r="I78" s="150"/>
+      <c r="J78" s="150"/>
+      <c r="K78" s="150"/>
+      <c r="L78" s="150"/>
+      <c r="M78" s="150"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="F79" s="146"/>
-      <c r="G79" s="146"/>
-      <c r="H79" s="146"/>
-      <c r="I79" s="146"/>
-      <c r="J79" s="146"/>
-      <c r="K79" s="146"/>
-      <c r="L79" s="146"/>
-      <c r="M79" s="146"/>
+      <c r="F79" s="150"/>
+      <c r="G79" s="150"/>
+      <c r="H79" s="150"/>
+      <c r="I79" s="150"/>
+      <c r="J79" s="150"/>
+      <c r="K79" s="150"/>
+      <c r="L79" s="150"/>
+      <c r="M79" s="150"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="F80" s="146"/>
-      <c r="G80" s="146"/>
-      <c r="H80" s="146"/>
-      <c r="I80" s="146"/>
-      <c r="J80" s="146"/>
-      <c r="K80" s="146"/>
-      <c r="L80" s="146"/>
-      <c r="M80" s="146"/>
+      <c r="F80" s="150"/>
+      <c r="G80" s="150"/>
+      <c r="H80" s="150"/>
+      <c r="I80" s="150"/>
+      <c r="J80" s="150"/>
+      <c r="K80" s="150"/>
+      <c r="L80" s="150"/>
+      <c r="M80" s="150"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="F81" s="146"/>
-      <c r="G81" s="146"/>
-      <c r="H81" s="146"/>
-      <c r="I81" s="146"/>
-      <c r="J81" s="146"/>
-      <c r="K81" s="146"/>
-      <c r="L81" s="146"/>
-      <c r="M81" s="146"/>
+      <c r="F81" s="150"/>
+      <c r="G81" s="150"/>
+      <c r="H81" s="150"/>
+      <c r="I81" s="150"/>
+      <c r="J81" s="150"/>
+      <c r="K81" s="150"/>
+      <c r="L81" s="150"/>
+      <c r="M81" s="150"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="F82" s="146"/>
-      <c r="G82" s="146"/>
-      <c r="H82" s="146"/>
-      <c r="I82" s="146"/>
-      <c r="J82" s="146"/>
-      <c r="K82" s="146"/>
-      <c r="L82" s="146"/>
-      <c r="M82" s="146"/>
+      <c r="F82" s="150"/>
+      <c r="G82" s="150"/>
+      <c r="H82" s="150"/>
+      <c r="I82" s="150"/>
+      <c r="J82" s="150"/>
+      <c r="K82" s="150"/>
+      <c r="L82" s="150"/>
+      <c r="M82" s="150"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="F83" s="146"/>
-      <c r="G83" s="146"/>
-      <c r="H83" s="146"/>
-      <c r="I83" s="146"/>
-      <c r="J83" s="146"/>
-      <c r="K83" s="146"/>
-      <c r="L83" s="146"/>
-      <c r="M83" s="146"/>
+      <c r="F83" s="150"/>
+      <c r="G83" s="150"/>
+      <c r="H83" s="150"/>
+      <c r="I83" s="150"/>
+      <c r="J83" s="150"/>
+      <c r="K83" s="150"/>
+      <c r="L83" s="150"/>
+      <c r="M83" s="150"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="F84" s="146"/>
-      <c r="G84" s="146"/>
-      <c r="H84" s="146"/>
-      <c r="I84" s="146"/>
-      <c r="J84" s="146"/>
-      <c r="K84" s="146"/>
-      <c r="L84" s="146"/>
-      <c r="M84" s="146"/>
+      <c r="F84" s="150"/>
+      <c r="G84" s="150"/>
+      <c r="H84" s="150"/>
+      <c r="I84" s="150"/>
+      <c r="J84" s="150"/>
+      <c r="K84" s="150"/>
+      <c r="L84" s="150"/>
+      <c r="M84" s="150"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="F85" s="146"/>
-      <c r="G85" s="146"/>
-      <c r="H85" s="146"/>
-      <c r="I85" s="146"/>
-      <c r="J85" s="146"/>
-      <c r="K85" s="146"/>
-      <c r="L85" s="146"/>
-      <c r="M85" s="146"/>
+      <c r="F85" s="150"/>
+      <c r="G85" s="150"/>
+      <c r="H85" s="150"/>
+      <c r="I85" s="150"/>
+      <c r="J85" s="150"/>
+      <c r="K85" s="150"/>
+      <c r="L85" s="150"/>
+      <c r="M85" s="150"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="F86" s="146"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="146"/>
-      <c r="I86" s="146"/>
-      <c r="J86" s="146"/>
-      <c r="K86" s="146"/>
-      <c r="L86" s="146"/>
-      <c r="M86" s="146"/>
+      <c r="F86" s="150"/>
+      <c r="G86" s="150"/>
+      <c r="H86" s="150"/>
+      <c r="I86" s="150"/>
+      <c r="J86" s="150"/>
+      <c r="K86" s="150"/>
+      <c r="L86" s="150"/>
+      <c r="M86" s="150"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="F87" s="146"/>
-      <c r="G87" s="146"/>
-      <c r="H87" s="146"/>
-      <c r="I87" s="146"/>
-      <c r="J87" s="146"/>
-      <c r="K87" s="146"/>
-      <c r="L87" s="146"/>
-      <c r="M87" s="146"/>
+      <c r="F87" s="150"/>
+      <c r="G87" s="150"/>
+      <c r="H87" s="150"/>
+      <c r="I87" s="150"/>
+      <c r="J87" s="150"/>
+      <c r="K87" s="150"/>
+      <c r="L87" s="150"/>
+      <c r="M87" s="150"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="F88" s="146"/>
-      <c r="G88" s="146"/>
-      <c r="H88" s="146"/>
-      <c r="I88" s="146"/>
-      <c r="J88" s="146"/>
-      <c r="K88" s="146"/>
-      <c r="L88" s="146"/>
-      <c r="M88" s="146"/>
+      <c r="F88" s="150"/>
+      <c r="G88" s="150"/>
+      <c r="H88" s="150"/>
+      <c r="I88" s="150"/>
+      <c r="J88" s="150"/>
+      <c r="K88" s="150"/>
+      <c r="L88" s="150"/>
+      <c r="M88" s="150"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="F89" s="146"/>
-      <c r="G89" s="146"/>
-      <c r="H89" s="146"/>
-      <c r="I89" s="146"/>
-      <c r="J89" s="146"/>
-      <c r="K89" s="146"/>
-      <c r="L89" s="146"/>
-      <c r="M89" s="146"/>
+      <c r="F89" s="150"/>
+      <c r="G89" s="150"/>
+      <c r="H89" s="150"/>
+      <c r="I89" s="150"/>
+      <c r="J89" s="150"/>
+      <c r="K89" s="150"/>
+      <c r="L89" s="150"/>
+      <c r="M89" s="150"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="F90" s="146"/>
-      <c r="G90" s="146"/>
-      <c r="H90" s="146"/>
-      <c r="I90" s="146"/>
-      <c r="J90" s="146"/>
-      <c r="K90" s="146"/>
-      <c r="L90" s="146"/>
-      <c r="M90" s="146"/>
+      <c r="F90" s="150"/>
+      <c r="G90" s="150"/>
+      <c r="H90" s="150"/>
+      <c r="I90" s="150"/>
+      <c r="J90" s="150"/>
+      <c r="K90" s="150"/>
+      <c r="L90" s="150"/>
+      <c r="M90" s="150"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="F91" s="146"/>
-      <c r="G91" s="146"/>
-      <c r="H91" s="146"/>
-      <c r="I91" s="146"/>
-      <c r="J91" s="146"/>
-      <c r="K91" s="146"/>
-      <c r="L91" s="146"/>
-      <c r="M91" s="146"/>
+      <c r="F91" s="150"/>
+      <c r="G91" s="150"/>
+      <c r="H91" s="150"/>
+      <c r="I91" s="150"/>
+      <c r="J91" s="150"/>
+      <c r="K91" s="150"/>
+      <c r="L91" s="150"/>
+      <c r="M91" s="150"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="F92" s="146"/>
-      <c r="G92" s="146"/>
-      <c r="H92" s="146"/>
-      <c r="I92" s="146"/>
-      <c r="J92" s="146"/>
-      <c r="K92" s="146"/>
-      <c r="L92" s="146"/>
-      <c r="M92" s="146"/>
+      <c r="F92" s="150"/>
+      <c r="G92" s="150"/>
+      <c r="H92" s="150"/>
+      <c r="I92" s="150"/>
+      <c r="J92" s="150"/>
+      <c r="K92" s="150"/>
+      <c r="L92" s="150"/>
+      <c r="M92" s="150"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="F93" s="146"/>
-      <c r="G93" s="146"/>
-      <c r="H93" s="146"/>
-      <c r="I93" s="146"/>
-      <c r="J93" s="146"/>
-      <c r="K93" s="146"/>
-      <c r="L93" s="146"/>
-      <c r="M93" s="146"/>
+      <c r="F93" s="150"/>
+      <c r="G93" s="150"/>
+      <c r="H93" s="150"/>
+      <c r="I93" s="150"/>
+      <c r="J93" s="150"/>
+      <c r="K93" s="150"/>
+      <c r="L93" s="150"/>
+      <c r="M93" s="150"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="F94" s="146"/>
-      <c r="G94" s="146"/>
-      <c r="H94" s="146"/>
-      <c r="I94" s="146"/>
-      <c r="J94" s="146"/>
-      <c r="K94" s="146"/>
-      <c r="L94" s="146"/>
-      <c r="M94" s="146"/>
+      <c r="F94" s="150"/>
+      <c r="G94" s="150"/>
+      <c r="H94" s="150"/>
+      <c r="I94" s="150"/>
+      <c r="J94" s="150"/>
+      <c r="K94" s="150"/>
+      <c r="L94" s="150"/>
+      <c r="M94" s="150"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="F95" s="146"/>
-      <c r="G95" s="146"/>
-      <c r="H95" s="146"/>
-      <c r="I95" s="146"/>
-      <c r="J95" s="146"/>
-      <c r="K95" s="146"/>
-      <c r="L95" s="146"/>
-      <c r="M95" s="146"/>
+      <c r="F95" s="150"/>
+      <c r="G95" s="150"/>
+      <c r="H95" s="150"/>
+      <c r="I95" s="150"/>
+      <c r="J95" s="150"/>
+      <c r="K95" s="150"/>
+      <c r="L95" s="150"/>
+      <c r="M95" s="150"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="F96" s="146"/>
-      <c r="G96" s="146"/>
-      <c r="H96" s="146"/>
-      <c r="I96" s="146"/>
-      <c r="J96" s="146"/>
-      <c r="K96" s="146"/>
-      <c r="L96" s="146"/>
-      <c r="M96" s="146"/>
+      <c r="F96" s="150"/>
+      <c r="G96" s="150"/>
+      <c r="H96" s="150"/>
+      <c r="I96" s="150"/>
+      <c r="J96" s="150"/>
+      <c r="K96" s="150"/>
+      <c r="L96" s="150"/>
+      <c r="M96" s="150"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="F97" s="146"/>
-      <c r="G97" s="146"/>
-      <c r="H97" s="146"/>
-      <c r="I97" s="146"/>
-      <c r="J97" s="146"/>
-      <c r="K97" s="146"/>
-      <c r="L97" s="146"/>
-      <c r="M97" s="146"/>
+      <c r="F97" s="150"/>
+      <c r="G97" s="150"/>
+      <c r="H97" s="150"/>
+      <c r="I97" s="150"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="150"/>
+      <c r="L97" s="150"/>
+      <c r="M97" s="150"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="F98" s="146"/>
-      <c r="G98" s="146"/>
-      <c r="H98" s="146"/>
-      <c r="I98" s="146"/>
-      <c r="J98" s="146"/>
-      <c r="K98" s="146"/>
-      <c r="L98" s="146"/>
-      <c r="M98" s="146"/>
+      <c r="F98" s="150"/>
+      <c r="G98" s="150"/>
+      <c r="H98" s="150"/>
+      <c r="I98" s="150"/>
+      <c r="J98" s="150"/>
+      <c r="K98" s="150"/>
+      <c r="L98" s="150"/>
+      <c r="M98" s="150"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="F99" s="146"/>
-      <c r="G99" s="146"/>
-      <c r="H99" s="146"/>
-      <c r="I99" s="146"/>
-      <c r="J99" s="146"/>
-      <c r="K99" s="146"/>
-      <c r="L99" s="146"/>
-      <c r="M99" s="146"/>
+      <c r="F99" s="150"/>
+      <c r="G99" s="150"/>
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="150"/>
+      <c r="K99" s="150"/>
+      <c r="L99" s="150"/>
+      <c r="M99" s="150"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="F100" s="146"/>
-      <c r="G100" s="146"/>
-      <c r="H100" s="146"/>
-      <c r="I100" s="146"/>
-      <c r="J100" s="146"/>
-      <c r="K100" s="146"/>
-      <c r="L100" s="146"/>
-      <c r="M100" s="146"/>
+      <c r="F100" s="150"/>
+      <c r="G100" s="150"/>
+      <c r="H100" s="150"/>
+      <c r="I100" s="150"/>
+      <c r="J100" s="150"/>
+      <c r="K100" s="150"/>
+      <c r="L100" s="150"/>
+      <c r="M100" s="150"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="F101" s="146"/>
-      <c r="G101" s="146"/>
-      <c r="H101" s="146"/>
-      <c r="I101" s="146"/>
-      <c r="J101" s="146"/>
-      <c r="K101" s="146"/>
-      <c r="L101" s="146"/>
-      <c r="M101" s="146"/>
+      <c r="F101" s="150"/>
+      <c r="G101" s="150"/>
+      <c r="H101" s="150"/>
+      <c r="I101" s="150"/>
+      <c r="J101" s="150"/>
+      <c r="K101" s="150"/>
+      <c r="L101" s="150"/>
+      <c r="M101" s="150"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="F102" s="146"/>
-      <c r="G102" s="146"/>
-      <c r="H102" s="146"/>
-      <c r="I102" s="146"/>
-      <c r="J102" s="146"/>
-      <c r="K102" s="146"/>
-      <c r="L102" s="146"/>
-      <c r="M102" s="146"/>
+      <c r="F102" s="150"/>
+      <c r="G102" s="150"/>
+      <c r="H102" s="150"/>
+      <c r="I102" s="150"/>
+      <c r="J102" s="150"/>
+      <c r="K102" s="150"/>
+      <c r="L102" s="150"/>
+      <c r="M102" s="150"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="F103" s="146"/>
-      <c r="G103" s="146"/>
-      <c r="H103" s="146"/>
-      <c r="I103" s="146"/>
-      <c r="J103" s="146"/>
-      <c r="K103" s="146"/>
-      <c r="L103" s="146"/>
-      <c r="M103" s="146"/>
+      <c r="F103" s="150"/>
+      <c r="G103" s="150"/>
+      <c r="H103" s="150"/>
+      <c r="I103" s="150"/>
+      <c r="J103" s="150"/>
+      <c r="K103" s="150"/>
+      <c r="L103" s="150"/>
+      <c r="M103" s="150"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="F104" s="146"/>
-      <c r="G104" s="146"/>
-      <c r="H104" s="146"/>
-      <c r="I104" s="146"/>
-      <c r="J104" s="146"/>
-      <c r="K104" s="146"/>
-      <c r="L104" s="146"/>
-      <c r="M104" s="146"/>
+      <c r="F104" s="150"/>
+      <c r="G104" s="150"/>
+      <c r="H104" s="150"/>
+      <c r="I104" s="150"/>
+      <c r="J104" s="150"/>
+      <c r="K104" s="150"/>
+      <c r="L104" s="150"/>
+      <c r="M104" s="150"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="F105" s="146"/>
-      <c r="G105" s="146"/>
-      <c r="H105" s="146"/>
-      <c r="I105" s="146"/>
-      <c r="J105" s="146"/>
-      <c r="K105" s="146"/>
-      <c r="L105" s="146"/>
-      <c r="M105" s="146"/>
+      <c r="F105" s="150"/>
+      <c r="G105" s="150"/>
+      <c r="H105" s="150"/>
+      <c r="I105" s="150"/>
+      <c r="J105" s="150"/>
+      <c r="K105" s="150"/>
+      <c r="L105" s="150"/>
+      <c r="M105" s="150"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="F106" s="146"/>
-      <c r="G106" s="146"/>
-      <c r="H106" s="146"/>
-      <c r="I106" s="146"/>
-      <c r="J106" s="146"/>
-      <c r="K106" s="146"/>
-      <c r="L106" s="146"/>
-      <c r="M106" s="146"/>
+      <c r="F106" s="150"/>
+      <c r="G106" s="150"/>
+      <c r="H106" s="150"/>
+      <c r="I106" s="150"/>
+      <c r="J106" s="150"/>
+      <c r="K106" s="150"/>
+      <c r="L106" s="150"/>
+      <c r="M106" s="150"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="F107" s="146"/>
-      <c r="G107" s="146"/>
-      <c r="H107" s="146"/>
-      <c r="I107" s="146"/>
-      <c r="J107" s="146"/>
-      <c r="K107" s="146"/>
-      <c r="L107" s="146"/>
-      <c r="M107" s="146"/>
+      <c r="F107" s="150"/>
+      <c r="G107" s="150"/>
+      <c r="H107" s="150"/>
+      <c r="I107" s="150"/>
+      <c r="J107" s="150"/>
+      <c r="K107" s="150"/>
+      <c r="L107" s="150"/>
+      <c r="M107" s="150"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="F108" s="146"/>
-      <c r="G108" s="146"/>
-      <c r="H108" s="146"/>
-      <c r="I108" s="146"/>
-      <c r="J108" s="146"/>
-      <c r="K108" s="146"/>
-      <c r="L108" s="146"/>
-      <c r="M108" s="146"/>
+      <c r="F108" s="150"/>
+      <c r="G108" s="150"/>
+      <c r="H108" s="150"/>
+      <c r="I108" s="150"/>
+      <c r="J108" s="150"/>
+      <c r="K108" s="150"/>
+      <c r="L108" s="150"/>
+      <c r="M108" s="150"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="F109" s="146"/>
-      <c r="G109" s="146"/>
-      <c r="H109" s="146"/>
-      <c r="I109" s="146"/>
-      <c r="J109" s="146"/>
-      <c r="K109" s="146"/>
-      <c r="L109" s="146"/>
-      <c r="M109" s="146"/>
+      <c r="F109" s="150"/>
+      <c r="G109" s="150"/>
+      <c r="H109" s="150"/>
+      <c r="I109" s="150"/>
+      <c r="J109" s="150"/>
+      <c r="K109" s="150"/>
+      <c r="L109" s="150"/>
+      <c r="M109" s="150"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="F110" s="146"/>
-      <c r="G110" s="146"/>
-      <c r="H110" s="146"/>
-      <c r="I110" s="146"/>
-      <c r="J110" s="146"/>
-      <c r="K110" s="146"/>
-      <c r="L110" s="146"/>
-      <c r="M110" s="146"/>
+      <c r="F110" s="150"/>
+      <c r="G110" s="150"/>
+      <c r="H110" s="150"/>
+      <c r="I110" s="150"/>
+      <c r="J110" s="150"/>
+      <c r="K110" s="150"/>
+      <c r="L110" s="150"/>
+      <c r="M110" s="150"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="F111" s="146"/>
-      <c r="G111" s="146"/>
-      <c r="H111" s="146"/>
-      <c r="I111" s="146"/>
-      <c r="J111" s="146"/>
-      <c r="K111" s="146"/>
-      <c r="L111" s="146"/>
-      <c r="M111" s="146"/>
+      <c r="F111" s="150"/>
+      <c r="G111" s="150"/>
+      <c r="H111" s="150"/>
+      <c r="I111" s="150"/>
+      <c r="J111" s="150"/>
+      <c r="K111" s="150"/>
+      <c r="L111" s="150"/>
+      <c r="M111" s="150"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="F112" s="146"/>
-      <c r="G112" s="146"/>
-      <c r="H112" s="146"/>
-      <c r="I112" s="146"/>
-      <c r="J112" s="146"/>
-      <c r="K112" s="146"/>
-      <c r="L112" s="146"/>
-      <c r="M112" s="146"/>
+      <c r="F112" s="150"/>
+      <c r="G112" s="150"/>
+      <c r="H112" s="150"/>
+      <c r="I112" s="150"/>
+      <c r="J112" s="150"/>
+      <c r="K112" s="150"/>
+      <c r="L112" s="150"/>
+      <c r="M112" s="150"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="F113" s="146"/>
-      <c r="G113" s="146"/>
-      <c r="H113" s="146"/>
-      <c r="I113" s="146"/>
-      <c r="J113" s="146"/>
-      <c r="K113" s="146"/>
-      <c r="L113" s="146"/>
-      <c r="M113" s="146"/>
+      <c r="F113" s="150"/>
+      <c r="G113" s="150"/>
+      <c r="H113" s="150"/>
+      <c r="I113" s="150"/>
+      <c r="J113" s="150"/>
+      <c r="K113" s="150"/>
+      <c r="L113" s="150"/>
+      <c r="M113" s="150"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="F114" s="146"/>
-      <c r="G114" s="146"/>
-      <c r="H114" s="146"/>
-      <c r="I114" s="146"/>
-      <c r="J114" s="146"/>
-      <c r="K114" s="146"/>
-      <c r="L114" s="146"/>
-      <c r="M114" s="146"/>
+      <c r="F114" s="150"/>
+      <c r="G114" s="150"/>
+      <c r="H114" s="150"/>
+      <c r="I114" s="150"/>
+      <c r="J114" s="150"/>
+      <c r="K114" s="150"/>
+      <c r="L114" s="150"/>
+      <c r="M114" s="150"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="F115" s="146"/>
-      <c r="G115" s="146"/>
-      <c r="H115" s="146"/>
-      <c r="I115" s="146"/>
-      <c r="J115" s="146"/>
-      <c r="K115" s="146"/>
-      <c r="L115" s="146"/>
-      <c r="M115" s="146"/>
+      <c r="F115" s="150"/>
+      <c r="G115" s="150"/>
+      <c r="H115" s="150"/>
+      <c r="I115" s="150"/>
+      <c r="J115" s="150"/>
+      <c r="K115" s="150"/>
+      <c r="L115" s="150"/>
+      <c r="M115" s="150"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="F116" s="146"/>
-      <c r="G116" s="146"/>
-      <c r="H116" s="146"/>
-      <c r="I116" s="146"/>
-      <c r="J116" s="146"/>
-      <c r="K116" s="146"/>
-      <c r="L116" s="146"/>
-      <c r="M116" s="146"/>
+      <c r="F116" s="150"/>
+      <c r="G116" s="150"/>
+      <c r="H116" s="150"/>
+      <c r="I116" s="150"/>
+      <c r="J116" s="150"/>
+      <c r="K116" s="150"/>
+      <c r="L116" s="150"/>
+      <c r="M116" s="150"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="F117" s="146"/>
-      <c r="G117" s="146"/>
-      <c r="H117" s="146"/>
-      <c r="I117" s="146"/>
-      <c r="J117" s="146"/>
-      <c r="K117" s="146"/>
-      <c r="L117" s="146"/>
-      <c r="M117" s="146"/>
+      <c r="F117" s="150"/>
+      <c r="G117" s="150"/>
+      <c r="H117" s="150"/>
+      <c r="I117" s="150"/>
+      <c r="J117" s="150"/>
+      <c r="K117" s="150"/>
+      <c r="L117" s="150"/>
+      <c r="M117" s="150"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="F118" s="146"/>
-      <c r="G118" s="146"/>
-      <c r="H118" s="146"/>
-      <c r="I118" s="146"/>
-      <c r="J118" s="146"/>
-      <c r="K118" s="146"/>
-      <c r="L118" s="146"/>
-      <c r="M118" s="146"/>
+      <c r="F118" s="150"/>
+      <c r="G118" s="150"/>
+      <c r="H118" s="150"/>
+      <c r="I118" s="150"/>
+      <c r="J118" s="150"/>
+      <c r="K118" s="150"/>
+      <c r="L118" s="150"/>
+      <c r="M118" s="150"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="F119" s="146"/>
-      <c r="G119" s="146"/>
-      <c r="H119" s="146"/>
-      <c r="I119" s="146"/>
-      <c r="J119" s="146"/>
-      <c r="K119" s="146"/>
-      <c r="L119" s="146"/>
-      <c r="M119" s="146"/>
+      <c r="F119" s="150"/>
+      <c r="G119" s="150"/>
+      <c r="H119" s="150"/>
+      <c r="I119" s="150"/>
+      <c r="J119" s="150"/>
+      <c r="K119" s="150"/>
+      <c r="L119" s="150"/>
+      <c r="M119" s="150"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="F120" s="146"/>
-      <c r="G120" s="146"/>
-      <c r="H120" s="146"/>
-      <c r="I120" s="146"/>
-      <c r="J120" s="146"/>
-      <c r="K120" s="146"/>
-      <c r="L120" s="146"/>
-      <c r="M120" s="146"/>
+      <c r="F120" s="150"/>
+      <c r="G120" s="150"/>
+      <c r="H120" s="150"/>
+      <c r="I120" s="150"/>
+      <c r="J120" s="150"/>
+      <c r="K120" s="150"/>
+      <c r="L120" s="150"/>
+      <c r="M120" s="150"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="F121" s="146"/>
-      <c r="G121" s="146"/>
-      <c r="H121" s="146"/>
-      <c r="I121" s="146"/>
-      <c r="J121" s="146"/>
-      <c r="K121" s="146"/>
-      <c r="L121" s="146"/>
-      <c r="M121" s="146"/>
+      <c r="F121" s="150"/>
+      <c r="G121" s="150"/>
+      <c r="H121" s="150"/>
+      <c r="I121" s="150"/>
+      <c r="J121" s="150"/>
+      <c r="K121" s="150"/>
+      <c r="L121" s="150"/>
+      <c r="M121" s="150"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="F122" s="146"/>
-      <c r="G122" s="146"/>
-      <c r="H122" s="146"/>
-      <c r="I122" s="146"/>
-      <c r="J122" s="146"/>
-      <c r="K122" s="146"/>
-      <c r="L122" s="146"/>
-      <c r="M122" s="146"/>
+      <c r="F122" s="150"/>
+      <c r="G122" s="150"/>
+      <c r="H122" s="150"/>
+      <c r="I122" s="150"/>
+      <c r="J122" s="150"/>
+      <c r="K122" s="150"/>
+      <c r="L122" s="150"/>
+      <c r="M122" s="150"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="F123" s="146"/>
-      <c r="G123" s="146"/>
-      <c r="H123" s="146"/>
-      <c r="I123" s="146"/>
-      <c r="J123" s="146"/>
-      <c r="K123" s="146"/>
-      <c r="L123" s="146"/>
-      <c r="M123" s="146"/>
+      <c r="F123" s="150"/>
+      <c r="G123" s="150"/>
+      <c r="H123" s="150"/>
+      <c r="I123" s="150"/>
+      <c r="J123" s="150"/>
+      <c r="K123" s="150"/>
+      <c r="L123" s="150"/>
+      <c r="M123" s="150"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="F124" s="146"/>
-      <c r="G124" s="146"/>
-      <c r="H124" s="146"/>
-      <c r="I124" s="146"/>
-      <c r="J124" s="146"/>
-      <c r="K124" s="146"/>
-      <c r="L124" s="146"/>
-      <c r="M124" s="146"/>
+      <c r="F124" s="150"/>
+      <c r="G124" s="150"/>
+      <c r="H124" s="150"/>
+      <c r="I124" s="150"/>
+      <c r="J124" s="150"/>
+      <c r="K124" s="150"/>
+      <c r="L124" s="150"/>
+      <c r="M124" s="150"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="F125" s="146"/>
-      <c r="G125" s="146"/>
-      <c r="H125" s="146"/>
-      <c r="I125" s="146"/>
-      <c r="J125" s="146"/>
-      <c r="K125" s="146"/>
-      <c r="L125" s="146"/>
-      <c r="M125" s="146"/>
+      <c r="F125" s="150"/>
+      <c r="G125" s="150"/>
+      <c r="H125" s="150"/>
+      <c r="I125" s="150"/>
+      <c r="J125" s="150"/>
+      <c r="K125" s="150"/>
+      <c r="L125" s="150"/>
+      <c r="M125" s="150"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="F126" s="146"/>
-      <c r="G126" s="146"/>
-      <c r="H126" s="146"/>
-      <c r="I126" s="146"/>
-      <c r="J126" s="146"/>
-      <c r="K126" s="146"/>
-      <c r="L126" s="146"/>
-      <c r="M126" s="146"/>
+      <c r="F126" s="150"/>
+      <c r="G126" s="150"/>
+      <c r="H126" s="150"/>
+      <c r="I126" s="150"/>
+      <c r="J126" s="150"/>
+      <c r="K126" s="150"/>
+      <c r="L126" s="150"/>
+      <c r="M126" s="150"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="F127" s="146"/>
-      <c r="G127" s="146"/>
-      <c r="H127" s="146"/>
-      <c r="I127" s="146"/>
-      <c r="J127" s="146"/>
-      <c r="K127" s="146"/>
-      <c r="L127" s="146"/>
-      <c r="M127" s="146"/>
+      <c r="F127" s="150"/>
+      <c r="G127" s="150"/>
+      <c r="H127" s="150"/>
+      <c r="I127" s="150"/>
+      <c r="J127" s="150"/>
+      <c r="K127" s="150"/>
+      <c r="L127" s="150"/>
+      <c r="M127" s="150"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="F128" s="146"/>
-      <c r="G128" s="146"/>
-      <c r="H128" s="146"/>
-      <c r="I128" s="146"/>
-      <c r="J128" s="146"/>
-      <c r="K128" s="146"/>
-      <c r="L128" s="146"/>
-      <c r="M128" s="146"/>
+      <c r="F128" s="150"/>
+      <c r="G128" s="150"/>
+      <c r="H128" s="150"/>
+      <c r="I128" s="150"/>
+      <c r="J128" s="150"/>
+      <c r="K128" s="150"/>
+      <c r="L128" s="150"/>
+      <c r="M128" s="150"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="F129" s="146"/>
-      <c r="G129" s="146"/>
-      <c r="H129" s="146"/>
-      <c r="I129" s="146"/>
-      <c r="J129" s="146"/>
-      <c r="K129" s="146"/>
-      <c r="L129" s="146"/>
-      <c r="M129" s="146"/>
+      <c r="F129" s="150"/>
+      <c r="G129" s="150"/>
+      <c r="H129" s="150"/>
+      <c r="I129" s="150"/>
+      <c r="J129" s="150"/>
+      <c r="K129" s="150"/>
+      <c r="L129" s="150"/>
+      <c r="M129" s="150"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="F130" s="146"/>
-      <c r="G130" s="146"/>
-      <c r="H130" s="146"/>
-      <c r="I130" s="146"/>
-      <c r="J130" s="146"/>
-      <c r="K130" s="146"/>
-      <c r="L130" s="146"/>
-      <c r="M130" s="146"/>
+      <c r="F130" s="150"/>
+      <c r="G130" s="150"/>
+      <c r="H130" s="150"/>
+      <c r="I130" s="150"/>
+      <c r="J130" s="150"/>
+      <c r="K130" s="150"/>
+      <c r="L130" s="150"/>
+      <c r="M130" s="150"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="F131" s="146"/>
-      <c r="G131" s="146"/>
-      <c r="H131" s="146"/>
-      <c r="I131" s="146"/>
-      <c r="J131" s="146"/>
-      <c r="K131" s="146"/>
-      <c r="L131" s="146"/>
-      <c r="M131" s="146"/>
+      <c r="F131" s="150"/>
+      <c r="G131" s="150"/>
+      <c r="H131" s="150"/>
+      <c r="I131" s="150"/>
+      <c r="J131" s="150"/>
+      <c r="K131" s="150"/>
+      <c r="L131" s="150"/>
+      <c r="M131" s="150"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="F132" s="146"/>
-      <c r="G132" s="146"/>
-      <c r="H132" s="146"/>
-      <c r="I132" s="146"/>
-      <c r="J132" s="146"/>
-      <c r="K132" s="146"/>
-      <c r="L132" s="146"/>
-      <c r="M132" s="146"/>
+      <c r="F132" s="150"/>
+      <c r="G132" s="150"/>
+      <c r="H132" s="150"/>
+      <c r="I132" s="150"/>
+      <c r="J132" s="150"/>
+      <c r="K132" s="150"/>
+      <c r="L132" s="150"/>
+      <c r="M132" s="150"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="F133" s="146"/>
-      <c r="G133" s="146"/>
-      <c r="H133" s="146"/>
-      <c r="I133" s="146"/>
-      <c r="J133" s="146"/>
-      <c r="K133" s="146"/>
-      <c r="L133" s="146"/>
-      <c r="M133" s="146"/>
+      <c r="F133" s="150"/>
+      <c r="G133" s="150"/>
+      <c r="H133" s="150"/>
+      <c r="I133" s="150"/>
+      <c r="J133" s="150"/>
+      <c r="K133" s="150"/>
+      <c r="L133" s="150"/>
+      <c r="M133" s="150"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="F134" s="146"/>
-      <c r="G134" s="146"/>
-      <c r="H134" s="146"/>
-      <c r="I134" s="146"/>
-      <c r="J134" s="146"/>
-      <c r="K134" s="146"/>
-      <c r="L134" s="146"/>
-      <c r="M134" s="146"/>
+      <c r="F134" s="150"/>
+      <c r="G134" s="150"/>
+      <c r="H134" s="150"/>
+      <c r="I134" s="150"/>
+      <c r="J134" s="150"/>
+      <c r="K134" s="150"/>
+      <c r="L134" s="150"/>
+      <c r="M134" s="150"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="F135" s="146"/>
-      <c r="G135" s="146"/>
-      <c r="H135" s="146"/>
-      <c r="I135" s="146"/>
-      <c r="J135" s="146"/>
-      <c r="K135" s="146"/>
-      <c r="L135" s="146"/>
-      <c r="M135" s="146"/>
+      <c r="F135" s="150"/>
+      <c r="G135" s="150"/>
+      <c r="H135" s="150"/>
+      <c r="I135" s="150"/>
+      <c r="J135" s="150"/>
+      <c r="K135" s="150"/>
+      <c r="L135" s="150"/>
+      <c r="M135" s="150"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="F136" s="146"/>
-      <c r="G136" s="146"/>
-      <c r="H136" s="146"/>
-      <c r="I136" s="146"/>
-      <c r="J136" s="146"/>
-      <c r="K136" s="146"/>
-      <c r="L136" s="146"/>
-      <c r="M136" s="146"/>
+      <c r="F136" s="150"/>
+      <c r="G136" s="150"/>
+      <c r="H136" s="150"/>
+      <c r="I136" s="150"/>
+      <c r="J136" s="150"/>
+      <c r="K136" s="150"/>
+      <c r="L136" s="150"/>
+      <c r="M136" s="150"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="F137" s="146"/>
-      <c r="G137" s="146"/>
-      <c r="H137" s="146"/>
-      <c r="I137" s="146"/>
-      <c r="J137" s="146"/>
-      <c r="K137" s="146"/>
-      <c r="L137" s="146"/>
-      <c r="M137" s="146"/>
+      <c r="F137" s="150"/>
+      <c r="G137" s="150"/>
+      <c r="H137" s="150"/>
+      <c r="I137" s="150"/>
+      <c r="J137" s="150"/>
+      <c r="K137" s="150"/>
+      <c r="L137" s="150"/>
+      <c r="M137" s="150"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="F138" s="146"/>
-      <c r="G138" s="146"/>
-      <c r="H138" s="146"/>
-      <c r="I138" s="146"/>
-      <c r="J138" s="146"/>
-      <c r="K138" s="146"/>
-      <c r="L138" s="146"/>
-      <c r="M138" s="146"/>
+      <c r="F138" s="150"/>
+      <c r="G138" s="150"/>
+      <c r="H138" s="150"/>
+      <c r="I138" s="150"/>
+      <c r="J138" s="150"/>
+      <c r="K138" s="150"/>
+      <c r="L138" s="150"/>
+      <c r="M138" s="150"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="F139" s="146"/>
-      <c r="G139" s="146"/>
-      <c r="H139" s="146"/>
-      <c r="I139" s="146"/>
-      <c r="J139" s="146"/>
-      <c r="K139" s="146"/>
-      <c r="L139" s="146"/>
-      <c r="M139" s="146"/>
+      <c r="F139" s="150"/>
+      <c r="G139" s="150"/>
+      <c r="H139" s="150"/>
+      <c r="I139" s="150"/>
+      <c r="J139" s="150"/>
+      <c r="K139" s="150"/>
+      <c r="L139" s="150"/>
+      <c r="M139" s="150"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="F140" s="146"/>
-      <c r="G140" s="146"/>
-      <c r="H140" s="146"/>
-      <c r="I140" s="146"/>
-      <c r="J140" s="146"/>
-      <c r="K140" s="146"/>
-      <c r="L140" s="146"/>
-      <c r="M140" s="146"/>
+      <c r="F140" s="150"/>
+      <c r="G140" s="150"/>
+      <c r="H140" s="150"/>
+      <c r="I140" s="150"/>
+      <c r="J140" s="150"/>
+      <c r="K140" s="150"/>
+      <c r="L140" s="150"/>
+      <c r="M140" s="150"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="F141" s="146"/>
-      <c r="G141" s="146"/>
-      <c r="H141" s="146"/>
-      <c r="I141" s="146"/>
-      <c r="J141" s="146"/>
-      <c r="K141" s="146"/>
-      <c r="L141" s="146"/>
-      <c r="M141" s="146"/>
+      <c r="F141" s="150"/>
+      <c r="G141" s="150"/>
+      <c r="H141" s="150"/>
+      <c r="I141" s="150"/>
+      <c r="J141" s="150"/>
+      <c r="K141" s="150"/>
+      <c r="L141" s="150"/>
+      <c r="M141" s="150"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="F142" s="146"/>
-      <c r="G142" s="146"/>
-      <c r="H142" s="146"/>
-      <c r="I142" s="146"/>
-      <c r="J142" s="146"/>
-      <c r="K142" s="146"/>
-      <c r="L142" s="146"/>
-      <c r="M142" s="146"/>
+      <c r="F142" s="150"/>
+      <c r="G142" s="150"/>
+      <c r="H142" s="150"/>
+      <c r="I142" s="150"/>
+      <c r="J142" s="150"/>
+      <c r="K142" s="150"/>
+      <c r="L142" s="150"/>
+      <c r="M142" s="150"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="F143" s="146"/>
-      <c r="G143" s="146"/>
-      <c r="H143" s="146"/>
-      <c r="I143" s="146"/>
-      <c r="J143" s="146"/>
-      <c r="K143" s="146"/>
-      <c r="L143" s="146"/>
-      <c r="M143" s="146"/>
+      <c r="F143" s="150"/>
+      <c r="G143" s="150"/>
+      <c r="H143" s="150"/>
+      <c r="I143" s="150"/>
+      <c r="J143" s="150"/>
+      <c r="K143" s="150"/>
+      <c r="L143" s="150"/>
+      <c r="M143" s="150"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="F144" s="146"/>
-      <c r="G144" s="146"/>
-      <c r="H144" s="146"/>
-      <c r="I144" s="146"/>
-      <c r="J144" s="146"/>
-      <c r="K144" s="146"/>
-      <c r="L144" s="146"/>
-      <c r="M144" s="146"/>
+      <c r="F144" s="150"/>
+      <c r="G144" s="150"/>
+      <c r="H144" s="150"/>
+      <c r="I144" s="150"/>
+      <c r="J144" s="150"/>
+      <c r="K144" s="150"/>
+      <c r="L144" s="150"/>
+      <c r="M144" s="150"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="F145" s="146"/>
-      <c r="G145" s="146"/>
-      <c r="H145" s="146"/>
-      <c r="I145" s="146"/>
-      <c r="J145" s="146"/>
-      <c r="K145" s="146"/>
-      <c r="L145" s="146"/>
-      <c r="M145" s="146"/>
+      <c r="F145" s="150"/>
+      <c r="G145" s="150"/>
+      <c r="H145" s="150"/>
+      <c r="I145" s="150"/>
+      <c r="J145" s="150"/>
+      <c r="K145" s="150"/>
+      <c r="L145" s="150"/>
+      <c r="M145" s="150"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="F146" s="146"/>
-      <c r="G146" s="146"/>
-      <c r="H146" s="146"/>
-      <c r="I146" s="146"/>
-      <c r="J146" s="146"/>
-      <c r="K146" s="146"/>
-      <c r="L146" s="146"/>
-      <c r="M146" s="146"/>
+      <c r="F146" s="150"/>
+      <c r="G146" s="150"/>
+      <c r="H146" s="150"/>
+      <c r="I146" s="150"/>
+      <c r="J146" s="150"/>
+      <c r="K146" s="150"/>
+      <c r="L146" s="150"/>
+      <c r="M146" s="150"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="F147" s="146"/>
-      <c r="G147" s="146"/>
-      <c r="H147" s="146"/>
-      <c r="I147" s="146"/>
-      <c r="J147" s="146"/>
-      <c r="K147" s="146"/>
-      <c r="L147" s="146"/>
-      <c r="M147" s="146"/>
+      <c r="F147" s="150"/>
+      <c r="G147" s="150"/>
+      <c r="H147" s="150"/>
+      <c r="I147" s="150"/>
+      <c r="J147" s="150"/>
+      <c r="K147" s="150"/>
+      <c r="L147" s="150"/>
+      <c r="M147" s="150"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="F148" s="146"/>
-      <c r="G148" s="146"/>
-      <c r="H148" s="146"/>
-      <c r="I148" s="146"/>
-      <c r="J148" s="146"/>
-      <c r="K148" s="146"/>
-      <c r="L148" s="146"/>
-      <c r="M148" s="146"/>
+      <c r="F148" s="150"/>
+      <c r="G148" s="150"/>
+      <c r="H148" s="150"/>
+      <c r="I148" s="150"/>
+      <c r="J148" s="150"/>
+      <c r="K148" s="150"/>
+      <c r="L148" s="150"/>
+      <c r="M148" s="150"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="F149" s="146"/>
-      <c r="G149" s="146"/>
-      <c r="H149" s="146"/>
-      <c r="I149" s="146"/>
-      <c r="J149" s="146"/>
-      <c r="K149" s="146"/>
-      <c r="L149" s="146"/>
-      <c r="M149" s="146"/>
+      <c r="F149" s="150"/>
+      <c r="G149" s="150"/>
+      <c r="H149" s="150"/>
+      <c r="I149" s="150"/>
+      <c r="J149" s="150"/>
+      <c r="K149" s="150"/>
+      <c r="L149" s="150"/>
+      <c r="M149" s="150"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="F150" s="146"/>
-      <c r="G150" s="146"/>
-      <c r="H150" s="146"/>
-      <c r="I150" s="146"/>
-      <c r="J150" s="146"/>
-      <c r="K150" s="146"/>
-      <c r="L150" s="146"/>
-      <c r="M150" s="146"/>
+      <c r="F150" s="150"/>
+      <c r="G150" s="150"/>
+      <c r="H150" s="150"/>
+      <c r="I150" s="150"/>
+      <c r="J150" s="150"/>
+      <c r="K150" s="150"/>
+      <c r="L150" s="150"/>
+      <c r="M150" s="150"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="F151" s="146"/>
-      <c r="G151" s="146"/>
-      <c r="H151" s="146"/>
-      <c r="I151" s="146"/>
-      <c r="J151" s="146"/>
-      <c r="K151" s="146"/>
-      <c r="L151" s="146"/>
-      <c r="M151" s="146"/>
+      <c r="F151" s="150"/>
+      <c r="G151" s="150"/>
+      <c r="H151" s="150"/>
+      <c r="I151" s="150"/>
+      <c r="J151" s="150"/>
+      <c r="K151" s="150"/>
+      <c r="L151" s="150"/>
+      <c r="M151" s="150"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="F152" s="146"/>
-      <c r="G152" s="146"/>
-      <c r="H152" s="146"/>
-      <c r="I152" s="146"/>
-      <c r="J152" s="146"/>
-      <c r="K152" s="146"/>
-      <c r="L152" s="146"/>
-      <c r="M152" s="146"/>
+      <c r="F152" s="150"/>
+      <c r="G152" s="150"/>
+      <c r="H152" s="150"/>
+      <c r="I152" s="150"/>
+      <c r="J152" s="150"/>
+      <c r="K152" s="150"/>
+      <c r="L152" s="150"/>
+      <c r="M152" s="150"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="F153" s="146"/>
-      <c r="G153" s="146"/>
-      <c r="H153" s="146"/>
-      <c r="I153" s="146"/>
-      <c r="J153" s="146"/>
-      <c r="K153" s="146"/>
-      <c r="L153" s="146"/>
-      <c r="M153" s="146"/>
+      <c r="F153" s="150"/>
+      <c r="G153" s="150"/>
+      <c r="H153" s="150"/>
+      <c r="I153" s="150"/>
+      <c r="J153" s="150"/>
+      <c r="K153" s="150"/>
+      <c r="L153" s="150"/>
+      <c r="M153" s="150"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="F154" s="146"/>
-      <c r="G154" s="146"/>
-      <c r="H154" s="146"/>
-      <c r="I154" s="146"/>
-      <c r="J154" s="146"/>
-      <c r="K154" s="146"/>
-      <c r="L154" s="146"/>
-      <c r="M154" s="146"/>
+      <c r="F154" s="150"/>
+      <c r="G154" s="150"/>
+      <c r="H154" s="150"/>
+      <c r="I154" s="150"/>
+      <c r="J154" s="150"/>
+      <c r="K154" s="150"/>
+      <c r="L154" s="150"/>
+      <c r="M154" s="150"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="F155" s="146"/>
-      <c r="G155" s="146"/>
-      <c r="H155" s="146"/>
-      <c r="I155" s="146"/>
-      <c r="J155" s="146"/>
-      <c r="K155" s="146"/>
-      <c r="L155" s="146"/>
-      <c r="M155" s="146"/>
+      <c r="F155" s="150"/>
+      <c r="G155" s="150"/>
+      <c r="H155" s="150"/>
+      <c r="I155" s="150"/>
+      <c r="J155" s="150"/>
+      <c r="K155" s="150"/>
+      <c r="L155" s="150"/>
+      <c r="M155" s="150"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="F156" s="146"/>
-      <c r="G156" s="146"/>
-      <c r="H156" s="146"/>
-      <c r="I156" s="146"/>
-      <c r="J156" s="146"/>
-      <c r="K156" s="146"/>
-      <c r="L156" s="146"/>
-      <c r="M156" s="146"/>
+      <c r="F156" s="150"/>
+      <c r="G156" s="150"/>
+      <c r="H156" s="150"/>
+      <c r="I156" s="150"/>
+      <c r="J156" s="150"/>
+      <c r="K156" s="150"/>
+      <c r="L156" s="150"/>
+      <c r="M156" s="150"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="F157" s="146"/>
-      <c r="G157" s="146"/>
-      <c r="H157" s="146"/>
-      <c r="I157" s="146"/>
-      <c r="J157" s="146"/>
-      <c r="K157" s="146"/>
-      <c r="L157" s="146"/>
-      <c r="M157" s="146"/>
+      <c r="F157" s="150"/>
+      <c r="G157" s="150"/>
+      <c r="H157" s="150"/>
+      <c r="I157" s="150"/>
+      <c r="J157" s="150"/>
+      <c r="K157" s="150"/>
+      <c r="L157" s="150"/>
+      <c r="M157" s="150"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="F158" s="146"/>
-      <c r="G158" s="146"/>
-      <c r="H158" s="146"/>
-      <c r="I158" s="146"/>
-      <c r="J158" s="146"/>
-      <c r="K158" s="146"/>
-      <c r="L158" s="146"/>
-      <c r="M158" s="146"/>
+      <c r="F158" s="150"/>
+      <c r="G158" s="150"/>
+      <c r="H158" s="150"/>
+      <c r="I158" s="150"/>
+      <c r="J158" s="150"/>
+      <c r="K158" s="150"/>
+      <c r="L158" s="150"/>
+      <c r="M158" s="150"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="F159" s="146"/>
-      <c r="G159" s="146"/>
-      <c r="H159" s="146"/>
-      <c r="I159" s="146"/>
-      <c r="J159" s="146"/>
-      <c r="K159" s="146"/>
-      <c r="L159" s="146"/>
-      <c r="M159" s="146"/>
+      <c r="F159" s="150"/>
+      <c r="G159" s="150"/>
+      <c r="H159" s="150"/>
+      <c r="I159" s="150"/>
+      <c r="J159" s="150"/>
+      <c r="K159" s="150"/>
+      <c r="L159" s="150"/>
+      <c r="M159" s="150"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="F160" s="146"/>
-      <c r="G160" s="146"/>
-      <c r="H160" s="146"/>
-      <c r="I160" s="146"/>
-      <c r="J160" s="146"/>
-      <c r="K160" s="146"/>
-      <c r="L160" s="146"/>
-      <c r="M160" s="146"/>
+      <c r="F160" s="150"/>
+      <c r="G160" s="150"/>
+      <c r="H160" s="150"/>
+      <c r="I160" s="150"/>
+      <c r="J160" s="150"/>
+      <c r="K160" s="150"/>
+      <c r="L160" s="150"/>
+      <c r="M160" s="150"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="F161" s="146"/>
-      <c r="G161" s="146"/>
-      <c r="H161" s="146"/>
-      <c r="I161" s="146"/>
-      <c r="J161" s="146"/>
-      <c r="K161" s="146"/>
-      <c r="L161" s="146"/>
-      <c r="M161" s="146"/>
+      <c r="F161" s="150"/>
+      <c r="G161" s="150"/>
+      <c r="H161" s="150"/>
+      <c r="I161" s="150"/>
+      <c r="J161" s="150"/>
+      <c r="K161" s="150"/>
+      <c r="L161" s="150"/>
+      <c r="M161" s="150"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="F162" s="146"/>
-      <c r="G162" s="146"/>
-      <c r="H162" s="146"/>
-      <c r="I162" s="146"/>
-      <c r="J162" s="146"/>
-      <c r="K162" s="146"/>
-      <c r="L162" s="146"/>
-      <c r="M162" s="146"/>
+      <c r="F162" s="150"/>
+      <c r="G162" s="150"/>
+      <c r="H162" s="150"/>
+      <c r="I162" s="150"/>
+      <c r="J162" s="150"/>
+      <c r="K162" s="150"/>
+      <c r="L162" s="150"/>
+      <c r="M162" s="150"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="F163" s="146"/>
-      <c r="G163" s="146"/>
-      <c r="H163" s="146"/>
-      <c r="I163" s="146"/>
-      <c r="J163" s="146"/>
-      <c r="K163" s="146"/>
-      <c r="L163" s="146"/>
-      <c r="M163" s="146"/>
+      <c r="F163" s="150"/>
+      <c r="G163" s="150"/>
+      <c r="H163" s="150"/>
+      <c r="I163" s="150"/>
+      <c r="J163" s="150"/>
+      <c r="K163" s="150"/>
+      <c r="L163" s="150"/>
+      <c r="M163" s="150"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="F164" s="146"/>
-      <c r="G164" s="146"/>
-      <c r="H164" s="146"/>
-      <c r="I164" s="146"/>
-      <c r="J164" s="146"/>
-      <c r="K164" s="146"/>
-      <c r="L164" s="146"/>
-      <c r="M164" s="146"/>
+      <c r="F164" s="150"/>
+      <c r="G164" s="150"/>
+      <c r="H164" s="150"/>
+      <c r="I164" s="150"/>
+      <c r="J164" s="150"/>
+      <c r="K164" s="150"/>
+      <c r="L164" s="150"/>
+      <c r="M164" s="150"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="F165" s="146"/>
-      <c r="G165" s="146"/>
-      <c r="H165" s="146"/>
-      <c r="I165" s="146"/>
-      <c r="J165" s="146"/>
-      <c r="K165" s="146"/>
-      <c r="L165" s="146"/>
-      <c r="M165" s="146"/>
+      <c r="F165" s="150"/>
+      <c r="G165" s="150"/>
+      <c r="H165" s="150"/>
+      <c r="I165" s="150"/>
+      <c r="J165" s="150"/>
+      <c r="K165" s="150"/>
+      <c r="L165" s="150"/>
+      <c r="M165" s="150"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="F166" s="146"/>
-      <c r="G166" s="146"/>
-      <c r="H166" s="146"/>
-      <c r="I166" s="146"/>
-      <c r="J166" s="146"/>
-      <c r="K166" s="146"/>
-      <c r="L166" s="146"/>
-      <c r="M166" s="146"/>
+      <c r="F166" s="150"/>
+      <c r="G166" s="150"/>
+      <c r="H166" s="150"/>
+      <c r="I166" s="150"/>
+      <c r="J166" s="150"/>
+      <c r="K166" s="150"/>
+      <c r="L166" s="150"/>
+      <c r="M166" s="150"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="F167" s="146"/>
-      <c r="G167" s="146"/>
-      <c r="H167" s="146"/>
-      <c r="I167" s="146"/>
-      <c r="J167" s="146"/>
-      <c r="K167" s="146"/>
-      <c r="L167" s="146"/>
-      <c r="M167" s="146"/>
+      <c r="F167" s="150"/>
+      <c r="G167" s="150"/>
+      <c r="H167" s="150"/>
+      <c r="I167" s="150"/>
+      <c r="J167" s="150"/>
+      <c r="K167" s="150"/>
+      <c r="L167" s="150"/>
+      <c r="M167" s="150"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="F168" s="146"/>
-      <c r="G168" s="146"/>
-      <c r="H168" s="146"/>
-      <c r="I168" s="146"/>
-      <c r="J168" s="146"/>
-      <c r="K168" s="146"/>
-      <c r="L168" s="146"/>
-      <c r="M168" s="146"/>
+      <c r="F168" s="150"/>
+      <c r="G168" s="150"/>
+      <c r="H168" s="150"/>
+      <c r="I168" s="150"/>
+      <c r="J168" s="150"/>
+      <c r="K168" s="150"/>
+      <c r="L168" s="150"/>
+      <c r="M168" s="150"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="F169" s="146"/>
-      <c r="G169" s="146"/>
-      <c r="H169" s="146"/>
-      <c r="I169" s="146"/>
-      <c r="J169" s="146"/>
-      <c r="K169" s="146"/>
-      <c r="L169" s="146"/>
-      <c r="M169" s="146"/>
+      <c r="F169" s="150"/>
+      <c r="G169" s="150"/>
+      <c r="H169" s="150"/>
+      <c r="I169" s="150"/>
+      <c r="J169" s="150"/>
+      <c r="K169" s="150"/>
+      <c r="L169" s="150"/>
+      <c r="M169" s="150"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="F170" s="146"/>
-      <c r="G170" s="146"/>
-      <c r="H170" s="146"/>
-      <c r="I170" s="146"/>
-      <c r="J170" s="146"/>
-      <c r="K170" s="146"/>
-      <c r="L170" s="146"/>
-      <c r="M170" s="146"/>
+      <c r="F170" s="150"/>
+      <c r="G170" s="150"/>
+      <c r="H170" s="150"/>
+      <c r="I170" s="150"/>
+      <c r="J170" s="150"/>
+      <c r="K170" s="150"/>
+      <c r="L170" s="150"/>
+      <c r="M170" s="150"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="F171" s="146"/>
-      <c r="G171" s="146"/>
-      <c r="H171" s="146"/>
-      <c r="I171" s="146"/>
-      <c r="J171" s="146"/>
-      <c r="K171" s="146"/>
-      <c r="L171" s="146"/>
-      <c r="M171" s="146"/>
+      <c r="F171" s="150"/>
+      <c r="G171" s="150"/>
+      <c r="H171" s="150"/>
+      <c r="I171" s="150"/>
+      <c r="J171" s="150"/>
+      <c r="K171" s="150"/>
+      <c r="L171" s="150"/>
+      <c r="M171" s="150"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="F172" s="146"/>
-      <c r="G172" s="146"/>
-      <c r="H172" s="146"/>
-      <c r="I172" s="146"/>
-      <c r="J172" s="146"/>
-      <c r="K172" s="146"/>
-      <c r="L172" s="146"/>
-      <c r="M172" s="146"/>
+      <c r="F172" s="150"/>
+      <c r="G172" s="150"/>
+      <c r="H172" s="150"/>
+      <c r="I172" s="150"/>
+      <c r="J172" s="150"/>
+      <c r="K172" s="150"/>
+      <c r="L172" s="150"/>
+      <c r="M172" s="150"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="F173" s="146"/>
-      <c r="G173" s="146"/>
-      <c r="H173" s="146"/>
-      <c r="I173" s="146"/>
-      <c r="J173" s="146"/>
-      <c r="K173" s="146"/>
-      <c r="L173" s="146"/>
-      <c r="M173" s="146"/>
+      <c r="F173" s="150"/>
+      <c r="G173" s="150"/>
+      <c r="H173" s="150"/>
+      <c r="I173" s="150"/>
+      <c r="J173" s="150"/>
+      <c r="K173" s="150"/>
+      <c r="L173" s="150"/>
+      <c r="M173" s="150"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="F174" s="146"/>
-      <c r="G174" s="146"/>
-      <c r="H174" s="146"/>
-      <c r="I174" s="146"/>
-      <c r="J174" s="146"/>
-      <c r="K174" s="146"/>
-      <c r="L174" s="146"/>
-      <c r="M174" s="146"/>
+      <c r="F174" s="150"/>
+      <c r="G174" s="150"/>
+      <c r="H174" s="150"/>
+      <c r="I174" s="150"/>
+      <c r="J174" s="150"/>
+      <c r="K174" s="150"/>
+      <c r="L174" s="150"/>
+      <c r="M174" s="150"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="F175" s="146"/>
-      <c r="G175" s="146"/>
-      <c r="H175" s="146"/>
-      <c r="I175" s="146"/>
-      <c r="J175" s="146"/>
-      <c r="K175" s="146"/>
-      <c r="L175" s="146"/>
-      <c r="M175" s="146"/>
+      <c r="F175" s="150"/>
+      <c r="G175" s="150"/>
+      <c r="H175" s="150"/>
+      <c r="I175" s="150"/>
+      <c r="J175" s="150"/>
+      <c r="K175" s="150"/>
+      <c r="L175" s="150"/>
+      <c r="M175" s="150"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="F176" s="146"/>
-      <c r="G176" s="146"/>
-      <c r="H176" s="146"/>
-      <c r="I176" s="146"/>
-      <c r="J176" s="146"/>
-      <c r="K176" s="146"/>
-      <c r="L176" s="146"/>
-      <c r="M176" s="146"/>
+      <c r="F176" s="150"/>
+      <c r="G176" s="150"/>
+      <c r="H176" s="150"/>
+      <c r="I176" s="150"/>
+      <c r="J176" s="150"/>
+      <c r="K176" s="150"/>
+      <c r="L176" s="150"/>
+      <c r="M176" s="150"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="F177" s="146"/>
-      <c r="G177" s="146"/>
-      <c r="H177" s="146"/>
-      <c r="I177" s="146"/>
-      <c r="J177" s="146"/>
-      <c r="K177" s="146"/>
-      <c r="L177" s="146"/>
-      <c r="M177" s="146"/>
+      <c r="F177" s="150"/>
+      <c r="G177" s="150"/>
+      <c r="H177" s="150"/>
+      <c r="I177" s="150"/>
+      <c r="J177" s="150"/>
+      <c r="K177" s="150"/>
+      <c r="L177" s="150"/>
+      <c r="M177" s="150"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="F178" s="146"/>
-      <c r="G178" s="146"/>
-      <c r="H178" s="146"/>
-      <c r="I178" s="146"/>
-      <c r="J178" s="146"/>
-      <c r="K178" s="146"/>
-      <c r="L178" s="146"/>
-      <c r="M178" s="146"/>
+      <c r="F178" s="150"/>
+      <c r="G178" s="150"/>
+      <c r="H178" s="150"/>
+      <c r="I178" s="150"/>
+      <c r="J178" s="150"/>
+      <c r="K178" s="150"/>
+      <c r="L178" s="150"/>
+      <c r="M178" s="150"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="F179" s="146"/>
-      <c r="G179" s="146"/>
-      <c r="H179" s="146"/>
-      <c r="I179" s="146"/>
-      <c r="J179" s="146"/>
-      <c r="K179" s="146"/>
-      <c r="L179" s="146"/>
-      <c r="M179" s="146"/>
+      <c r="F179" s="150"/>
+      <c r="G179" s="150"/>
+      <c r="H179" s="150"/>
+      <c r="I179" s="150"/>
+      <c r="J179" s="150"/>
+      <c r="K179" s="150"/>
+      <c r="L179" s="150"/>
+      <c r="M179" s="150"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="F180" s="146"/>
-      <c r="G180" s="146"/>
-      <c r="H180" s="146"/>
-      <c r="I180" s="146"/>
-      <c r="J180" s="146"/>
-      <c r="K180" s="146"/>
-      <c r="L180" s="146"/>
-      <c r="M180" s="146"/>
+      <c r="F180" s="150"/>
+      <c r="G180" s="150"/>
+      <c r="H180" s="150"/>
+      <c r="I180" s="150"/>
+      <c r="J180" s="150"/>
+      <c r="K180" s="150"/>
+      <c r="L180" s="150"/>
+      <c r="M180" s="150"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="F181" s="146"/>
-      <c r="G181" s="146"/>
-      <c r="H181" s="146"/>
-      <c r="I181" s="146"/>
-      <c r="J181" s="146"/>
-      <c r="K181" s="146"/>
-      <c r="L181" s="146"/>
-      <c r="M181" s="146"/>
+      <c r="F181" s="150"/>
+      <c r="G181" s="150"/>
+      <c r="H181" s="150"/>
+      <c r="I181" s="150"/>
+      <c r="J181" s="150"/>
+      <c r="K181" s="150"/>
+      <c r="L181" s="150"/>
+      <c r="M181" s="150"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="F182" s="146"/>
-      <c r="G182" s="146"/>
-      <c r="H182" s="146"/>
-      <c r="I182" s="146"/>
-      <c r="J182" s="146"/>
-      <c r="K182" s="146"/>
-      <c r="L182" s="146"/>
-      <c r="M182" s="146"/>
+      <c r="F182" s="150"/>
+      <c r="G182" s="150"/>
+      <c r="H182" s="150"/>
+      <c r="I182" s="150"/>
+      <c r="J182" s="150"/>
+      <c r="K182" s="150"/>
+      <c r="L182" s="150"/>
+      <c r="M182" s="150"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="F183" s="146"/>
-      <c r="G183" s="146"/>
-      <c r="H183" s="146"/>
-      <c r="I183" s="146"/>
-      <c r="J183" s="146"/>
-      <c r="K183" s="146"/>
-      <c r="L183" s="146"/>
-      <c r="M183" s="146"/>
+      <c r="F183" s="150"/>
+      <c r="G183" s="150"/>
+      <c r="H183" s="150"/>
+      <c r="I183" s="150"/>
+      <c r="J183" s="150"/>
+      <c r="K183" s="150"/>
+      <c r="L183" s="150"/>
+      <c r="M183" s="150"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="F184" s="146"/>
-      <c r="G184" s="146"/>
-      <c r="H184" s="146"/>
-      <c r="I184" s="146"/>
-      <c r="J184" s="146"/>
-      <c r="K184" s="146"/>
-      <c r="L184" s="146"/>
-      <c r="M184" s="146"/>
+      <c r="F184" s="150"/>
+      <c r="G184" s="150"/>
+      <c r="H184" s="150"/>
+      <c r="I184" s="150"/>
+      <c r="J184" s="150"/>
+      <c r="K184" s="150"/>
+      <c r="L184" s="150"/>
+      <c r="M184" s="150"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="F185" s="146"/>
-      <c r="G185" s="146"/>
-      <c r="H185" s="146"/>
-      <c r="I185" s="146"/>
-      <c r="J185" s="146"/>
-      <c r="K185" s="146"/>
-      <c r="L185" s="146"/>
-      <c r="M185" s="146"/>
+      <c r="F185" s="150"/>
+      <c r="G185" s="150"/>
+      <c r="H185" s="150"/>
+      <c r="I185" s="150"/>
+      <c r="J185" s="150"/>
+      <c r="K185" s="150"/>
+      <c r="L185" s="150"/>
+      <c r="M185" s="150"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="F186" s="146"/>
-      <c r="G186" s="146"/>
-      <c r="H186" s="146"/>
-      <c r="I186" s="146"/>
-      <c r="J186" s="146"/>
-      <c r="K186" s="146"/>
-      <c r="L186" s="146"/>
-      <c r="M186" s="146"/>
+      <c r="F186" s="150"/>
+      <c r="G186" s="150"/>
+      <c r="H186" s="150"/>
+      <c r="I186" s="150"/>
+      <c r="J186" s="150"/>
+      <c r="K186" s="150"/>
+      <c r="L186" s="150"/>
+      <c r="M186" s="150"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="F187" s="146"/>
-      <c r="G187" s="146"/>
-      <c r="H187" s="146"/>
-      <c r="I187" s="146"/>
-      <c r="J187" s="146"/>
-      <c r="K187" s="146"/>
-      <c r="L187" s="146"/>
-      <c r="M187" s="146"/>
+      <c r="F187" s="150"/>
+      <c r="G187" s="150"/>
+      <c r="H187" s="150"/>
+      <c r="I187" s="150"/>
+      <c r="J187" s="150"/>
+      <c r="K187" s="150"/>
+      <c r="L187" s="150"/>
+      <c r="M187" s="150"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="F188" s="146"/>
-      <c r="G188" s="146"/>
-      <c r="H188" s="146"/>
-      <c r="I188" s="146"/>
-      <c r="J188" s="146"/>
-      <c r="K188" s="146"/>
-      <c r="L188" s="146"/>
-      <c r="M188" s="146"/>
+      <c r="F188" s="150"/>
+      <c r="G188" s="150"/>
+      <c r="H188" s="150"/>
+      <c r="I188" s="150"/>
+      <c r="J188" s="150"/>
+      <c r="K188" s="150"/>
+      <c r="L188" s="150"/>
+      <c r="M188" s="150"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="F189" s="146"/>
-      <c r="G189" s="146"/>
-      <c r="H189" s="146"/>
-      <c r="I189" s="146"/>
-      <c r="J189" s="146"/>
-      <c r="K189" s="146"/>
-      <c r="L189" s="146"/>
-      <c r="M189" s="146"/>
+      <c r="F189" s="150"/>
+      <c r="G189" s="150"/>
+      <c r="H189" s="150"/>
+      <c r="I189" s="150"/>
+      <c r="J189" s="150"/>
+      <c r="K189" s="150"/>
+      <c r="L189" s="150"/>
+      <c r="M189" s="150"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="F190" s="146"/>
-      <c r="G190" s="146"/>
-      <c r="H190" s="146"/>
-      <c r="I190" s="146"/>
-      <c r="J190" s="146"/>
-      <c r="K190" s="146"/>
-      <c r="L190" s="146"/>
-      <c r="M190" s="146"/>
+      <c r="F190" s="150"/>
+      <c r="G190" s="150"/>
+      <c r="H190" s="150"/>
+      <c r="I190" s="150"/>
+      <c r="J190" s="150"/>
+      <c r="K190" s="150"/>
+      <c r="L190" s="150"/>
+      <c r="M190" s="150"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="F191" s="146"/>
-      <c r="G191" s="146"/>
-      <c r="H191" s="146"/>
-      <c r="I191" s="146"/>
-      <c r="J191" s="146"/>
-      <c r="K191" s="146"/>
-      <c r="L191" s="146"/>
-      <c r="M191" s="146"/>
+      <c r="F191" s="150"/>
+      <c r="G191" s="150"/>
+      <c r="H191" s="150"/>
+      <c r="I191" s="150"/>
+      <c r="J191" s="150"/>
+      <c r="K191" s="150"/>
+      <c r="L191" s="150"/>
+      <c r="M191" s="150"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="F192" s="146"/>
-      <c r="G192" s="146"/>
-      <c r="H192" s="146"/>
-      <c r="I192" s="146"/>
-      <c r="J192" s="146"/>
-      <c r="K192" s="146"/>
-      <c r="L192" s="146"/>
-      <c r="M192" s="146"/>
+      <c r="F192" s="150"/>
+      <c r="G192" s="150"/>
+      <c r="H192" s="150"/>
+      <c r="I192" s="150"/>
+      <c r="J192" s="150"/>
+      <c r="K192" s="150"/>
+      <c r="L192" s="150"/>
+      <c r="M192" s="150"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="F193" s="146"/>
-      <c r="G193" s="146"/>
-      <c r="H193" s="146"/>
-      <c r="I193" s="146"/>
-      <c r="J193" s="146"/>
-      <c r="K193" s="146"/>
-      <c r="L193" s="146"/>
-      <c r="M193" s="146"/>
+      <c r="F193" s="150"/>
+      <c r="G193" s="150"/>
+      <c r="H193" s="150"/>
+      <c r="I193" s="150"/>
+      <c r="J193" s="150"/>
+      <c r="K193" s="150"/>
+      <c r="L193" s="150"/>
+      <c r="M193" s="150"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="F194" s="146"/>
-      <c r="G194" s="146"/>
-      <c r="H194" s="146"/>
-      <c r="I194" s="146"/>
-      <c r="J194" s="146"/>
-      <c r="K194" s="146"/>
-      <c r="L194" s="146"/>
-      <c r="M194" s="146"/>
+      <c r="F194" s="150"/>
+      <c r="G194" s="150"/>
+      <c r="H194" s="150"/>
+      <c r="I194" s="150"/>
+      <c r="J194" s="150"/>
+      <c r="K194" s="150"/>
+      <c r="L194" s="150"/>
+      <c r="M194" s="150"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="F195" s="146"/>
-      <c r="G195" s="146"/>
-      <c r="H195" s="146"/>
-      <c r="I195" s="146"/>
-      <c r="J195" s="146"/>
-      <c r="K195" s="146"/>
-      <c r="L195" s="146"/>
-      <c r="M195" s="146"/>
+      <c r="F195" s="150"/>
+      <c r="G195" s="150"/>
+      <c r="H195" s="150"/>
+      <c r="I195" s="150"/>
+      <c r="J195" s="150"/>
+      <c r="K195" s="150"/>
+      <c r="L195" s="150"/>
+      <c r="M195" s="150"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="F196" s="146"/>
-      <c r="G196" s="146"/>
-      <c r="H196" s="146"/>
-      <c r="I196" s="146"/>
-      <c r="J196" s="146"/>
-      <c r="K196" s="146"/>
-      <c r="L196" s="146"/>
-      <c r="M196" s="146"/>
+      <c r="F196" s="150"/>
+      <c r="G196" s="150"/>
+      <c r="H196" s="150"/>
+      <c r="I196" s="150"/>
+      <c r="J196" s="150"/>
+      <c r="K196" s="150"/>
+      <c r="L196" s="150"/>
+      <c r="M196" s="150"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="F197" s="146"/>
-      <c r="G197" s="146"/>
-      <c r="H197" s="146"/>
-      <c r="I197" s="146"/>
-      <c r="J197" s="146"/>
-      <c r="K197" s="146"/>
-      <c r="L197" s="146"/>
-      <c r="M197" s="146"/>
+      <c r="F197" s="150"/>
+      <c r="G197" s="150"/>
+      <c r="H197" s="150"/>
+      <c r="I197" s="150"/>
+      <c r="J197" s="150"/>
+      <c r="K197" s="150"/>
+      <c r="L197" s="150"/>
+      <c r="M197" s="150"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="F198" s="146"/>
-      <c r="G198" s="146"/>
-      <c r="H198" s="146"/>
-      <c r="I198" s="146"/>
-      <c r="J198" s="146"/>
-      <c r="K198" s="146"/>
-      <c r="L198" s="146"/>
-      <c r="M198" s="146"/>
+      <c r="F198" s="150"/>
+      <c r="G198" s="150"/>
+      <c r="H198" s="150"/>
+      <c r="I198" s="150"/>
+      <c r="J198" s="150"/>
+      <c r="K198" s="150"/>
+      <c r="L198" s="150"/>
+      <c r="M198" s="150"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="F199" s="146"/>
-      <c r="G199" s="146"/>
-      <c r="H199" s="146"/>
-      <c r="I199" s="146"/>
-      <c r="J199" s="146"/>
-      <c r="K199" s="146"/>
-      <c r="L199" s="146"/>
-      <c r="M199" s="146"/>
+      <c r="F199" s="150"/>
+      <c r="G199" s="150"/>
+      <c r="H199" s="150"/>
+      <c r="I199" s="150"/>
+      <c r="J199" s="150"/>
+      <c r="K199" s="150"/>
+      <c r="L199" s="150"/>
+      <c r="M199" s="150"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="F200" s="146"/>
-      <c r="G200" s="146"/>
-      <c r="H200" s="146"/>
-      <c r="I200" s="146"/>
-      <c r="J200" s="146"/>
-      <c r="K200" s="146"/>
-      <c r="L200" s="146"/>
-      <c r="M200" s="146"/>
+      <c r="F200" s="150"/>
+      <c r="G200" s="150"/>
+      <c r="H200" s="150"/>
+      <c r="I200" s="150"/>
+      <c r="J200" s="150"/>
+      <c r="K200" s="150"/>
+      <c r="L200" s="150"/>
+      <c r="M200" s="150"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="F201" s="146"/>
-      <c r="G201" s="146"/>
-      <c r="H201" s="146"/>
-      <c r="I201" s="146"/>
-      <c r="J201" s="146"/>
-      <c r="K201" s="146"/>
-      <c r="L201" s="146"/>
-      <c r="M201" s="146"/>
+      <c r="F201" s="150"/>
+      <c r="G201" s="150"/>
+      <c r="H201" s="150"/>
+      <c r="I201" s="150"/>
+      <c r="J201" s="150"/>
+      <c r="K201" s="150"/>
+      <c r="L201" s="150"/>
+      <c r="M201" s="150"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="F202" s="146"/>
-      <c r="G202" s="146"/>
-      <c r="H202" s="146"/>
-      <c r="I202" s="146"/>
-      <c r="J202" s="146"/>
-      <c r="K202" s="146"/>
-      <c r="L202" s="146"/>
-      <c r="M202" s="146"/>
+      <c r="F202" s="150"/>
+      <c r="G202" s="150"/>
+      <c r="H202" s="150"/>
+      <c r="I202" s="150"/>
+      <c r="J202" s="150"/>
+      <c r="K202" s="150"/>
+      <c r="L202" s="150"/>
+      <c r="M202" s="150"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="F203" s="146"/>
-      <c r="G203" s="146"/>
-      <c r="H203" s="146"/>
-      <c r="I203" s="146"/>
-      <c r="J203" s="146"/>
-      <c r="K203" s="146"/>
-      <c r="L203" s="146"/>
-      <c r="M203" s="146"/>
+      <c r="F203" s="150"/>
+      <c r="G203" s="150"/>
+      <c r="H203" s="150"/>
+      <c r="I203" s="150"/>
+      <c r="J203" s="150"/>
+      <c r="K203" s="150"/>
+      <c r="L203" s="150"/>
+      <c r="M203" s="150"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="F204" s="146"/>
-      <c r="G204" s="146"/>
-      <c r="H204" s="146"/>
-      <c r="I204" s="146"/>
-      <c r="J204" s="146"/>
-      <c r="K204" s="146"/>
-      <c r="L204" s="146"/>
-      <c r="M204" s="146"/>
+      <c r="F204" s="150"/>
+      <c r="G204" s="150"/>
+      <c r="H204" s="150"/>
+      <c r="I204" s="150"/>
+      <c r="J204" s="150"/>
+      <c r="K204" s="150"/>
+      <c r="L204" s="150"/>
+      <c r="M204" s="150"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="F205" s="146"/>
-      <c r="G205" s="146"/>
-      <c r="H205" s="146"/>
-      <c r="I205" s="146"/>
-      <c r="J205" s="146"/>
-      <c r="K205" s="146"/>
-      <c r="L205" s="146"/>
-      <c r="M205" s="146"/>
+      <c r="F205" s="150"/>
+      <c r="G205" s="150"/>
+      <c r="H205" s="150"/>
+      <c r="I205" s="150"/>
+      <c r="J205" s="150"/>
+      <c r="K205" s="150"/>
+      <c r="L205" s="150"/>
+      <c r="M205" s="150"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="F206" s="146"/>
-      <c r="G206" s="146"/>
-      <c r="H206" s="146"/>
-      <c r="I206" s="146"/>
-      <c r="J206" s="146"/>
-      <c r="K206" s="146"/>
-      <c r="L206" s="146"/>
-      <c r="M206" s="146"/>
+      <c r="F206" s="150"/>
+      <c r="G206" s="150"/>
+      <c r="H206" s="150"/>
+      <c r="I206" s="150"/>
+      <c r="J206" s="150"/>
+      <c r="K206" s="150"/>
+      <c r="L206" s="150"/>
+      <c r="M206" s="150"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="F207" s="146"/>
-      <c r="G207" s="146"/>
-      <c r="H207" s="146"/>
-      <c r="I207" s="146"/>
-      <c r="J207" s="146"/>
-      <c r="K207" s="146"/>
-      <c r="L207" s="146"/>
-      <c r="M207" s="146"/>
+      <c r="F207" s="150"/>
+      <c r="G207" s="150"/>
+      <c r="H207" s="150"/>
+      <c r="I207" s="150"/>
+      <c r="J207" s="150"/>
+      <c r="K207" s="150"/>
+      <c r="L207" s="150"/>
+      <c r="M207" s="150"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="F208" s="146"/>
-      <c r="G208" s="146"/>
-      <c r="H208" s="146"/>
-      <c r="I208" s="146"/>
-      <c r="J208" s="146"/>
-      <c r="K208" s="146"/>
-      <c r="L208" s="146"/>
-      <c r="M208" s="146"/>
+      <c r="F208" s="150"/>
+      <c r="G208" s="150"/>
+      <c r="H208" s="150"/>
+      <c r="I208" s="150"/>
+      <c r="J208" s="150"/>
+      <c r="K208" s="150"/>
+      <c r="L208" s="150"/>
+      <c r="M208" s="150"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="F209" s="146"/>
-      <c r="G209" s="146"/>
-      <c r="H209" s="146"/>
-      <c r="I209" s="146"/>
-      <c r="J209" s="146"/>
-      <c r="K209" s="146"/>
-      <c r="L209" s="146"/>
-      <c r="M209" s="146"/>
+      <c r="F209" s="150"/>
+      <c r="G209" s="150"/>
+      <c r="H209" s="150"/>
+      <c r="I209" s="150"/>
+      <c r="J209" s="150"/>
+      <c r="K209" s="150"/>
+      <c r="L209" s="150"/>
+      <c r="M209" s="150"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="F210" s="146"/>
-      <c r="G210" s="146"/>
-      <c r="H210" s="146"/>
-      <c r="I210" s="146"/>
-      <c r="J210" s="146"/>
-      <c r="K210" s="146"/>
-      <c r="L210" s="146"/>
-      <c r="M210" s="146"/>
+      <c r="F210" s="150"/>
+      <c r="G210" s="150"/>
+      <c r="H210" s="150"/>
+      <c r="I210" s="150"/>
+      <c r="J210" s="150"/>
+      <c r="K210" s="150"/>
+      <c r="L210" s="150"/>
+      <c r="M210" s="150"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="F211" s="146"/>
-      <c r="G211" s="146"/>
-      <c r="H211" s="146"/>
-      <c r="I211" s="146"/>
-      <c r="J211" s="146"/>
-      <c r="K211" s="146"/>
-      <c r="L211" s="146"/>
-      <c r="M211" s="146"/>
+      <c r="F211" s="150"/>
+      <c r="G211" s="150"/>
+      <c r="H211" s="150"/>
+      <c r="I211" s="150"/>
+      <c r="J211" s="150"/>
+      <c r="K211" s="150"/>
+      <c r="L211" s="150"/>
+      <c r="M211" s="150"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="F212" s="146"/>
-      <c r="G212" s="146"/>
-      <c r="H212" s="146"/>
-      <c r="I212" s="146"/>
-      <c r="J212" s="146"/>
-      <c r="K212" s="146"/>
-      <c r="L212" s="146"/>
-      <c r="M212" s="146"/>
+      <c r="F212" s="150"/>
+      <c r="G212" s="150"/>
+      <c r="H212" s="150"/>
+      <c r="I212" s="150"/>
+      <c r="J212" s="150"/>
+      <c r="K212" s="150"/>
+      <c r="L212" s="150"/>
+      <c r="M212" s="150"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="F213" s="146"/>
-      <c r="G213" s="146"/>
-      <c r="H213" s="146"/>
-      <c r="I213" s="146"/>
-      <c r="J213" s="146"/>
-      <c r="K213" s="146"/>
-      <c r="L213" s="146"/>
-      <c r="M213" s="146"/>
+      <c r="F213" s="150"/>
+      <c r="G213" s="150"/>
+      <c r="H213" s="150"/>
+      <c r="I213" s="150"/>
+      <c r="J213" s="150"/>
+      <c r="K213" s="150"/>
+      <c r="L213" s="150"/>
+      <c r="M213" s="150"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="F214" s="146"/>
-      <c r="G214" s="146"/>
-      <c r="H214" s="146"/>
-      <c r="I214" s="146"/>
-      <c r="J214" s="146"/>
-      <c r="K214" s="146"/>
-      <c r="L214" s="146"/>
-      <c r="M214" s="146"/>
+      <c r="F214" s="150"/>
+      <c r="G214" s="150"/>
+      <c r="H214" s="150"/>
+      <c r="I214" s="150"/>
+      <c r="J214" s="150"/>
+      <c r="K214" s="150"/>
+      <c r="L214" s="150"/>
+      <c r="M214" s="150"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="F215" s="146"/>
-      <c r="G215" s="146"/>
-      <c r="H215" s="146"/>
-      <c r="I215" s="146"/>
-      <c r="J215" s="146"/>
-      <c r="K215" s="146"/>
-      <c r="L215" s="146"/>
-      <c r="M215" s="146"/>
+      <c r="F215" s="150"/>
+      <c r="G215" s="150"/>
+      <c r="H215" s="150"/>
+      <c r="I215" s="150"/>
+      <c r="J215" s="150"/>
+      <c r="K215" s="150"/>
+      <c r="L215" s="150"/>
+      <c r="M215" s="150"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="F216" s="146"/>
-      <c r="G216" s="146"/>
-      <c r="H216" s="146"/>
-      <c r="I216" s="146"/>
-      <c r="J216" s="146"/>
-      <c r="K216" s="146"/>
-      <c r="L216" s="146"/>
-      <c r="M216" s="146"/>
+      <c r="F216" s="150"/>
+      <c r="G216" s="150"/>
+      <c r="H216" s="150"/>
+      <c r="I216" s="150"/>
+      <c r="J216" s="150"/>
+      <c r="K216" s="150"/>
+      <c r="L216" s="150"/>
+      <c r="M216" s="150"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="F217" s="146"/>
-      <c r="G217" s="146"/>
-      <c r="H217" s="146"/>
-      <c r="I217" s="146"/>
-      <c r="J217" s="146"/>
-      <c r="K217" s="146"/>
-      <c r="L217" s="146"/>
-      <c r="M217" s="146"/>
+      <c r="F217" s="150"/>
+      <c r="G217" s="150"/>
+      <c r="H217" s="150"/>
+      <c r="I217" s="150"/>
+      <c r="J217" s="150"/>
+      <c r="K217" s="150"/>
+      <c r="L217" s="150"/>
+      <c r="M217" s="150"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="F218" s="146"/>
-      <c r="G218" s="146"/>
-      <c r="H218" s="146"/>
-      <c r="I218" s="146"/>
-      <c r="J218" s="146"/>
-      <c r="K218" s="146"/>
-      <c r="L218" s="146"/>
-      <c r="M218" s="146"/>
+      <c r="F218" s="150"/>
+      <c r="G218" s="150"/>
+      <c r="H218" s="150"/>
+      <c r="I218" s="150"/>
+      <c r="J218" s="150"/>
+      <c r="K218" s="150"/>
+      <c r="L218" s="150"/>
+      <c r="M218" s="150"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="F219" s="146"/>
-      <c r="G219" s="146"/>
-      <c r="H219" s="146"/>
-      <c r="I219" s="146"/>
-      <c r="J219" s="146"/>
-      <c r="K219" s="146"/>
-      <c r="L219" s="146"/>
-      <c r="M219" s="146"/>
+      <c r="F219" s="150"/>
+      <c r="G219" s="150"/>
+      <c r="H219" s="150"/>
+      <c r="I219" s="150"/>
+      <c r="J219" s="150"/>
+      <c r="K219" s="150"/>
+      <c r="L219" s="150"/>
+      <c r="M219" s="150"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="F220" s="146"/>
-      <c r="G220" s="146"/>
-      <c r="H220" s="146"/>
-      <c r="I220" s="146"/>
-      <c r="J220" s="146"/>
-      <c r="K220" s="146"/>
-      <c r="L220" s="146"/>
-      <c r="M220" s="146"/>
+      <c r="F220" s="150"/>
+      <c r="G220" s="150"/>
+      <c r="H220" s="150"/>
+      <c r="I220" s="150"/>
+      <c r="J220" s="150"/>
+      <c r="K220" s="150"/>
+      <c r="L220" s="150"/>
+      <c r="M220" s="150"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="F221" s="146"/>
-      <c r="G221" s="146"/>
-      <c r="H221" s="146"/>
-      <c r="I221" s="146"/>
-      <c r="J221" s="146"/>
-      <c r="K221" s="146"/>
-      <c r="L221" s="146"/>
-      <c r="M221" s="146"/>
+      <c r="F221" s="150"/>
+      <c r="G221" s="150"/>
+      <c r="H221" s="150"/>
+      <c r="I221" s="150"/>
+      <c r="J221" s="150"/>
+      <c r="K221" s="150"/>
+      <c r="L221" s="150"/>
+      <c r="M221" s="150"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="F222" s="146"/>
-      <c r="G222" s="146"/>
-      <c r="H222" s="146"/>
-      <c r="I222" s="146"/>
-      <c r="J222" s="146"/>
-      <c r="K222" s="146"/>
-      <c r="L222" s="146"/>
-      <c r="M222" s="146"/>
+      <c r="F222" s="150"/>
+      <c r="G222" s="150"/>
+      <c r="H222" s="150"/>
+      <c r="I222" s="150"/>
+      <c r="J222" s="150"/>
+      <c r="K222" s="150"/>
+      <c r="L222" s="150"/>
+      <c r="M222" s="150"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="F223" s="146"/>
-      <c r="G223" s="146"/>
-      <c r="H223" s="146"/>
-      <c r="I223" s="146"/>
-      <c r="J223" s="146"/>
-      <c r="K223" s="146"/>
-      <c r="L223" s="146"/>
-      <c r="M223" s="146"/>
+      <c r="F223" s="150"/>
+      <c r="G223" s="150"/>
+      <c r="H223" s="150"/>
+      <c r="I223" s="150"/>
+      <c r="J223" s="150"/>
+      <c r="K223" s="150"/>
+      <c r="L223" s="150"/>
+      <c r="M223" s="150"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="F224" s="146"/>
-      <c r="G224" s="146"/>
-      <c r="H224" s="146"/>
-      <c r="I224" s="146"/>
-      <c r="J224" s="146"/>
-      <c r="K224" s="146"/>
-      <c r="L224" s="146"/>
-      <c r="M224" s="146"/>
+      <c r="F224" s="150"/>
+      <c r="G224" s="150"/>
+      <c r="H224" s="150"/>
+      <c r="I224" s="150"/>
+      <c r="J224" s="150"/>
+      <c r="K224" s="150"/>
+      <c r="L224" s="150"/>
+      <c r="M224" s="150"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="F225" s="146"/>
-      <c r="G225" s="146"/>
-      <c r="H225" s="146"/>
-      <c r="I225" s="146"/>
-      <c r="J225" s="146"/>
-      <c r="K225" s="146"/>
-      <c r="L225" s="146"/>
-      <c r="M225" s="146"/>
+      <c r="F225" s="150"/>
+      <c r="G225" s="150"/>
+      <c r="H225" s="150"/>
+      <c r="I225" s="150"/>
+      <c r="J225" s="150"/>
+      <c r="K225" s="150"/>
+      <c r="L225" s="150"/>
+      <c r="M225" s="150"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="F226" s="146"/>
-      <c r="G226" s="146"/>
-      <c r="H226" s="146"/>
-      <c r="I226" s="146"/>
-      <c r="J226" s="146"/>
-      <c r="K226" s="146"/>
-      <c r="L226" s="146"/>
-      <c r="M226" s="146"/>
+      <c r="F226" s="150"/>
+      <c r="G226" s="150"/>
+      <c r="H226" s="150"/>
+      <c r="I226" s="150"/>
+      <c r="J226" s="150"/>
+      <c r="K226" s="150"/>
+      <c r="L226" s="150"/>
+      <c r="M226" s="150"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="F227" s="146"/>
-      <c r="G227" s="146"/>
-      <c r="H227" s="146"/>
-      <c r="I227" s="146"/>
-      <c r="J227" s="146"/>
-      <c r="K227" s="146"/>
-      <c r="L227" s="146"/>
-      <c r="M227" s="146"/>
+      <c r="F227" s="150"/>
+      <c r="G227" s="150"/>
+      <c r="H227" s="150"/>
+      <c r="I227" s="150"/>
+      <c r="J227" s="150"/>
+      <c r="K227" s="150"/>
+      <c r="L227" s="150"/>
+      <c r="M227" s="150"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="F228" s="146"/>
-      <c r="G228" s="146"/>
-      <c r="H228" s="146"/>
-      <c r="I228" s="146"/>
-      <c r="J228" s="146"/>
-      <c r="K228" s="146"/>
-      <c r="L228" s="146"/>
-      <c r="M228" s="146"/>
+      <c r="F228" s="150"/>
+      <c r="G228" s="150"/>
+      <c r="H228" s="150"/>
+      <c r="I228" s="150"/>
+      <c r="J228" s="150"/>
+      <c r="K228" s="150"/>
+      <c r="L228" s="150"/>
+      <c r="M228" s="150"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="F229" s="146"/>
-      <c r="G229" s="146"/>
-      <c r="H229" s="146"/>
-      <c r="I229" s="146"/>
-      <c r="J229" s="146"/>
-      <c r="K229" s="146"/>
-      <c r="L229" s="146"/>
-      <c r="M229" s="146"/>
+      <c r="F229" s="150"/>
+      <c r="G229" s="150"/>
+      <c r="H229" s="150"/>
+      <c r="I229" s="150"/>
+      <c r="J229" s="150"/>
+      <c r="K229" s="150"/>
+      <c r="L229" s="150"/>
+      <c r="M229" s="150"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="F230" s="146"/>
-      <c r="G230" s="146"/>
-      <c r="H230" s="146"/>
-      <c r="I230" s="146"/>
-      <c r="J230" s="146"/>
-      <c r="K230" s="146"/>
-      <c r="L230" s="146"/>
-      <c r="M230" s="146"/>
+      <c r="F230" s="150"/>
+      <c r="G230" s="150"/>
+      <c r="H230" s="150"/>
+      <c r="I230" s="150"/>
+      <c r="J230" s="150"/>
+      <c r="K230" s="150"/>
+      <c r="L230" s="150"/>
+      <c r="M230" s="150"/>
     </row>
     <row r="231" ht="15.75" customHeight="1"/>
     <row r="232" ht="15.75" customHeight="1"/>

--- a/Fase 3/Evidencias Grupales/Canvas Inmobiliapp.xlsx
+++ b/Fase 3/Evidencias Grupales/Canvas Inmobiliapp.xlsx
@@ -642,6 +642,11 @@
       <name val="Open Sans"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="0"/>
@@ -702,11 +707,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Open Sans"/>
     </font>
@@ -1227,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1414,116 +1414,124 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="42" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="42" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="42" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="42" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="42" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="42" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="43" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="43" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="45" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="46" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="47" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="47" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="47" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="47" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="47" fillId="10" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="27" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="10" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="47" fillId="0" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="10" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="45" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="45" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="30" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="32" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="32" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="33" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="47" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="47" fillId="10" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1538,13 +1546,13 @@
     <xf borderId="47" fillId="10" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1557,7 +1565,7 @@
     <xf borderId="47" fillId="10" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="28" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="0" fontId="29" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -4762,6 +4770,15 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H9:I14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C14"/>
+    <mergeCell ref="D9:E14"/>
+    <mergeCell ref="F9:G14"/>
     <mergeCell ref="H16:I19"/>
     <mergeCell ref="J16:J19"/>
     <mergeCell ref="B20:F20"/>
@@ -4775,15 +4792,6 @@
     <mergeCell ref="B16:C19"/>
     <mergeCell ref="D16:E19"/>
     <mergeCell ref="F16:G19"/>
-    <mergeCell ref="H9:I14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C14"/>
-    <mergeCell ref="D9:E14"/>
-    <mergeCell ref="F9:G14"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6490,8 +6498,10 @@
     <col customWidth="1" min="6" max="6" width="10.88"/>
     <col customWidth="1" min="7" max="7" width="15.25"/>
     <col customWidth="1" min="8" max="13" width="13.13"/>
-    <col customWidth="1" min="14" max="14" width="16.0"/>
-    <col customWidth="1" min="15" max="26" width="7.88"/>
+    <col customWidth="1" min="14" max="14" width="9.38"/>
+    <col customWidth="1" min="15" max="17" width="7.88"/>
+    <col customWidth="1" min="18" max="18" width="12.25"/>
+    <col customWidth="1" min="19" max="26" width="7.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6595,13 +6605,13 @@
         <v>60</v>
       </c>
       <c r="F6" s="91">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="91">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" s="91">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" s="91">
         <v>2.0</v>
@@ -6613,690 +6623,850 @@
         <v>1.0</v>
       </c>
       <c r="L6" s="91">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M6" s="93">
         <v>2.0</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
+      <c r="N6" s="94">
+        <v>2.0</v>
+      </c>
+      <c r="O6" s="94">
+        <v>1.0</v>
+      </c>
+      <c r="P6" s="95">
+        <v>2.0</v>
+      </c>
+      <c r="Q6" s="95">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7" ht="28.5" customHeight="1">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101">
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="103">
         <v>1.0</v>
       </c>
-      <c r="O7" s="84"/>
     </row>
     <row r="8" ht="28.5" customHeight="1">
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="103">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105">
         <v>1.0</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="105">
         <v>2.0</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="105">
         <v>3.0</v>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="105">
         <v>4.0</v>
       </c>
-      <c r="J8" s="103">
+      <c r="J8" s="105">
         <v>5.0</v>
       </c>
-      <c r="K8" s="103">
+      <c r="K8" s="105">
         <v>6.0</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="105">
         <v>7.0</v>
       </c>
-      <c r="M8" s="103">
+      <c r="M8" s="105">
         <v>8.0</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="106">
+        <v>9.0</v>
+      </c>
+      <c r="O8" s="106">
+        <v>10.0</v>
+      </c>
+      <c r="P8" s="106">
+        <v>11.0</v>
+      </c>
+      <c r="Q8" s="106">
+        <v>12.0</v>
+      </c>
+      <c r="R8" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="84"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107">
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110">
         <f>SUM(F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="107">
+        <v>31</v>
+      </c>
+      <c r="G9" s="110">
         <f>+G10+G11</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="107">
-        <f t="shared" ref="H9:M9" si="1">SUM(H10)</f>
         <v>31</v>
       </c>
-      <c r="I9" s="107">
+      <c r="H9" s="110">
+        <f t="shared" ref="H9:Q9" si="1">SUM(H10)</f>
+        <v>62</v>
+      </c>
+      <c r="I9" s="110">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="110">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K9" s="107">
+      <c r="K9" s="110">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L9" s="107">
+      <c r="L9" s="110">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="107">
+        <v>31</v>
+      </c>
+      <c r="M9" s="110">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="N9" s="107">
-        <f>+SUM(N10)</f>
-        <v>248</v>
-      </c>
-      <c r="O9" s="84"/>
+      <c r="N9" s="110">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="O9" s="110">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="P9" s="110">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="Q9" s="110">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="R9" s="110">
+        <f>+SUM(R10)</f>
+        <v>558</v>
+      </c>
     </row>
     <row r="10" ht="34.5" customHeight="1">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="113">
         <v>31.0</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111">
+      <c r="E10" s="114"/>
+      <c r="F10" s="114">
         <f>F6*D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="111">
+        <v>31</v>
+      </c>
+      <c r="G10" s="114">
         <f>G6*D10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="111">
+        <v>31</v>
+      </c>
+      <c r="H10" s="114">
         <f>H6*D10</f>
-        <v>31</v>
-      </c>
-      <c r="I10" s="111">
+        <v>62</v>
+      </c>
+      <c r="I10" s="114">
         <f>I6*D10</f>
         <v>62</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="114">
         <f>J6*D10</f>
         <v>62</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="114">
         <f>K6*D10</f>
         <v>31</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="114">
         <f>L6*D10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="111">
+        <v>31</v>
+      </c>
+      <c r="M10" s="113">
         <f>M6*D10</f>
         <v>62</v>
       </c>
-      <c r="N10" s="112">
-        <f t="shared" ref="N10:N12" si="2">+SUM(F10:M10)</f>
-        <v>248</v>
-      </c>
-      <c r="O10" s="84"/>
+      <c r="N10" s="113">
+        <f>N6*D10</f>
+        <v>62</v>
+      </c>
+      <c r="O10" s="114">
+        <f>O6*D10</f>
+        <v>31</v>
+      </c>
+      <c r="P10" s="114">
+        <f>P6*D10</f>
+        <v>62</v>
+      </c>
+      <c r="Q10" s="114">
+        <f>Q6*D10</f>
+        <v>31</v>
+      </c>
+      <c r="R10" s="115">
+        <f>+SUM(F10:Q10)</f>
+        <v>558</v>
+      </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="112">
+      <c r="A11" s="116"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="115">
+        <f t="shared" ref="R11:R12" si="2">+SUM(F11:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="116"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O11" s="84"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-    </row>
-    <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="112">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="84"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="107">
-        <f t="shared" ref="F13:N13" si="3">SUM(F14:F19)</f>
+      <c r="F13" s="110">
+        <f t="shared" ref="F13:R13" si="3">SUM(F14:F19)</f>
         <v>79</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="110">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="H13" s="107">
+      <c r="H13" s="110">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="I13" s="107">
+      <c r="I13" s="110">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="J13" s="107">
+      <c r="J13" s="110">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="K13" s="107">
+      <c r="K13" s="110">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="L13" s="107">
+      <c r="L13" s="110">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="M13" s="107">
+      <c r="M13" s="110">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="N13" s="107">
+      <c r="N13" s="110">
         <f t="shared" si="3"/>
-        <v>632</v>
-      </c>
-      <c r="O13" s="84"/>
+        <v>79</v>
+      </c>
+      <c r="O13" s="110">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="P13" s="110">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="Q13" s="110">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="R13" s="110">
+        <f t="shared" si="3"/>
+        <v>948</v>
+      </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="113"/>
-      <c r="B14" s="118" t="s">
+      <c r="A14" s="116"/>
+      <c r="B14" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="122">
         <v>1.0</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D14" s="123">
         <v>25.0</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="119">
         <f t="shared" ref="E14:E16" si="5">+C14*D14</f>
         <v>25</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="114">
         <f t="shared" ref="F14:G14" si="4">+D14</f>
         <v>25</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="114">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="114">
         <v>25.0</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="114">
         <v>25.0</v>
       </c>
-      <c r="J14" s="111">
+      <c r="J14" s="114">
         <v>25.0</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="114">
         <v>25.0</v>
       </c>
-      <c r="L14" s="111">
+      <c r="L14" s="114">
         <v>25.0</v>
       </c>
-      <c r="M14" s="111">
+      <c r="M14" s="114">
         <v>25.0</v>
       </c>
-      <c r="N14" s="112">
-        <f t="shared" ref="N14:N18" si="6">SUM(F14:M14)</f>
-        <v>200</v>
-      </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
+      <c r="N14" s="114">
+        <v>25.0</v>
+      </c>
+      <c r="O14" s="114">
+        <v>25.0</v>
+      </c>
+      <c r="P14" s="114">
+        <v>25.0</v>
+      </c>
+      <c r="Q14" s="114">
+        <v>25.0</v>
+      </c>
+      <c r="R14" s="115">
+        <f t="shared" ref="R14:R16" si="7">SUM(F14:Q14)</f>
+        <v>300</v>
+      </c>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="118" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="121">
+      <c r="C15" s="124">
         <v>1.0</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="123">
         <v>27.0</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="119">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F15" s="125">
         <v>27.0</v>
       </c>
-      <c r="G15" s="122">
+      <c r="G15" s="125">
         <v>27.0</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="125">
         <v>27.0</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="114">
         <f>+E15</f>
         <v>27</v>
       </c>
-      <c r="J15" s="122">
+      <c r="J15" s="125">
         <v>27.0</v>
       </c>
-      <c r="K15" s="122">
+      <c r="K15" s="125">
         <v>27.0</v>
       </c>
-      <c r="L15" s="122">
+      <c r="L15" s="125">
         <v>27.0</v>
       </c>
-      <c r="M15" s="111">
-        <f>+I15</f>
+      <c r="M15" s="114">
+        <f t="shared" ref="M15:Q15" si="6">+I15</f>
         <v>27</v>
       </c>
-      <c r="N15" s="112">
+      <c r="N15" s="114">
         <f t="shared" si="6"/>
-        <v>216</v>
-      </c>
-      <c r="O15" s="84"/>
+        <v>27</v>
+      </c>
+      <c r="O15" s="114">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="P15" s="114">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Q15" s="114">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="R15" s="115">
+        <f t="shared" si="7"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="123" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="121">
+      <c r="C16" s="124">
         <v>1.0</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="123">
         <v>27.0</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="119">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="F16" s="111">
-        <f t="shared" ref="F16:M16" si="7">+E16</f>
+      <c r="F16" s="114">
+        <f t="shared" ref="F16:Q16" si="8">+E16</f>
         <v>27</v>
       </c>
-      <c r="G16" s="111">
+      <c r="G16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="H16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="I16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="J16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="K16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="L16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="M16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="N16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="O16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="P16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="Q16" s="114">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="R16" s="115">
         <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="H16" s="111">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="I16" s="111">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="J16" s="111">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="K16" s="111">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="L16" s="111">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="M16" s="111">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="N16" s="112">
-        <f t="shared" si="6"/>
-        <v>216</v>
-      </c>
-      <c r="O16" s="84"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="113"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="51"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="112">
-        <f t="shared" si="6"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="115">
+        <f t="shared" ref="R17:R18" si="9">SUM(F17:M17)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="84"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111" t="str">
+      <c r="A18" s="116"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114" t="str">
         <f>+E18</f>
         <v/>
       </c>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111" t="str">
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114" t="str">
         <f>+H18</f>
         <v/>
       </c>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="112">
-        <f t="shared" si="6"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="115">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O18" s="84"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="126"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130" t="str">
+      <c r="A19" s="129"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="133" t="str">
         <f>+E19</f>
         <v/>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="129"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="107">
-        <f t="shared" ref="F20:N20" si="8">SUM(F21:F23)</f>
+      <c r="C20" s="109"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="110">
+        <f t="shared" ref="F20:R20" si="10">SUM(F21:F23)</f>
         <v>96</v>
       </c>
-      <c r="G20" s="107">
-        <f t="shared" si="8"/>
+      <c r="G20" s="110">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="H20" s="107">
-        <f t="shared" si="8"/>
+      <c r="H20" s="110">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="I20" s="107">
-        <f t="shared" si="8"/>
+      <c r="I20" s="110">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="J20" s="107">
-        <f t="shared" si="8"/>
+      <c r="J20" s="110">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="K20" s="107">
-        <f t="shared" si="8"/>
+      <c r="K20" s="110">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="L20" s="107">
-        <f t="shared" si="8"/>
+      <c r="L20" s="110">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="M20" s="107">
-        <f t="shared" si="8"/>
+      <c r="M20" s="110">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="N20" s="107">
-        <f t="shared" si="8"/>
-        <v>306</v>
-      </c>
-      <c r="O20" s="84"/>
+      <c r="N20" s="110">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="O20" s="110">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="P20" s="110">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="Q20" s="110">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="R20" s="110">
+        <f t="shared" si="10"/>
+        <v>426</v>
+      </c>
     </row>
     <row r="21" ht="22.5" customHeight="1">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="120">
+      <c r="C21" s="118"/>
+      <c r="D21" s="123">
         <v>30.0</v>
       </c>
-      <c r="E21" s="120">
+      <c r="E21" s="123">
         <v>30.0</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="123">
         <v>30.0</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="123">
         <v>30.0</v>
       </c>
-      <c r="H21" s="120">
+      <c r="H21" s="123">
         <v>30.0</v>
       </c>
-      <c r="I21" s="120">
+      <c r="I21" s="123">
         <v>30.0</v>
       </c>
-      <c r="J21" s="120">
+      <c r="J21" s="123">
         <v>30.0</v>
       </c>
-      <c r="K21" s="120">
+      <c r="K21" s="123">
         <v>30.0</v>
       </c>
-      <c r="L21" s="120">
+      <c r="L21" s="123">
         <v>30.0</v>
       </c>
-      <c r="M21" s="120">
+      <c r="M21" s="123">
         <v>30.0</v>
       </c>
-      <c r="N21" s="112">
-        <f t="shared" ref="N21:N23" si="9">SUM(F21:M21)</f>
-        <v>240</v>
-      </c>
-      <c r="O21" s="84"/>
+      <c r="N21" s="123">
+        <v>30.0</v>
+      </c>
+      <c r="O21" s="123">
+        <v>30.0</v>
+      </c>
+      <c r="P21" s="123">
+        <v>30.0</v>
+      </c>
+      <c r="Q21" s="123">
+        <v>30.0</v>
+      </c>
+      <c r="R21" s="115">
+        <f t="shared" ref="R21:R22" si="11">SUM(F21:Q21)</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="22" ht="22.5" customHeight="1">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="120">
+      <c r="C22" s="118"/>
+      <c r="D22" s="123">
         <v>66.0</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="123">
         <v>66.0</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="123">
         <v>66.0</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="112">
-        <f t="shared" si="9"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="115">
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
-      <c r="O22" s="84"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
-      <c r="B23" s="134"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112">
-        <f t="shared" si="9"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115">
+        <f>SUM(F23:M23)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="84"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="137">
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="139">
         <v>0.0</v>
       </c>
-      <c r="G24" s="137">
+      <c r="G24" s="139">
         <v>0.0</v>
       </c>
-      <c r="H24" s="138">
-        <f t="shared" ref="H24:K24" si="10">1-H13/H9</f>
+      <c r="H24" s="140">
+        <f t="shared" ref="H24:K24" si="12">1-H13/H9</f>
+        <v>-0.2741935484</v>
+      </c>
+      <c r="I24" s="140">
+        <f t="shared" si="12"/>
+        <v>-0.2741935484</v>
+      </c>
+      <c r="J24" s="140">
+        <f t="shared" si="12"/>
+        <v>-0.2741935484</v>
+      </c>
+      <c r="K24" s="140">
+        <f t="shared" si="12"/>
         <v>-1.548387097</v>
       </c>
-      <c r="I24" s="138">
-        <f t="shared" si="10"/>
-        <v>-0.2741935484</v>
-      </c>
-      <c r="J24" s="138">
-        <f t="shared" si="10"/>
-        <v>-0.2741935484</v>
-      </c>
-      <c r="K24" s="138">
-        <f t="shared" si="10"/>
-        <v>-1.548387097</v>
-      </c>
-      <c r="L24" s="137">
+      <c r="L24" s="139">
         <v>0.0</v>
       </c>
-      <c r="M24" s="138">
+      <c r="M24" s="140">
         <f>1-M13/M9</f>
         <v>-0.2741935484</v>
       </c>
-      <c r="N24" s="139"/>
-      <c r="O24" s="84"/>
+      <c r="N24" s="140">
+        <f>1-N13/N9</f>
+        <v>-0.2741935484</v>
+      </c>
+      <c r="O24" s="140">
+        <f t="shared" ref="O24:Q24" si="13">1-O13/O9</f>
+        <v>-1.548387097</v>
+      </c>
+      <c r="P24" s="140">
+        <f t="shared" si="13"/>
+        <v>-0.2741935484</v>
+      </c>
+      <c r="Q24" s="140">
+        <f t="shared" si="13"/>
+        <v>-1.548387097</v>
+      </c>
+      <c r="R24" s="141"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="B25" s="84"/>
@@ -7315,8 +7485,8 @@
       <c r="O25" s="84"/>
     </row>
     <row r="26" ht="34.5" customHeight="1">
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85"/>
       <c r="H26" s="85"/>
@@ -7329,16 +7499,16 @@
       <c r="O26" s="84"/>
     </row>
     <row r="27" ht="22.5" customHeight="1">
-      <c r="B27" s="142" t="s">
+      <c r="B27" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="111">
-        <f>+N9</f>
-        <v>248</v>
+      <c r="C27" s="114">
+        <f>+R9</f>
+        <v>558</v>
       </c>
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
-      <c r="F27" s="143"/>
+      <c r="F27" s="145"/>
       <c r="H27" s="85"/>
       <c r="I27" s="85"/>
       <c r="J27" s="85"/>
@@ -7349,12 +7519,12 @@
       <c r="O27" s="84"/>
     </row>
     <row r="28" ht="22.5" customHeight="1">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="111">
-        <f>+N13</f>
-        <v>632</v>
+      <c r="C28" s="114">
+        <f>+R13</f>
+        <v>948</v>
       </c>
       <c r="D28" s="85"/>
       <c r="E28" s="85"/>
@@ -7368,17 +7538,17 @@
       <c r="O28" s="84"/>
     </row>
     <row r="29" ht="22.5" customHeight="1">
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="111">
-        <f>+N20</f>
-        <v>306</v>
+      <c r="C29" s="114">
+        <f>+R20</f>
+        <v>426</v>
       </c>
       <c r="D29" s="85"/>
       <c r="E29" s="85"/>
       <c r="H29" s="85"/>
-      <c r="I29" s="144"/>
+      <c r="I29" s="146"/>
       <c r="J29" s="85"/>
       <c r="K29" s="85"/>
       <c r="L29" s="85"/>
@@ -7387,12 +7557,12 @@
       <c r="O29" s="84"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="146">
+      <c r="C30" s="148">
         <f>+C27-C28-C29</f>
-        <v>-690</v>
+        <v>-816</v>
       </c>
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
@@ -7406,12 +7576,12 @@
       <c r="O30" s="84"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="147">
+      <c r="C31" s="149">
         <f>1-C28/C27</f>
-        <v>-1.548387097</v>
+        <v>-0.6989247312</v>
       </c>
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
@@ -7426,7 +7596,7 @@
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="B32" s="84"/>
-      <c r="C32" s="148"/>
+      <c r="C32" s="150"/>
       <c r="D32" s="84"/>
       <c r="E32" s="84"/>
       <c r="F32" s="85"/>
@@ -7444,7 +7614,7 @@
       <c r="B33" s="84"/>
       <c r="C33" s="84"/>
       <c r="D33" s="84"/>
-      <c r="E33" s="149"/>
+      <c r="E33" s="151"/>
       <c r="F33" s="85"/>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
@@ -7809,1754 +7979,1754 @@
       <c r="O55" s="84"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="150"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
+      <c r="M56" s="152"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="150"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="152"/>
+      <c r="M57" s="152"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="150"/>
-      <c r="M58" s="150"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="152"/>
+      <c r="L58" s="152"/>
+      <c r="M58" s="152"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="150"/>
-      <c r="L59" s="150"/>
-      <c r="M59" s="150"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="152"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="150"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="150"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="152"/>
+      <c r="M60" s="152"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="150"/>
-      <c r="J61" s="150"/>
-      <c r="K61" s="150"/>
-      <c r="L61" s="150"/>
-      <c r="M61" s="150"/>
+      <c r="F61" s="152"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="152"/>
+      <c r="K61" s="152"/>
+      <c r="L61" s="152"/>
+      <c r="M61" s="152"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="F62" s="150"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="150"/>
-      <c r="M62" s="150"/>
+      <c r="F62" s="152"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="152"/>
+      <c r="K62" s="152"/>
+      <c r="L62" s="152"/>
+      <c r="M62" s="152"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="F63" s="150"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="150"/>
-      <c r="J63" s="150"/>
-      <c r="K63" s="150"/>
-      <c r="L63" s="150"/>
-      <c r="M63" s="150"/>
+      <c r="F63" s="152"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="152"/>
+      <c r="K63" s="152"/>
+      <c r="L63" s="152"/>
+      <c r="M63" s="152"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="F64" s="150"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="150"/>
-      <c r="M64" s="150"/>
+      <c r="F64" s="152"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="152"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="152"/>
+      <c r="M64" s="152"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="F65" s="150"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="150"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="150"/>
+      <c r="F65" s="152"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="152"/>
+      <c r="K65" s="152"/>
+      <c r="L65" s="152"/>
+      <c r="M65" s="152"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="F66" s="150"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="150"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="150"/>
-      <c r="M66" s="150"/>
+      <c r="F66" s="152"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="152"/>
+      <c r="K66" s="152"/>
+      <c r="L66" s="152"/>
+      <c r="M66" s="152"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="F67" s="150"/>
-      <c r="G67" s="150"/>
-      <c r="H67" s="150"/>
-      <c r="I67" s="150"/>
-      <c r="J67" s="150"/>
-      <c r="K67" s="150"/>
-      <c r="L67" s="150"/>
-      <c r="M67" s="150"/>
+      <c r="F67" s="152"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="152"/>
+      <c r="K67" s="152"/>
+      <c r="L67" s="152"/>
+      <c r="M67" s="152"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="F68" s="150"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="150"/>
-      <c r="I68" s="150"/>
-      <c r="J68" s="150"/>
-      <c r="K68" s="150"/>
-      <c r="L68" s="150"/>
-      <c r="M68" s="150"/>
+      <c r="F68" s="152"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="152"/>
+      <c r="K68" s="152"/>
+      <c r="L68" s="152"/>
+      <c r="M68" s="152"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="F69" s="150"/>
-      <c r="G69" s="150"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="150"/>
-      <c r="J69" s="150"/>
-      <c r="K69" s="150"/>
-      <c r="L69" s="150"/>
-      <c r="M69" s="150"/>
+      <c r="F69" s="152"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="152"/>
+      <c r="K69" s="152"/>
+      <c r="L69" s="152"/>
+      <c r="M69" s="152"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="F70" s="150"/>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="150"/>
-      <c r="J70" s="150"/>
-      <c r="K70" s="150"/>
-      <c r="L70" s="150"/>
-      <c r="M70" s="150"/>
+      <c r="F70" s="152"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="152"/>
+      <c r="J70" s="152"/>
+      <c r="K70" s="152"/>
+      <c r="L70" s="152"/>
+      <c r="M70" s="152"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="F71" s="150"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="150"/>
-      <c r="I71" s="150"/>
-      <c r="J71" s="150"/>
-      <c r="K71" s="150"/>
-      <c r="L71" s="150"/>
-      <c r="M71" s="150"/>
+      <c r="F71" s="152"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="152"/>
+      <c r="L71" s="152"/>
+      <c r="M71" s="152"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="F72" s="150"/>
-      <c r="G72" s="150"/>
-      <c r="H72" s="150"/>
-      <c r="I72" s="150"/>
-      <c r="J72" s="150"/>
-      <c r="K72" s="150"/>
-      <c r="L72" s="150"/>
-      <c r="M72" s="150"/>
+      <c r="F72" s="152"/>
+      <c r="G72" s="152"/>
+      <c r="H72" s="152"/>
+      <c r="I72" s="152"/>
+      <c r="J72" s="152"/>
+      <c r="K72" s="152"/>
+      <c r="L72" s="152"/>
+      <c r="M72" s="152"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="F73" s="150"/>
-      <c r="G73" s="150"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="150"/>
-      <c r="J73" s="150"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="150"/>
+      <c r="F73" s="152"/>
+      <c r="G73" s="152"/>
+      <c r="H73" s="152"/>
+      <c r="I73" s="152"/>
+      <c r="J73" s="152"/>
+      <c r="K73" s="152"/>
+      <c r="L73" s="152"/>
+      <c r="M73" s="152"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="F74" s="150"/>
-      <c r="G74" s="150"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="150"/>
-      <c r="J74" s="150"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="150"/>
-      <c r="M74" s="150"/>
+      <c r="F74" s="152"/>
+      <c r="G74" s="152"/>
+      <c r="H74" s="152"/>
+      <c r="I74" s="152"/>
+      <c r="J74" s="152"/>
+      <c r="K74" s="152"/>
+      <c r="L74" s="152"/>
+      <c r="M74" s="152"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="F75" s="150"/>
-      <c r="G75" s="150"/>
-      <c r="H75" s="150"/>
-      <c r="I75" s="150"/>
-      <c r="J75" s="150"/>
-      <c r="K75" s="150"/>
-      <c r="L75" s="150"/>
-      <c r="M75" s="150"/>
+      <c r="F75" s="152"/>
+      <c r="G75" s="152"/>
+      <c r="H75" s="152"/>
+      <c r="I75" s="152"/>
+      <c r="J75" s="152"/>
+      <c r="K75" s="152"/>
+      <c r="L75" s="152"/>
+      <c r="M75" s="152"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="F76" s="150"/>
-      <c r="G76" s="150"/>
-      <c r="H76" s="150"/>
-      <c r="I76" s="150"/>
-      <c r="J76" s="150"/>
-      <c r="K76" s="150"/>
-      <c r="L76" s="150"/>
-      <c r="M76" s="150"/>
+      <c r="F76" s="152"/>
+      <c r="G76" s="152"/>
+      <c r="H76" s="152"/>
+      <c r="I76" s="152"/>
+      <c r="J76" s="152"/>
+      <c r="K76" s="152"/>
+      <c r="L76" s="152"/>
+      <c r="M76" s="152"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="F77" s="150"/>
-      <c r="G77" s="150"/>
-      <c r="H77" s="150"/>
-      <c r="I77" s="150"/>
-      <c r="J77" s="150"/>
-      <c r="K77" s="150"/>
-      <c r="L77" s="150"/>
-      <c r="M77" s="150"/>
+      <c r="F77" s="152"/>
+      <c r="G77" s="152"/>
+      <c r="H77" s="152"/>
+      <c r="I77" s="152"/>
+      <c r="J77" s="152"/>
+      <c r="K77" s="152"/>
+      <c r="L77" s="152"/>
+      <c r="M77" s="152"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="F78" s="150"/>
-      <c r="G78" s="150"/>
-      <c r="H78" s="150"/>
-      <c r="I78" s="150"/>
-      <c r="J78" s="150"/>
-      <c r="K78" s="150"/>
-      <c r="L78" s="150"/>
-      <c r="M78" s="150"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="152"/>
+      <c r="H78" s="152"/>
+      <c r="I78" s="152"/>
+      <c r="J78" s="152"/>
+      <c r="K78" s="152"/>
+      <c r="L78" s="152"/>
+      <c r="M78" s="152"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="F79" s="150"/>
-      <c r="G79" s="150"/>
-      <c r="H79" s="150"/>
-      <c r="I79" s="150"/>
-      <c r="J79" s="150"/>
-      <c r="K79" s="150"/>
-      <c r="L79" s="150"/>
-      <c r="M79" s="150"/>
+      <c r="F79" s="152"/>
+      <c r="G79" s="152"/>
+      <c r="H79" s="152"/>
+      <c r="I79" s="152"/>
+      <c r="J79" s="152"/>
+      <c r="K79" s="152"/>
+      <c r="L79" s="152"/>
+      <c r="M79" s="152"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="F80" s="150"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="150"/>
-      <c r="I80" s="150"/>
-      <c r="J80" s="150"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="150"/>
-      <c r="M80" s="150"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="152"/>
+      <c r="H80" s="152"/>
+      <c r="I80" s="152"/>
+      <c r="J80" s="152"/>
+      <c r="K80" s="152"/>
+      <c r="L80" s="152"/>
+      <c r="M80" s="152"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="F81" s="150"/>
-      <c r="G81" s="150"/>
-      <c r="H81" s="150"/>
-      <c r="I81" s="150"/>
-      <c r="J81" s="150"/>
-      <c r="K81" s="150"/>
-      <c r="L81" s="150"/>
-      <c r="M81" s="150"/>
+      <c r="F81" s="152"/>
+      <c r="G81" s="152"/>
+      <c r="H81" s="152"/>
+      <c r="I81" s="152"/>
+      <c r="J81" s="152"/>
+      <c r="K81" s="152"/>
+      <c r="L81" s="152"/>
+      <c r="M81" s="152"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="F82" s="150"/>
-      <c r="G82" s="150"/>
-      <c r="H82" s="150"/>
-      <c r="I82" s="150"/>
-      <c r="J82" s="150"/>
-      <c r="K82" s="150"/>
-      <c r="L82" s="150"/>
-      <c r="M82" s="150"/>
+      <c r="F82" s="152"/>
+      <c r="G82" s="152"/>
+      <c r="H82" s="152"/>
+      <c r="I82" s="152"/>
+      <c r="J82" s="152"/>
+      <c r="K82" s="152"/>
+      <c r="L82" s="152"/>
+      <c r="M82" s="152"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="F83" s="150"/>
-      <c r="G83" s="150"/>
-      <c r="H83" s="150"/>
-      <c r="I83" s="150"/>
-      <c r="J83" s="150"/>
-      <c r="K83" s="150"/>
-      <c r="L83" s="150"/>
-      <c r="M83" s="150"/>
+      <c r="F83" s="152"/>
+      <c r="G83" s="152"/>
+      <c r="H83" s="152"/>
+      <c r="I83" s="152"/>
+      <c r="J83" s="152"/>
+      <c r="K83" s="152"/>
+      <c r="L83" s="152"/>
+      <c r="M83" s="152"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="F84" s="150"/>
-      <c r="G84" s="150"/>
-      <c r="H84" s="150"/>
-      <c r="I84" s="150"/>
-      <c r="J84" s="150"/>
-      <c r="K84" s="150"/>
-      <c r="L84" s="150"/>
-      <c r="M84" s="150"/>
+      <c r="F84" s="152"/>
+      <c r="G84" s="152"/>
+      <c r="H84" s="152"/>
+      <c r="I84" s="152"/>
+      <c r="J84" s="152"/>
+      <c r="K84" s="152"/>
+      <c r="L84" s="152"/>
+      <c r="M84" s="152"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="F85" s="150"/>
-      <c r="G85" s="150"/>
-      <c r="H85" s="150"/>
-      <c r="I85" s="150"/>
-      <c r="J85" s="150"/>
-      <c r="K85" s="150"/>
-      <c r="L85" s="150"/>
-      <c r="M85" s="150"/>
+      <c r="F85" s="152"/>
+      <c r="G85" s="152"/>
+      <c r="H85" s="152"/>
+      <c r="I85" s="152"/>
+      <c r="J85" s="152"/>
+      <c r="K85" s="152"/>
+      <c r="L85" s="152"/>
+      <c r="M85" s="152"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="F86" s="150"/>
-      <c r="G86" s="150"/>
-      <c r="H86" s="150"/>
-      <c r="I86" s="150"/>
-      <c r="J86" s="150"/>
-      <c r="K86" s="150"/>
-      <c r="L86" s="150"/>
-      <c r="M86" s="150"/>
+      <c r="F86" s="152"/>
+      <c r="G86" s="152"/>
+      <c r="H86" s="152"/>
+      <c r="I86" s="152"/>
+      <c r="J86" s="152"/>
+      <c r="K86" s="152"/>
+      <c r="L86" s="152"/>
+      <c r="M86" s="152"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="F87" s="150"/>
-      <c r="G87" s="150"/>
-      <c r="H87" s="150"/>
-      <c r="I87" s="150"/>
-      <c r="J87" s="150"/>
-      <c r="K87" s="150"/>
-      <c r="L87" s="150"/>
-      <c r="M87" s="150"/>
+      <c r="F87" s="152"/>
+      <c r="G87" s="152"/>
+      <c r="H87" s="152"/>
+      <c r="I87" s="152"/>
+      <c r="J87" s="152"/>
+      <c r="K87" s="152"/>
+      <c r="L87" s="152"/>
+      <c r="M87" s="152"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="F88" s="150"/>
-      <c r="G88" s="150"/>
-      <c r="H88" s="150"/>
-      <c r="I88" s="150"/>
-      <c r="J88" s="150"/>
-      <c r="K88" s="150"/>
-      <c r="L88" s="150"/>
-      <c r="M88" s="150"/>
+      <c r="F88" s="152"/>
+      <c r="G88" s="152"/>
+      <c r="H88" s="152"/>
+      <c r="I88" s="152"/>
+      <c r="J88" s="152"/>
+      <c r="K88" s="152"/>
+      <c r="L88" s="152"/>
+      <c r="M88" s="152"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="F89" s="150"/>
-      <c r="G89" s="150"/>
-      <c r="H89" s="150"/>
-      <c r="I89" s="150"/>
-      <c r="J89" s="150"/>
-      <c r="K89" s="150"/>
-      <c r="L89" s="150"/>
-      <c r="M89" s="150"/>
+      <c r="F89" s="152"/>
+      <c r="G89" s="152"/>
+      <c r="H89" s="152"/>
+      <c r="I89" s="152"/>
+      <c r="J89" s="152"/>
+      <c r="K89" s="152"/>
+      <c r="L89" s="152"/>
+      <c r="M89" s="152"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="F90" s="150"/>
-      <c r="G90" s="150"/>
-      <c r="H90" s="150"/>
-      <c r="I90" s="150"/>
-      <c r="J90" s="150"/>
-      <c r="K90" s="150"/>
-      <c r="L90" s="150"/>
-      <c r="M90" s="150"/>
+      <c r="F90" s="152"/>
+      <c r="G90" s="152"/>
+      <c r="H90" s="152"/>
+      <c r="I90" s="152"/>
+      <c r="J90" s="152"/>
+      <c r="K90" s="152"/>
+      <c r="L90" s="152"/>
+      <c r="M90" s="152"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="F91" s="150"/>
-      <c r="G91" s="150"/>
-      <c r="H91" s="150"/>
-      <c r="I91" s="150"/>
-      <c r="J91" s="150"/>
-      <c r="K91" s="150"/>
-      <c r="L91" s="150"/>
-      <c r="M91" s="150"/>
+      <c r="F91" s="152"/>
+      <c r="G91" s="152"/>
+      <c r="H91" s="152"/>
+      <c r="I91" s="152"/>
+      <c r="J91" s="152"/>
+      <c r="K91" s="152"/>
+      <c r="L91" s="152"/>
+      <c r="M91" s="152"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="F92" s="150"/>
-      <c r="G92" s="150"/>
-      <c r="H92" s="150"/>
-      <c r="I92" s="150"/>
-      <c r="J92" s="150"/>
-      <c r="K92" s="150"/>
-      <c r="L92" s="150"/>
-      <c r="M92" s="150"/>
+      <c r="F92" s="152"/>
+      <c r="G92" s="152"/>
+      <c r="H92" s="152"/>
+      <c r="I92" s="152"/>
+      <c r="J92" s="152"/>
+      <c r="K92" s="152"/>
+      <c r="L92" s="152"/>
+      <c r="M92" s="152"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="F93" s="150"/>
-      <c r="G93" s="150"/>
-      <c r="H93" s="150"/>
-      <c r="I93" s="150"/>
-      <c r="J93" s="150"/>
-      <c r="K93" s="150"/>
-      <c r="L93" s="150"/>
-      <c r="M93" s="150"/>
+      <c r="F93" s="152"/>
+      <c r="G93" s="152"/>
+      <c r="H93" s="152"/>
+      <c r="I93" s="152"/>
+      <c r="J93" s="152"/>
+      <c r="K93" s="152"/>
+      <c r="L93" s="152"/>
+      <c r="M93" s="152"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="F94" s="150"/>
-      <c r="G94" s="150"/>
-      <c r="H94" s="150"/>
-      <c r="I94" s="150"/>
-      <c r="J94" s="150"/>
-      <c r="K94" s="150"/>
-      <c r="L94" s="150"/>
-      <c r="M94" s="150"/>
+      <c r="F94" s="152"/>
+      <c r="G94" s="152"/>
+      <c r="H94" s="152"/>
+      <c r="I94" s="152"/>
+      <c r="J94" s="152"/>
+      <c r="K94" s="152"/>
+      <c r="L94" s="152"/>
+      <c r="M94" s="152"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="F95" s="150"/>
-      <c r="G95" s="150"/>
-      <c r="H95" s="150"/>
-      <c r="I95" s="150"/>
-      <c r="J95" s="150"/>
-      <c r="K95" s="150"/>
-      <c r="L95" s="150"/>
-      <c r="M95" s="150"/>
+      <c r="F95" s="152"/>
+      <c r="G95" s="152"/>
+      <c r="H95" s="152"/>
+      <c r="I95" s="152"/>
+      <c r="J95" s="152"/>
+      <c r="K95" s="152"/>
+      <c r="L95" s="152"/>
+      <c r="M95" s="152"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="F96" s="150"/>
-      <c r="G96" s="150"/>
-      <c r="H96" s="150"/>
-      <c r="I96" s="150"/>
-      <c r="J96" s="150"/>
-      <c r="K96" s="150"/>
-      <c r="L96" s="150"/>
-      <c r="M96" s="150"/>
+      <c r="F96" s="152"/>
+      <c r="G96" s="152"/>
+      <c r="H96" s="152"/>
+      <c r="I96" s="152"/>
+      <c r="J96" s="152"/>
+      <c r="K96" s="152"/>
+      <c r="L96" s="152"/>
+      <c r="M96" s="152"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="F97" s="150"/>
-      <c r="G97" s="150"/>
-      <c r="H97" s="150"/>
-      <c r="I97" s="150"/>
-      <c r="J97" s="150"/>
-      <c r="K97" s="150"/>
-      <c r="L97" s="150"/>
-      <c r="M97" s="150"/>
+      <c r="F97" s="152"/>
+      <c r="G97" s="152"/>
+      <c r="H97" s="152"/>
+      <c r="I97" s="152"/>
+      <c r="J97" s="152"/>
+      <c r="K97" s="152"/>
+      <c r="L97" s="152"/>
+      <c r="M97" s="152"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="F98" s="150"/>
-      <c r="G98" s="150"/>
-      <c r="H98" s="150"/>
-      <c r="I98" s="150"/>
-      <c r="J98" s="150"/>
-      <c r="K98" s="150"/>
-      <c r="L98" s="150"/>
-      <c r="M98" s="150"/>
+      <c r="F98" s="152"/>
+      <c r="G98" s="152"/>
+      <c r="H98" s="152"/>
+      <c r="I98" s="152"/>
+      <c r="J98" s="152"/>
+      <c r="K98" s="152"/>
+      <c r="L98" s="152"/>
+      <c r="M98" s="152"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="F99" s="150"/>
-      <c r="G99" s="150"/>
-      <c r="H99" s="150"/>
-      <c r="I99" s="150"/>
-      <c r="J99" s="150"/>
-      <c r="K99" s="150"/>
-      <c r="L99" s="150"/>
-      <c r="M99" s="150"/>
+      <c r="F99" s="152"/>
+      <c r="G99" s="152"/>
+      <c r="H99" s="152"/>
+      <c r="I99" s="152"/>
+      <c r="J99" s="152"/>
+      <c r="K99" s="152"/>
+      <c r="L99" s="152"/>
+      <c r="M99" s="152"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="F100" s="150"/>
-      <c r="G100" s="150"/>
-      <c r="H100" s="150"/>
-      <c r="I100" s="150"/>
-      <c r="J100" s="150"/>
-      <c r="K100" s="150"/>
-      <c r="L100" s="150"/>
-      <c r="M100" s="150"/>
+      <c r="F100" s="152"/>
+      <c r="G100" s="152"/>
+      <c r="H100" s="152"/>
+      <c r="I100" s="152"/>
+      <c r="J100" s="152"/>
+      <c r="K100" s="152"/>
+      <c r="L100" s="152"/>
+      <c r="M100" s="152"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="F101" s="150"/>
-      <c r="G101" s="150"/>
-      <c r="H101" s="150"/>
-      <c r="I101" s="150"/>
-      <c r="J101" s="150"/>
-      <c r="K101" s="150"/>
-      <c r="L101" s="150"/>
-      <c r="M101" s="150"/>
+      <c r="F101" s="152"/>
+      <c r="G101" s="152"/>
+      <c r="H101" s="152"/>
+      <c r="I101" s="152"/>
+      <c r="J101" s="152"/>
+      <c r="K101" s="152"/>
+      <c r="L101" s="152"/>
+      <c r="M101" s="152"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="F102" s="150"/>
-      <c r="G102" s="150"/>
-      <c r="H102" s="150"/>
-      <c r="I102" s="150"/>
-      <c r="J102" s="150"/>
-      <c r="K102" s="150"/>
-      <c r="L102" s="150"/>
-      <c r="M102" s="150"/>
+      <c r="F102" s="152"/>
+      <c r="G102" s="152"/>
+      <c r="H102" s="152"/>
+      <c r="I102" s="152"/>
+      <c r="J102" s="152"/>
+      <c r="K102" s="152"/>
+      <c r="L102" s="152"/>
+      <c r="M102" s="152"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="F103" s="150"/>
-      <c r="G103" s="150"/>
-      <c r="H103" s="150"/>
-      <c r="I103" s="150"/>
-      <c r="J103" s="150"/>
-      <c r="K103" s="150"/>
-      <c r="L103" s="150"/>
-      <c r="M103" s="150"/>
+      <c r="F103" s="152"/>
+      <c r="G103" s="152"/>
+      <c r="H103" s="152"/>
+      <c r="I103" s="152"/>
+      <c r="J103" s="152"/>
+      <c r="K103" s="152"/>
+      <c r="L103" s="152"/>
+      <c r="M103" s="152"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="F104" s="150"/>
-      <c r="G104" s="150"/>
-      <c r="H104" s="150"/>
-      <c r="I104" s="150"/>
-      <c r="J104" s="150"/>
-      <c r="K104" s="150"/>
-      <c r="L104" s="150"/>
-      <c r="M104" s="150"/>
+      <c r="F104" s="152"/>
+      <c r="G104" s="152"/>
+      <c r="H104" s="152"/>
+      <c r="I104" s="152"/>
+      <c r="J104" s="152"/>
+      <c r="K104" s="152"/>
+      <c r="L104" s="152"/>
+      <c r="M104" s="152"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="F105" s="150"/>
-      <c r="G105" s="150"/>
-      <c r="H105" s="150"/>
-      <c r="I105" s="150"/>
-      <c r="J105" s="150"/>
-      <c r="K105" s="150"/>
-      <c r="L105" s="150"/>
-      <c r="M105" s="150"/>
+      <c r="F105" s="152"/>
+      <c r="G105" s="152"/>
+      <c r="H105" s="152"/>
+      <c r="I105" s="152"/>
+      <c r="J105" s="152"/>
+      <c r="K105" s="152"/>
+      <c r="L105" s="152"/>
+      <c r="M105" s="152"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="F106" s="150"/>
-      <c r="G106" s="150"/>
-      <c r="H106" s="150"/>
-      <c r="I106" s="150"/>
-      <c r="J106" s="150"/>
-      <c r="K106" s="150"/>
-      <c r="L106" s="150"/>
-      <c r="M106" s="150"/>
+      <c r="F106" s="152"/>
+      <c r="G106" s="152"/>
+      <c r="H106" s="152"/>
+      <c r="I106" s="152"/>
+      <c r="J106" s="152"/>
+      <c r="K106" s="152"/>
+      <c r="L106" s="152"/>
+      <c r="M106" s="152"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="F107" s="150"/>
-      <c r="G107" s="150"/>
-      <c r="H107" s="150"/>
-      <c r="I107" s="150"/>
-      <c r="J107" s="150"/>
-      <c r="K107" s="150"/>
-      <c r="L107" s="150"/>
-      <c r="M107" s="150"/>
+      <c r="F107" s="152"/>
+      <c r="G107" s="152"/>
+      <c r="H107" s="152"/>
+      <c r="I107" s="152"/>
+      <c r="J107" s="152"/>
+      <c r="K107" s="152"/>
+      <c r="L107" s="152"/>
+      <c r="M107" s="152"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="F108" s="150"/>
-      <c r="G108" s="150"/>
-      <c r="H108" s="150"/>
-      <c r="I108" s="150"/>
-      <c r="J108" s="150"/>
-      <c r="K108" s="150"/>
-      <c r="L108" s="150"/>
-      <c r="M108" s="150"/>
+      <c r="F108" s="152"/>
+      <c r="G108" s="152"/>
+      <c r="H108" s="152"/>
+      <c r="I108" s="152"/>
+      <c r="J108" s="152"/>
+      <c r="K108" s="152"/>
+      <c r="L108" s="152"/>
+      <c r="M108" s="152"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="F109" s="150"/>
-      <c r="G109" s="150"/>
-      <c r="H109" s="150"/>
-      <c r="I109" s="150"/>
-      <c r="J109" s="150"/>
-      <c r="K109" s="150"/>
-      <c r="L109" s="150"/>
-      <c r="M109" s="150"/>
+      <c r="F109" s="152"/>
+      <c r="G109" s="152"/>
+      <c r="H109" s="152"/>
+      <c r="I109" s="152"/>
+      <c r="J109" s="152"/>
+      <c r="K109" s="152"/>
+      <c r="L109" s="152"/>
+      <c r="M109" s="152"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="F110" s="150"/>
-      <c r="G110" s="150"/>
-      <c r="H110" s="150"/>
-      <c r="I110" s="150"/>
-      <c r="J110" s="150"/>
-      <c r="K110" s="150"/>
-      <c r="L110" s="150"/>
-      <c r="M110" s="150"/>
+      <c r="F110" s="152"/>
+      <c r="G110" s="152"/>
+      <c r="H110" s="152"/>
+      <c r="I110" s="152"/>
+      <c r="J110" s="152"/>
+      <c r="K110" s="152"/>
+      <c r="L110" s="152"/>
+      <c r="M110" s="152"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="F111" s="150"/>
-      <c r="G111" s="150"/>
-      <c r="H111" s="150"/>
-      <c r="I111" s="150"/>
-      <c r="J111" s="150"/>
-      <c r="K111" s="150"/>
-      <c r="L111" s="150"/>
-      <c r="M111" s="150"/>
+      <c r="F111" s="152"/>
+      <c r="G111" s="152"/>
+      <c r="H111" s="152"/>
+      <c r="I111" s="152"/>
+      <c r="J111" s="152"/>
+      <c r="K111" s="152"/>
+      <c r="L111" s="152"/>
+      <c r="M111" s="152"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="F112" s="150"/>
-      <c r="G112" s="150"/>
-      <c r="H112" s="150"/>
-      <c r="I112" s="150"/>
-      <c r="J112" s="150"/>
-      <c r="K112" s="150"/>
-      <c r="L112" s="150"/>
-      <c r="M112" s="150"/>
+      <c r="F112" s="152"/>
+      <c r="G112" s="152"/>
+      <c r="H112" s="152"/>
+      <c r="I112" s="152"/>
+      <c r="J112" s="152"/>
+      <c r="K112" s="152"/>
+      <c r="L112" s="152"/>
+      <c r="M112" s="152"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="F113" s="150"/>
-      <c r="G113" s="150"/>
-      <c r="H113" s="150"/>
-      <c r="I113" s="150"/>
-      <c r="J113" s="150"/>
-      <c r="K113" s="150"/>
-      <c r="L113" s="150"/>
-      <c r="M113" s="150"/>
+      <c r="F113" s="152"/>
+      <c r="G113" s="152"/>
+      <c r="H113" s="152"/>
+      <c r="I113" s="152"/>
+      <c r="J113" s="152"/>
+      <c r="K113" s="152"/>
+      <c r="L113" s="152"/>
+      <c r="M113" s="152"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="F114" s="150"/>
-      <c r="G114" s="150"/>
-      <c r="H114" s="150"/>
-      <c r="I114" s="150"/>
-      <c r="J114" s="150"/>
-      <c r="K114" s="150"/>
-      <c r="L114" s="150"/>
-      <c r="M114" s="150"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152"/>
+      <c r="J114" s="152"/>
+      <c r="K114" s="152"/>
+      <c r="L114" s="152"/>
+      <c r="M114" s="152"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="F115" s="150"/>
-      <c r="G115" s="150"/>
-      <c r="H115" s="150"/>
-      <c r="I115" s="150"/>
-      <c r="J115" s="150"/>
-      <c r="K115" s="150"/>
-      <c r="L115" s="150"/>
-      <c r="M115" s="150"/>
+      <c r="F115" s="152"/>
+      <c r="G115" s="152"/>
+      <c r="H115" s="152"/>
+      <c r="I115" s="152"/>
+      <c r="J115" s="152"/>
+      <c r="K115" s="152"/>
+      <c r="L115" s="152"/>
+      <c r="M115" s="152"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="F116" s="150"/>
-      <c r="G116" s="150"/>
-      <c r="H116" s="150"/>
-      <c r="I116" s="150"/>
-      <c r="J116" s="150"/>
-      <c r="K116" s="150"/>
-      <c r="L116" s="150"/>
-      <c r="M116" s="150"/>
+      <c r="F116" s="152"/>
+      <c r="G116" s="152"/>
+      <c r="H116" s="152"/>
+      <c r="I116" s="152"/>
+      <c r="J116" s="152"/>
+      <c r="K116" s="152"/>
+      <c r="L116" s="152"/>
+      <c r="M116" s="152"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="F117" s="150"/>
-      <c r="G117" s="150"/>
-      <c r="H117" s="150"/>
-      <c r="I117" s="150"/>
-      <c r="J117" s="150"/>
-      <c r="K117" s="150"/>
-      <c r="L117" s="150"/>
-      <c r="M117" s="150"/>
+      <c r="F117" s="152"/>
+      <c r="G117" s="152"/>
+      <c r="H117" s="152"/>
+      <c r="I117" s="152"/>
+      <c r="J117" s="152"/>
+      <c r="K117" s="152"/>
+      <c r="L117" s="152"/>
+      <c r="M117" s="152"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="F118" s="150"/>
-      <c r="G118" s="150"/>
-      <c r="H118" s="150"/>
-      <c r="I118" s="150"/>
-      <c r="J118" s="150"/>
-      <c r="K118" s="150"/>
-      <c r="L118" s="150"/>
-      <c r="M118" s="150"/>
+      <c r="F118" s="152"/>
+      <c r="G118" s="152"/>
+      <c r="H118" s="152"/>
+      <c r="I118" s="152"/>
+      <c r="J118" s="152"/>
+      <c r="K118" s="152"/>
+      <c r="L118" s="152"/>
+      <c r="M118" s="152"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="F119" s="150"/>
-      <c r="G119" s="150"/>
-      <c r="H119" s="150"/>
-      <c r="I119" s="150"/>
-      <c r="J119" s="150"/>
-      <c r="K119" s="150"/>
-      <c r="L119" s="150"/>
-      <c r="M119" s="150"/>
+      <c r="F119" s="152"/>
+      <c r="G119" s="152"/>
+      <c r="H119" s="152"/>
+      <c r="I119" s="152"/>
+      <c r="J119" s="152"/>
+      <c r="K119" s="152"/>
+      <c r="L119" s="152"/>
+      <c r="M119" s="152"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="F120" s="150"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="150"/>
-      <c r="J120" s="150"/>
-      <c r="K120" s="150"/>
-      <c r="L120" s="150"/>
-      <c r="M120" s="150"/>
+      <c r="F120" s="152"/>
+      <c r="G120" s="152"/>
+      <c r="H120" s="152"/>
+      <c r="I120" s="152"/>
+      <c r="J120" s="152"/>
+      <c r="K120" s="152"/>
+      <c r="L120" s="152"/>
+      <c r="M120" s="152"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="F121" s="150"/>
-      <c r="G121" s="150"/>
-      <c r="H121" s="150"/>
-      <c r="I121" s="150"/>
-      <c r="J121" s="150"/>
-      <c r="K121" s="150"/>
-      <c r="L121" s="150"/>
-      <c r="M121" s="150"/>
+      <c r="F121" s="152"/>
+      <c r="G121" s="152"/>
+      <c r="H121" s="152"/>
+      <c r="I121" s="152"/>
+      <c r="J121" s="152"/>
+      <c r="K121" s="152"/>
+      <c r="L121" s="152"/>
+      <c r="M121" s="152"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="F122" s="150"/>
-      <c r="G122" s="150"/>
-      <c r="H122" s="150"/>
-      <c r="I122" s="150"/>
-      <c r="J122" s="150"/>
-      <c r="K122" s="150"/>
-      <c r="L122" s="150"/>
-      <c r="M122" s="150"/>
+      <c r="F122" s="152"/>
+      <c r="G122" s="152"/>
+      <c r="H122" s="152"/>
+      <c r="I122" s="152"/>
+      <c r="J122" s="152"/>
+      <c r="K122" s="152"/>
+      <c r="L122" s="152"/>
+      <c r="M122" s="152"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="F123" s="150"/>
-      <c r="G123" s="150"/>
-      <c r="H123" s="150"/>
-      <c r="I123" s="150"/>
-      <c r="J123" s="150"/>
-      <c r="K123" s="150"/>
-      <c r="L123" s="150"/>
-      <c r="M123" s="150"/>
+      <c r="F123" s="152"/>
+      <c r="G123" s="152"/>
+      <c r="H123" s="152"/>
+      <c r="I123" s="152"/>
+      <c r="J123" s="152"/>
+      <c r="K123" s="152"/>
+      <c r="L123" s="152"/>
+      <c r="M123" s="152"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="F124" s="150"/>
-      <c r="G124" s="150"/>
-      <c r="H124" s="150"/>
-      <c r="I124" s="150"/>
-      <c r="J124" s="150"/>
-      <c r="K124" s="150"/>
-      <c r="L124" s="150"/>
-      <c r="M124" s="150"/>
+      <c r="F124" s="152"/>
+      <c r="G124" s="152"/>
+      <c r="H124" s="152"/>
+      <c r="I124" s="152"/>
+      <c r="J124" s="152"/>
+      <c r="K124" s="152"/>
+      <c r="L124" s="152"/>
+      <c r="M124" s="152"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="F125" s="150"/>
-      <c r="G125" s="150"/>
-      <c r="H125" s="150"/>
-      <c r="I125" s="150"/>
-      <c r="J125" s="150"/>
-      <c r="K125" s="150"/>
-      <c r="L125" s="150"/>
-      <c r="M125" s="150"/>
+      <c r="F125" s="152"/>
+      <c r="G125" s="152"/>
+      <c r="H125" s="152"/>
+      <c r="I125" s="152"/>
+      <c r="J125" s="152"/>
+      <c r="K125" s="152"/>
+      <c r="L125" s="152"/>
+      <c r="M125" s="152"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="F126" s="150"/>
-      <c r="G126" s="150"/>
-      <c r="H126" s="150"/>
-      <c r="I126" s="150"/>
-      <c r="J126" s="150"/>
-      <c r="K126" s="150"/>
-      <c r="L126" s="150"/>
-      <c r="M126" s="150"/>
+      <c r="F126" s="152"/>
+      <c r="G126" s="152"/>
+      <c r="H126" s="152"/>
+      <c r="I126" s="152"/>
+      <c r="J126" s="152"/>
+      <c r="K126" s="152"/>
+      <c r="L126" s="152"/>
+      <c r="M126" s="152"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="F127" s="150"/>
-      <c r="G127" s="150"/>
-      <c r="H127" s="150"/>
-      <c r="I127" s="150"/>
-      <c r="J127" s="150"/>
-      <c r="K127" s="150"/>
-      <c r="L127" s="150"/>
-      <c r="M127" s="150"/>
+      <c r="F127" s="152"/>
+      <c r="G127" s="152"/>
+      <c r="H127" s="152"/>
+      <c r="I127" s="152"/>
+      <c r="J127" s="152"/>
+      <c r="K127" s="152"/>
+      <c r="L127" s="152"/>
+      <c r="M127" s="152"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="F128" s="150"/>
-      <c r="G128" s="150"/>
-      <c r="H128" s="150"/>
-      <c r="I128" s="150"/>
-      <c r="J128" s="150"/>
-      <c r="K128" s="150"/>
-      <c r="L128" s="150"/>
-      <c r="M128" s="150"/>
+      <c r="F128" s="152"/>
+      <c r="G128" s="152"/>
+      <c r="H128" s="152"/>
+      <c r="I128" s="152"/>
+      <c r="J128" s="152"/>
+      <c r="K128" s="152"/>
+      <c r="L128" s="152"/>
+      <c r="M128" s="152"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="F129" s="150"/>
-      <c r="G129" s="150"/>
-      <c r="H129" s="150"/>
-      <c r="I129" s="150"/>
-      <c r="J129" s="150"/>
-      <c r="K129" s="150"/>
-      <c r="L129" s="150"/>
-      <c r="M129" s="150"/>
+      <c r="F129" s="152"/>
+      <c r="G129" s="152"/>
+      <c r="H129" s="152"/>
+      <c r="I129" s="152"/>
+      <c r="J129" s="152"/>
+      <c r="K129" s="152"/>
+      <c r="L129" s="152"/>
+      <c r="M129" s="152"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="F130" s="150"/>
-      <c r="G130" s="150"/>
-      <c r="H130" s="150"/>
-      <c r="I130" s="150"/>
-      <c r="J130" s="150"/>
-      <c r="K130" s="150"/>
-      <c r="L130" s="150"/>
-      <c r="M130" s="150"/>
+      <c r="F130" s="152"/>
+      <c r="G130" s="152"/>
+      <c r="H130" s="152"/>
+      <c r="I130" s="152"/>
+      <c r="J130" s="152"/>
+      <c r="K130" s="152"/>
+      <c r="L130" s="152"/>
+      <c r="M130" s="152"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="F131" s="150"/>
-      <c r="G131" s="150"/>
-      <c r="H131" s="150"/>
-      <c r="I131" s="150"/>
-      <c r="J131" s="150"/>
-      <c r="K131" s="150"/>
-      <c r="L131" s="150"/>
-      <c r="M131" s="150"/>
+      <c r="F131" s="152"/>
+      <c r="G131" s="152"/>
+      <c r="H131" s="152"/>
+      <c r="I131" s="152"/>
+      <c r="J131" s="152"/>
+      <c r="K131" s="152"/>
+      <c r="L131" s="152"/>
+      <c r="M131" s="152"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="F132" s="150"/>
-      <c r="G132" s="150"/>
-      <c r="H132" s="150"/>
-      <c r="I132" s="150"/>
-      <c r="J132" s="150"/>
-      <c r="K132" s="150"/>
-      <c r="L132" s="150"/>
-      <c r="M132" s="150"/>
+      <c r="F132" s="152"/>
+      <c r="G132" s="152"/>
+      <c r="H132" s="152"/>
+      <c r="I132" s="152"/>
+      <c r="J132" s="152"/>
+      <c r="K132" s="152"/>
+      <c r="L132" s="152"/>
+      <c r="M132" s="152"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="F133" s="150"/>
-      <c r="G133" s="150"/>
-      <c r="H133" s="150"/>
-      <c r="I133" s="150"/>
-      <c r="J133" s="150"/>
-      <c r="K133" s="150"/>
-      <c r="L133" s="150"/>
-      <c r="M133" s="150"/>
+      <c r="F133" s="152"/>
+      <c r="G133" s="152"/>
+      <c r="H133" s="152"/>
+      <c r="I133" s="152"/>
+      <c r="J133" s="152"/>
+      <c r="K133" s="152"/>
+      <c r="L133" s="152"/>
+      <c r="M133" s="152"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="F134" s="150"/>
-      <c r="G134" s="150"/>
-      <c r="H134" s="150"/>
-      <c r="I134" s="150"/>
-      <c r="J134" s="150"/>
-      <c r="K134" s="150"/>
-      <c r="L134" s="150"/>
-      <c r="M134" s="150"/>
+      <c r="F134" s="152"/>
+      <c r="G134" s="152"/>
+      <c r="H134" s="152"/>
+      <c r="I134" s="152"/>
+      <c r="J134" s="152"/>
+      <c r="K134" s="152"/>
+      <c r="L134" s="152"/>
+      <c r="M134" s="152"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="F135" s="150"/>
-      <c r="G135" s="150"/>
-      <c r="H135" s="150"/>
-      <c r="I135" s="150"/>
-      <c r="J135" s="150"/>
-      <c r="K135" s="150"/>
-      <c r="L135" s="150"/>
-      <c r="M135" s="150"/>
+      <c r="F135" s="152"/>
+      <c r="G135" s="152"/>
+      <c r="H135" s="152"/>
+      <c r="I135" s="152"/>
+      <c r="J135" s="152"/>
+      <c r="K135" s="152"/>
+      <c r="L135" s="152"/>
+      <c r="M135" s="152"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="F136" s="150"/>
-      <c r="G136" s="150"/>
-      <c r="H136" s="150"/>
-      <c r="I136" s="150"/>
-      <c r="J136" s="150"/>
-      <c r="K136" s="150"/>
-      <c r="L136" s="150"/>
-      <c r="M136" s="150"/>
+      <c r="F136" s="152"/>
+      <c r="G136" s="152"/>
+      <c r="H136" s="152"/>
+      <c r="I136" s="152"/>
+      <c r="J136" s="152"/>
+      <c r="K136" s="152"/>
+      <c r="L136" s="152"/>
+      <c r="M136" s="152"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="F137" s="150"/>
-      <c r="G137" s="150"/>
-      <c r="H137" s="150"/>
-      <c r="I137" s="150"/>
-      <c r="J137" s="150"/>
-      <c r="K137" s="150"/>
-      <c r="L137" s="150"/>
-      <c r="M137" s="150"/>
+      <c r="F137" s="152"/>
+      <c r="G137" s="152"/>
+      <c r="H137" s="152"/>
+      <c r="I137" s="152"/>
+      <c r="J137" s="152"/>
+      <c r="K137" s="152"/>
+      <c r="L137" s="152"/>
+      <c r="M137" s="152"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="F138" s="150"/>
-      <c r="G138" s="150"/>
-      <c r="H138" s="150"/>
-      <c r="I138" s="150"/>
-      <c r="J138" s="150"/>
-      <c r="K138" s="150"/>
-      <c r="L138" s="150"/>
-      <c r="M138" s="150"/>
+      <c r="F138" s="152"/>
+      <c r="G138" s="152"/>
+      <c r="H138" s="152"/>
+      <c r="I138" s="152"/>
+      <c r="J138" s="152"/>
+      <c r="K138" s="152"/>
+      <c r="L138" s="152"/>
+      <c r="M138" s="152"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="F139" s="150"/>
-      <c r="G139" s="150"/>
-      <c r="H139" s="150"/>
-      <c r="I139" s="150"/>
-      <c r="J139" s="150"/>
-      <c r="K139" s="150"/>
-      <c r="L139" s="150"/>
-      <c r="M139" s="150"/>
+      <c r="F139" s="152"/>
+      <c r="G139" s="152"/>
+      <c r="H139" s="152"/>
+      <c r="I139" s="152"/>
+      <c r="J139" s="152"/>
+      <c r="K139" s="152"/>
+      <c r="L139" s="152"/>
+      <c r="M139" s="152"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="F140" s="150"/>
-      <c r="G140" s="150"/>
-      <c r="H140" s="150"/>
-      <c r="I140" s="150"/>
-      <c r="J140" s="150"/>
-      <c r="K140" s="150"/>
-      <c r="L140" s="150"/>
-      <c r="M140" s="150"/>
+      <c r="F140" s="152"/>
+      <c r="G140" s="152"/>
+      <c r="H140" s="152"/>
+      <c r="I140" s="152"/>
+      <c r="J140" s="152"/>
+      <c r="K140" s="152"/>
+      <c r="L140" s="152"/>
+      <c r="M140" s="152"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="F141" s="150"/>
-      <c r="G141" s="150"/>
-      <c r="H141" s="150"/>
-      <c r="I141" s="150"/>
-      <c r="J141" s="150"/>
-      <c r="K141" s="150"/>
-      <c r="L141" s="150"/>
-      <c r="M141" s="150"/>
+      <c r="F141" s="152"/>
+      <c r="G141" s="152"/>
+      <c r="H141" s="152"/>
+      <c r="I141" s="152"/>
+      <c r="J141" s="152"/>
+      <c r="K141" s="152"/>
+      <c r="L141" s="152"/>
+      <c r="M141" s="152"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="F142" s="150"/>
-      <c r="G142" s="150"/>
-      <c r="H142" s="150"/>
-      <c r="I142" s="150"/>
-      <c r="J142" s="150"/>
-      <c r="K142" s="150"/>
-      <c r="L142" s="150"/>
-      <c r="M142" s="150"/>
+      <c r="F142" s="152"/>
+      <c r="G142" s="152"/>
+      <c r="H142" s="152"/>
+      <c r="I142" s="152"/>
+      <c r="J142" s="152"/>
+      <c r="K142" s="152"/>
+      <c r="L142" s="152"/>
+      <c r="M142" s="152"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="F143" s="150"/>
-      <c r="G143" s="150"/>
-      <c r="H143" s="150"/>
-      <c r="I143" s="150"/>
-      <c r="J143" s="150"/>
-      <c r="K143" s="150"/>
-      <c r="L143" s="150"/>
-      <c r="M143" s="150"/>
+      <c r="F143" s="152"/>
+      <c r="G143" s="152"/>
+      <c r="H143" s="152"/>
+      <c r="I143" s="152"/>
+      <c r="J143" s="152"/>
+      <c r="K143" s="152"/>
+      <c r="L143" s="152"/>
+      <c r="M143" s="152"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="F144" s="150"/>
-      <c r="G144" s="150"/>
-      <c r="H144" s="150"/>
-      <c r="I144" s="150"/>
-      <c r="J144" s="150"/>
-      <c r="K144" s="150"/>
-      <c r="L144" s="150"/>
-      <c r="M144" s="150"/>
+      <c r="F144" s="152"/>
+      <c r="G144" s="152"/>
+      <c r="H144" s="152"/>
+      <c r="I144" s="152"/>
+      <c r="J144" s="152"/>
+      <c r="K144" s="152"/>
+      <c r="L144" s="152"/>
+      <c r="M144" s="152"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="F145" s="150"/>
-      <c r="G145" s="150"/>
-      <c r="H145" s="150"/>
-      <c r="I145" s="150"/>
-      <c r="J145" s="150"/>
-      <c r="K145" s="150"/>
-      <c r="L145" s="150"/>
-      <c r="M145" s="150"/>
+      <c r="F145" s="152"/>
+      <c r="G145" s="152"/>
+      <c r="H145" s="152"/>
+      <c r="I145" s="152"/>
+      <c r="J145" s="152"/>
+      <c r="K145" s="152"/>
+      <c r="L145" s="152"/>
+      <c r="M145" s="152"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="F146" s="150"/>
-      <c r="G146" s="150"/>
-      <c r="H146" s="150"/>
-      <c r="I146" s="150"/>
-      <c r="J146" s="150"/>
-      <c r="K146" s="150"/>
-      <c r="L146" s="150"/>
-      <c r="M146" s="150"/>
+      <c r="F146" s="152"/>
+      <c r="G146" s="152"/>
+      <c r="H146" s="152"/>
+      <c r="I146" s="152"/>
+      <c r="J146" s="152"/>
+      <c r="K146" s="152"/>
+      <c r="L146" s="152"/>
+      <c r="M146" s="152"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="F147" s="150"/>
-      <c r="G147" s="150"/>
-      <c r="H147" s="150"/>
-      <c r="I147" s="150"/>
-      <c r="J147" s="150"/>
-      <c r="K147" s="150"/>
-      <c r="L147" s="150"/>
-      <c r="M147" s="150"/>
+      <c r="F147" s="152"/>
+      <c r="G147" s="152"/>
+      <c r="H147" s="152"/>
+      <c r="I147" s="152"/>
+      <c r="J147" s="152"/>
+      <c r="K147" s="152"/>
+      <c r="L147" s="152"/>
+      <c r="M147" s="152"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="F148" s="150"/>
-      <c r="G148" s="150"/>
-      <c r="H148" s="150"/>
-      <c r="I148" s="150"/>
-      <c r="J148" s="150"/>
-      <c r="K148" s="150"/>
-      <c r="L148" s="150"/>
-      <c r="M148" s="150"/>
+      <c r="F148" s="152"/>
+      <c r="G148" s="152"/>
+      <c r="H148" s="152"/>
+      <c r="I148" s="152"/>
+      <c r="J148" s="152"/>
+      <c r="K148" s="152"/>
+      <c r="L148" s="152"/>
+      <c r="M148" s="152"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="F149" s="150"/>
-      <c r="G149" s="150"/>
-      <c r="H149" s="150"/>
-      <c r="I149" s="150"/>
-      <c r="J149" s="150"/>
-      <c r="K149" s="150"/>
-      <c r="L149" s="150"/>
-      <c r="M149" s="150"/>
+      <c r="F149" s="152"/>
+      <c r="G149" s="152"/>
+      <c r="H149" s="152"/>
+      <c r="I149" s="152"/>
+      <c r="J149" s="152"/>
+      <c r="K149" s="152"/>
+      <c r="L149" s="152"/>
+      <c r="M149" s="152"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="F150" s="150"/>
-      <c r="G150" s="150"/>
-      <c r="H150" s="150"/>
-      <c r="I150" s="150"/>
-      <c r="J150" s="150"/>
-      <c r="K150" s="150"/>
-      <c r="L150" s="150"/>
-      <c r="M150" s="150"/>
+      <c r="F150" s="152"/>
+      <c r="G150" s="152"/>
+      <c r="H150" s="152"/>
+      <c r="I150" s="152"/>
+      <c r="J150" s="152"/>
+      <c r="K150" s="152"/>
+      <c r="L150" s="152"/>
+      <c r="M150" s="152"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="F151" s="150"/>
-      <c r="G151" s="150"/>
-      <c r="H151" s="150"/>
-      <c r="I151" s="150"/>
-      <c r="J151" s="150"/>
-      <c r="K151" s="150"/>
-      <c r="L151" s="150"/>
-      <c r="M151" s="150"/>
+      <c r="F151" s="152"/>
+      <c r="G151" s="152"/>
+      <c r="H151" s="152"/>
+      <c r="I151" s="152"/>
+      <c r="J151" s="152"/>
+      <c r="K151" s="152"/>
+      <c r="L151" s="152"/>
+      <c r="M151" s="152"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="F152" s="150"/>
-      <c r="G152" s="150"/>
-      <c r="H152" s="150"/>
-      <c r="I152" s="150"/>
-      <c r="J152" s="150"/>
-      <c r="K152" s="150"/>
-      <c r="L152" s="150"/>
-      <c r="M152" s="150"/>
+      <c r="F152" s="152"/>
+      <c r="G152" s="152"/>
+      <c r="H152" s="152"/>
+      <c r="I152" s="152"/>
+      <c r="J152" s="152"/>
+      <c r="K152" s="152"/>
+      <c r="L152" s="152"/>
+      <c r="M152" s="152"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="F153" s="150"/>
-      <c r="G153" s="150"/>
-      <c r="H153" s="150"/>
-      <c r="I153" s="150"/>
-      <c r="J153" s="150"/>
-      <c r="K153" s="150"/>
-      <c r="L153" s="150"/>
-      <c r="M153" s="150"/>
+      <c r="F153" s="152"/>
+      <c r="G153" s="152"/>
+      <c r="H153" s="152"/>
+      <c r="I153" s="152"/>
+      <c r="J153" s="152"/>
+      <c r="K153" s="152"/>
+      <c r="L153" s="152"/>
+      <c r="M153" s="152"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="F154" s="150"/>
-      <c r="G154" s="150"/>
-      <c r="H154" s="150"/>
-      <c r="I154" s="150"/>
-      <c r="J154" s="150"/>
-      <c r="K154" s="150"/>
-      <c r="L154" s="150"/>
-      <c r="M154" s="150"/>
+      <c r="F154" s="152"/>
+      <c r="G154" s="152"/>
+      <c r="H154" s="152"/>
+      <c r="I154" s="152"/>
+      <c r="J154" s="152"/>
+      <c r="K154" s="152"/>
+      <c r="L154" s="152"/>
+      <c r="M154" s="152"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="F155" s="150"/>
-      <c r="G155" s="150"/>
-      <c r="H155" s="150"/>
-      <c r="I155" s="150"/>
-      <c r="J155" s="150"/>
-      <c r="K155" s="150"/>
-      <c r="L155" s="150"/>
-      <c r="M155" s="150"/>
+      <c r="F155" s="152"/>
+      <c r="G155" s="152"/>
+      <c r="H155" s="152"/>
+      <c r="I155" s="152"/>
+      <c r="J155" s="152"/>
+      <c r="K155" s="152"/>
+      <c r="L155" s="152"/>
+      <c r="M155" s="152"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="F156" s="150"/>
-      <c r="G156" s="150"/>
-      <c r="H156" s="150"/>
-      <c r="I156" s="150"/>
-      <c r="J156" s="150"/>
-      <c r="K156" s="150"/>
-      <c r="L156" s="150"/>
-      <c r="M156" s="150"/>
+      <c r="F156" s="152"/>
+      <c r="G156" s="152"/>
+      <c r="H156" s="152"/>
+      <c r="I156" s="152"/>
+      <c r="J156" s="152"/>
+      <c r="K156" s="152"/>
+      <c r="L156" s="152"/>
+      <c r="M156" s="152"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="F157" s="150"/>
-      <c r="G157" s="150"/>
-      <c r="H157" s="150"/>
-      <c r="I157" s="150"/>
-      <c r="J157" s="150"/>
-      <c r="K157" s="150"/>
-      <c r="L157" s="150"/>
-      <c r="M157" s="150"/>
+      <c r="F157" s="152"/>
+      <c r="G157" s="152"/>
+      <c r="H157" s="152"/>
+      <c r="I157" s="152"/>
+      <c r="J157" s="152"/>
+      <c r="K157" s="152"/>
+      <c r="L157" s="152"/>
+      <c r="M157" s="152"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="F158" s="150"/>
-      <c r="G158" s="150"/>
-      <c r="H158" s="150"/>
-      <c r="I158" s="150"/>
-      <c r="J158" s="150"/>
-      <c r="K158" s="150"/>
-      <c r="L158" s="150"/>
-      <c r="M158" s="150"/>
+      <c r="F158" s="152"/>
+      <c r="G158" s="152"/>
+      <c r="H158" s="152"/>
+      <c r="I158" s="152"/>
+      <c r="J158" s="152"/>
+      <c r="K158" s="152"/>
+      <c r="L158" s="152"/>
+      <c r="M158" s="152"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="F159" s="150"/>
-      <c r="G159" s="150"/>
-      <c r="H159" s="150"/>
-      <c r="I159" s="150"/>
-      <c r="J159" s="150"/>
-      <c r="K159" s="150"/>
-      <c r="L159" s="150"/>
-      <c r="M159" s="150"/>
+      <c r="F159" s="152"/>
+      <c r="G159" s="152"/>
+      <c r="H159" s="152"/>
+      <c r="I159" s="152"/>
+      <c r="J159" s="152"/>
+      <c r="K159" s="152"/>
+      <c r="L159" s="152"/>
+      <c r="M159" s="152"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="F160" s="150"/>
-      <c r="G160" s="150"/>
-      <c r="H160" s="150"/>
-      <c r="I160" s="150"/>
-      <c r="J160" s="150"/>
-      <c r="K160" s="150"/>
-      <c r="L160" s="150"/>
-      <c r="M160" s="150"/>
+      <c r="F160" s="152"/>
+      <c r="G160" s="152"/>
+      <c r="H160" s="152"/>
+      <c r="I160" s="152"/>
+      <c r="J160" s="152"/>
+      <c r="K160" s="152"/>
+      <c r="L160" s="152"/>
+      <c r="M160" s="152"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="F161" s="150"/>
-      <c r="G161" s="150"/>
-      <c r="H161" s="150"/>
-      <c r="I161" s="150"/>
-      <c r="J161" s="150"/>
-      <c r="K161" s="150"/>
-      <c r="L161" s="150"/>
-      <c r="M161" s="150"/>
+      <c r="F161" s="152"/>
+      <c r="G161" s="152"/>
+      <c r="H161" s="152"/>
+      <c r="I161" s="152"/>
+      <c r="J161" s="152"/>
+      <c r="K161" s="152"/>
+      <c r="L161" s="152"/>
+      <c r="M161" s="152"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="F162" s="150"/>
-      <c r="G162" s="150"/>
-      <c r="H162" s="150"/>
-      <c r="I162" s="150"/>
-      <c r="J162" s="150"/>
-      <c r="K162" s="150"/>
-      <c r="L162" s="150"/>
-      <c r="M162" s="150"/>
+      <c r="F162" s="152"/>
+      <c r="G162" s="152"/>
+      <c r="H162" s="152"/>
+      <c r="I162" s="152"/>
+      <c r="J162" s="152"/>
+      <c r="K162" s="152"/>
+      <c r="L162" s="152"/>
+      <c r="M162" s="152"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="F163" s="150"/>
-      <c r="G163" s="150"/>
-      <c r="H163" s="150"/>
-      <c r="I163" s="150"/>
-      <c r="J163" s="150"/>
-      <c r="K163" s="150"/>
-      <c r="L163" s="150"/>
-      <c r="M163" s="150"/>
+      <c r="F163" s="152"/>
+      <c r="G163" s="152"/>
+      <c r="H163" s="152"/>
+      <c r="I163" s="152"/>
+      <c r="J163" s="152"/>
+      <c r="K163" s="152"/>
+      <c r="L163" s="152"/>
+      <c r="M163" s="152"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="F164" s="150"/>
-      <c r="G164" s="150"/>
-      <c r="H164" s="150"/>
-      <c r="I164" s="150"/>
-      <c r="J164" s="150"/>
-      <c r="K164" s="150"/>
-      <c r="L164" s="150"/>
-      <c r="M164" s="150"/>
+      <c r="F164" s="152"/>
+      <c r="G164" s="152"/>
+      <c r="H164" s="152"/>
+      <c r="I164" s="152"/>
+      <c r="J164" s="152"/>
+      <c r="K164" s="152"/>
+      <c r="L164" s="152"/>
+      <c r="M164" s="152"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="F165" s="150"/>
-      <c r="G165" s="150"/>
-      <c r="H165" s="150"/>
-      <c r="I165" s="150"/>
-      <c r="J165" s="150"/>
-      <c r="K165" s="150"/>
-      <c r="L165" s="150"/>
-      <c r="M165" s="150"/>
+      <c r="F165" s="152"/>
+      <c r="G165" s="152"/>
+      <c r="H165" s="152"/>
+      <c r="I165" s="152"/>
+      <c r="J165" s="152"/>
+      <c r="K165" s="152"/>
+      <c r="L165" s="152"/>
+      <c r="M165" s="152"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="F166" s="150"/>
-      <c r="G166" s="150"/>
-      <c r="H166" s="150"/>
-      <c r="I166" s="150"/>
-      <c r="J166" s="150"/>
-      <c r="K166" s="150"/>
-      <c r="L166" s="150"/>
-      <c r="M166" s="150"/>
+      <c r="F166" s="152"/>
+      <c r="G166" s="152"/>
+      <c r="H166" s="152"/>
+      <c r="I166" s="152"/>
+      <c r="J166" s="152"/>
+      <c r="K166" s="152"/>
+      <c r="L166" s="152"/>
+      <c r="M166" s="152"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="F167" s="150"/>
-      <c r="G167" s="150"/>
-      <c r="H167" s="150"/>
-      <c r="I167" s="150"/>
-      <c r="J167" s="150"/>
-      <c r="K167" s="150"/>
-      <c r="L167" s="150"/>
-      <c r="M167" s="150"/>
+      <c r="F167" s="152"/>
+      <c r="G167" s="152"/>
+      <c r="H167" s="152"/>
+      <c r="I167" s="152"/>
+      <c r="J167" s="152"/>
+      <c r="K167" s="152"/>
+      <c r="L167" s="152"/>
+      <c r="M167" s="152"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="F168" s="150"/>
-      <c r="G168" s="150"/>
-      <c r="H168" s="150"/>
-      <c r="I168" s="150"/>
-      <c r="J168" s="150"/>
-      <c r="K168" s="150"/>
-      <c r="L168" s="150"/>
-      <c r="M168" s="150"/>
+      <c r="F168" s="152"/>
+      <c r="G168" s="152"/>
+      <c r="H168" s="152"/>
+      <c r="I168" s="152"/>
+      <c r="J168" s="152"/>
+      <c r="K168" s="152"/>
+      <c r="L168" s="152"/>
+      <c r="M168" s="152"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="F169" s="150"/>
-      <c r="G169" s="150"/>
-      <c r="H169" s="150"/>
-      <c r="I169" s="150"/>
-      <c r="J169" s="150"/>
-      <c r="K169" s="150"/>
-      <c r="L169" s="150"/>
-      <c r="M169" s="150"/>
+      <c r="F169" s="152"/>
+      <c r="G169" s="152"/>
+      <c r="H169" s="152"/>
+      <c r="I169" s="152"/>
+      <c r="J169" s="152"/>
+      <c r="K169" s="152"/>
+      <c r="L169" s="152"/>
+      <c r="M169" s="152"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="F170" s="150"/>
-      <c r="G170" s="150"/>
-      <c r="H170" s="150"/>
-      <c r="I170" s="150"/>
-      <c r="J170" s="150"/>
-      <c r="K170" s="150"/>
-      <c r="L170" s="150"/>
-      <c r="M170" s="150"/>
+      <c r="F170" s="152"/>
+      <c r="G170" s="152"/>
+      <c r="H170" s="152"/>
+      <c r="I170" s="152"/>
+      <c r="J170" s="152"/>
+      <c r="K170" s="152"/>
+      <c r="L170" s="152"/>
+      <c r="M170" s="152"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="F171" s="150"/>
-      <c r="G171" s="150"/>
-      <c r="H171" s="150"/>
-      <c r="I171" s="150"/>
-      <c r="J171" s="150"/>
-      <c r="K171" s="150"/>
-      <c r="L171" s="150"/>
-      <c r="M171" s="150"/>
+      <c r="F171" s="152"/>
+      <c r="G171" s="152"/>
+      <c r="H171" s="152"/>
+      <c r="I171" s="152"/>
+      <c r="J171" s="152"/>
+      <c r="K171" s="152"/>
+      <c r="L171" s="152"/>
+      <c r="M171" s="152"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="F172" s="150"/>
-      <c r="G172" s="150"/>
-      <c r="H172" s="150"/>
-      <c r="I172" s="150"/>
-      <c r="J172" s="150"/>
-      <c r="K172" s="150"/>
-      <c r="L172" s="150"/>
-      <c r="M172" s="150"/>
+      <c r="F172" s="152"/>
+      <c r="G172" s="152"/>
+      <c r="H172" s="152"/>
+      <c r="I172" s="152"/>
+      <c r="J172" s="152"/>
+      <c r="K172" s="152"/>
+      <c r="L172" s="152"/>
+      <c r="M172" s="152"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="F173" s="150"/>
-      <c r="G173" s="150"/>
-      <c r="H173" s="150"/>
-      <c r="I173" s="150"/>
-      <c r="J173" s="150"/>
-      <c r="K173" s="150"/>
-      <c r="L173" s="150"/>
-      <c r="M173" s="150"/>
+      <c r="F173" s="152"/>
+      <c r="G173" s="152"/>
+      <c r="H173" s="152"/>
+      <c r="I173" s="152"/>
+      <c r="J173" s="152"/>
+      <c r="K173" s="152"/>
+      <c r="L173" s="152"/>
+      <c r="M173" s="152"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="F174" s="150"/>
-      <c r="G174" s="150"/>
-      <c r="H174" s="150"/>
-      <c r="I174" s="150"/>
-      <c r="J174" s="150"/>
-      <c r="K174" s="150"/>
-      <c r="L174" s="150"/>
-      <c r="M174" s="150"/>
+      <c r="F174" s="152"/>
+      <c r="G174" s="152"/>
+      <c r="H174" s="152"/>
+      <c r="I174" s="152"/>
+      <c r="J174" s="152"/>
+      <c r="K174" s="152"/>
+      <c r="L174" s="152"/>
+      <c r="M174" s="152"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="F175" s="150"/>
-      <c r="G175" s="150"/>
-      <c r="H175" s="150"/>
-      <c r="I175" s="150"/>
-      <c r="J175" s="150"/>
-      <c r="K175" s="150"/>
-      <c r="L175" s="150"/>
-      <c r="M175" s="150"/>
+      <c r="F175" s="152"/>
+      <c r="G175" s="152"/>
+      <c r="H175" s="152"/>
+      <c r="I175" s="152"/>
+      <c r="J175" s="152"/>
+      <c r="K175" s="152"/>
+      <c r="L175" s="152"/>
+      <c r="M175" s="152"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="F176" s="150"/>
-      <c r="G176" s="150"/>
-      <c r="H176" s="150"/>
-      <c r="I176" s="150"/>
-      <c r="J176" s="150"/>
-      <c r="K176" s="150"/>
-      <c r="L176" s="150"/>
-      <c r="M176" s="150"/>
+      <c r="F176" s="152"/>
+      <c r="G176" s="152"/>
+      <c r="H176" s="152"/>
+      <c r="I176" s="152"/>
+      <c r="J176" s="152"/>
+      <c r="K176" s="152"/>
+      <c r="L176" s="152"/>
+      <c r="M176" s="152"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="F177" s="150"/>
-      <c r="G177" s="150"/>
-      <c r="H177" s="150"/>
-      <c r="I177" s="150"/>
-      <c r="J177" s="150"/>
-      <c r="K177" s="150"/>
-      <c r="L177" s="150"/>
-      <c r="M177" s="150"/>
+      <c r="F177" s="152"/>
+      <c r="G177" s="152"/>
+      <c r="H177" s="152"/>
+      <c r="I177" s="152"/>
+      <c r="J177" s="152"/>
+      <c r="K177" s="152"/>
+      <c r="L177" s="152"/>
+      <c r="M177" s="152"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="F178" s="150"/>
-      <c r="G178" s="150"/>
-      <c r="H178" s="150"/>
-      <c r="I178" s="150"/>
-      <c r="J178" s="150"/>
-      <c r="K178" s="150"/>
-      <c r="L178" s="150"/>
-      <c r="M178" s="150"/>
+      <c r="F178" s="152"/>
+      <c r="G178" s="152"/>
+      <c r="H178" s="152"/>
+      <c r="I178" s="152"/>
+      <c r="J178" s="152"/>
+      <c r="K178" s="152"/>
+      <c r="L178" s="152"/>
+      <c r="M178" s="152"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="F179" s="150"/>
-      <c r="G179" s="150"/>
-      <c r="H179" s="150"/>
-      <c r="I179" s="150"/>
-      <c r="J179" s="150"/>
-      <c r="K179" s="150"/>
-      <c r="L179" s="150"/>
-      <c r="M179" s="150"/>
+      <c r="F179" s="152"/>
+      <c r="G179" s="152"/>
+      <c r="H179" s="152"/>
+      <c r="I179" s="152"/>
+      <c r="J179" s="152"/>
+      <c r="K179" s="152"/>
+      <c r="L179" s="152"/>
+      <c r="M179" s="152"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="F180" s="150"/>
-      <c r="G180" s="150"/>
-      <c r="H180" s="150"/>
-      <c r="I180" s="150"/>
-      <c r="J180" s="150"/>
-      <c r="K180" s="150"/>
-      <c r="L180" s="150"/>
-      <c r="M180" s="150"/>
+      <c r="F180" s="152"/>
+      <c r="G180" s="152"/>
+      <c r="H180" s="152"/>
+      <c r="I180" s="152"/>
+      <c r="J180" s="152"/>
+      <c r="K180" s="152"/>
+      <c r="L180" s="152"/>
+      <c r="M180" s="152"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="F181" s="150"/>
-      <c r="G181" s="150"/>
-      <c r="H181" s="150"/>
-      <c r="I181" s="150"/>
-      <c r="J181" s="150"/>
-      <c r="K181" s="150"/>
-      <c r="L181" s="150"/>
-      <c r="M181" s="150"/>
+      <c r="F181" s="152"/>
+      <c r="G181" s="152"/>
+      <c r="H181" s="152"/>
+      <c r="I181" s="152"/>
+      <c r="J181" s="152"/>
+      <c r="K181" s="152"/>
+      <c r="L181" s="152"/>
+      <c r="M181" s="152"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="F182" s="150"/>
-      <c r="G182" s="150"/>
-      <c r="H182" s="150"/>
-      <c r="I182" s="150"/>
-      <c r="J182" s="150"/>
-      <c r="K182" s="150"/>
-      <c r="L182" s="150"/>
-      <c r="M182" s="150"/>
+      <c r="F182" s="152"/>
+      <c r="G182" s="152"/>
+      <c r="H182" s="152"/>
+      <c r="I182" s="152"/>
+      <c r="J182" s="152"/>
+      <c r="K182" s="152"/>
+      <c r="L182" s="152"/>
+      <c r="M182" s="152"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="F183" s="150"/>
-      <c r="G183" s="150"/>
-      <c r="H183" s="150"/>
-      <c r="I183" s="150"/>
-      <c r="J183" s="150"/>
-      <c r="K183" s="150"/>
-      <c r="L183" s="150"/>
-      <c r="M183" s="150"/>
+      <c r="F183" s="152"/>
+      <c r="G183" s="152"/>
+      <c r="H183" s="152"/>
+      <c r="I183" s="152"/>
+      <c r="J183" s="152"/>
+      <c r="K183" s="152"/>
+      <c r="L183" s="152"/>
+      <c r="M183" s="152"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="F184" s="150"/>
-      <c r="G184" s="150"/>
-      <c r="H184" s="150"/>
-      <c r="I184" s="150"/>
-      <c r="J184" s="150"/>
-      <c r="K184" s="150"/>
-      <c r="L184" s="150"/>
-      <c r="M184" s="150"/>
+      <c r="F184" s="152"/>
+      <c r="G184" s="152"/>
+      <c r="H184" s="152"/>
+      <c r="I184" s="152"/>
+      <c r="J184" s="152"/>
+      <c r="K184" s="152"/>
+      <c r="L184" s="152"/>
+      <c r="M184" s="152"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="F185" s="150"/>
-      <c r="G185" s="150"/>
-      <c r="H185" s="150"/>
-      <c r="I185" s="150"/>
-      <c r="J185" s="150"/>
-      <c r="K185" s="150"/>
-      <c r="L185" s="150"/>
-      <c r="M185" s="150"/>
+      <c r="F185" s="152"/>
+      <c r="G185" s="152"/>
+      <c r="H185" s="152"/>
+      <c r="I185" s="152"/>
+      <c r="J185" s="152"/>
+      <c r="K185" s="152"/>
+      <c r="L185" s="152"/>
+      <c r="M185" s="152"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="F186" s="150"/>
-      <c r="G186" s="150"/>
-      <c r="H186" s="150"/>
-      <c r="I186" s="150"/>
-      <c r="J186" s="150"/>
-      <c r="K186" s="150"/>
-      <c r="L186" s="150"/>
-      <c r="M186" s="150"/>
+      <c r="F186" s="152"/>
+      <c r="G186" s="152"/>
+      <c r="H186" s="152"/>
+      <c r="I186" s="152"/>
+      <c r="J186" s="152"/>
+      <c r="K186" s="152"/>
+      <c r="L186" s="152"/>
+      <c r="M186" s="152"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="F187" s="150"/>
-      <c r="G187" s="150"/>
-      <c r="H187" s="150"/>
-      <c r="I187" s="150"/>
-      <c r="J187" s="150"/>
-      <c r="K187" s="150"/>
-      <c r="L187" s="150"/>
-      <c r="M187" s="150"/>
+      <c r="F187" s="152"/>
+      <c r="G187" s="152"/>
+      <c r="H187" s="152"/>
+      <c r="I187" s="152"/>
+      <c r="J187" s="152"/>
+      <c r="K187" s="152"/>
+      <c r="L187" s="152"/>
+      <c r="M187" s="152"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="F188" s="150"/>
-      <c r="G188" s="150"/>
-      <c r="H188" s="150"/>
-      <c r="I188" s="150"/>
-      <c r="J188" s="150"/>
-      <c r="K188" s="150"/>
-      <c r="L188" s="150"/>
-      <c r="M188" s="150"/>
+      <c r="F188" s="152"/>
+      <c r="G188" s="152"/>
+      <c r="H188" s="152"/>
+      <c r="I188" s="152"/>
+      <c r="J188" s="152"/>
+      <c r="K188" s="152"/>
+      <c r="L188" s="152"/>
+      <c r="M188" s="152"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="F189" s="150"/>
-      <c r="G189" s="150"/>
-      <c r="H189" s="150"/>
-      <c r="I189" s="150"/>
-      <c r="J189" s="150"/>
-      <c r="K189" s="150"/>
-      <c r="L189" s="150"/>
-      <c r="M189" s="150"/>
+      <c r="F189" s="152"/>
+      <c r="G189" s="152"/>
+      <c r="H189" s="152"/>
+      <c r="I189" s="152"/>
+      <c r="J189" s="152"/>
+      <c r="K189" s="152"/>
+      <c r="L189" s="152"/>
+      <c r="M189" s="152"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="F190" s="150"/>
-      <c r="G190" s="150"/>
-      <c r="H190" s="150"/>
-      <c r="I190" s="150"/>
-      <c r="J190" s="150"/>
-      <c r="K190" s="150"/>
-      <c r="L190" s="150"/>
-      <c r="M190" s="150"/>
+      <c r="F190" s="152"/>
+      <c r="G190" s="152"/>
+      <c r="H190" s="152"/>
+      <c r="I190" s="152"/>
+      <c r="J190" s="152"/>
+      <c r="K190" s="152"/>
+      <c r="L190" s="152"/>
+      <c r="M190" s="152"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="F191" s="150"/>
-      <c r="G191" s="150"/>
-      <c r="H191" s="150"/>
-      <c r="I191" s="150"/>
-      <c r="J191" s="150"/>
-      <c r="K191" s="150"/>
-      <c r="L191" s="150"/>
-      <c r="M191" s="150"/>
+      <c r="F191" s="152"/>
+      <c r="G191" s="152"/>
+      <c r="H191" s="152"/>
+      <c r="I191" s="152"/>
+      <c r="J191" s="152"/>
+      <c r="K191" s="152"/>
+      <c r="L191" s="152"/>
+      <c r="M191" s="152"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="F192" s="150"/>
-      <c r="G192" s="150"/>
-      <c r="H192" s="150"/>
-      <c r="I192" s="150"/>
-      <c r="J192" s="150"/>
-      <c r="K192" s="150"/>
-      <c r="L192" s="150"/>
-      <c r="M192" s="150"/>
+      <c r="F192" s="152"/>
+      <c r="G192" s="152"/>
+      <c r="H192" s="152"/>
+      <c r="I192" s="152"/>
+      <c r="J192" s="152"/>
+      <c r="K192" s="152"/>
+      <c r="L192" s="152"/>
+      <c r="M192" s="152"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="F193" s="150"/>
-      <c r="G193" s="150"/>
-      <c r="H193" s="150"/>
-      <c r="I193" s="150"/>
-      <c r="J193" s="150"/>
-      <c r="K193" s="150"/>
-      <c r="L193" s="150"/>
-      <c r="M193" s="150"/>
+      <c r="F193" s="152"/>
+      <c r="G193" s="152"/>
+      <c r="H193" s="152"/>
+      <c r="I193" s="152"/>
+      <c r="J193" s="152"/>
+      <c r="K193" s="152"/>
+      <c r="L193" s="152"/>
+      <c r="M193" s="152"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="F194" s="150"/>
-      <c r="G194" s="150"/>
-      <c r="H194" s="150"/>
-      <c r="I194" s="150"/>
-      <c r="J194" s="150"/>
-      <c r="K194" s="150"/>
-      <c r="L194" s="150"/>
-      <c r="M194" s="150"/>
+      <c r="F194" s="152"/>
+      <c r="G194" s="152"/>
+      <c r="H194" s="152"/>
+      <c r="I194" s="152"/>
+      <c r="J194" s="152"/>
+      <c r="K194" s="152"/>
+      <c r="L194" s="152"/>
+      <c r="M194" s="152"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="F195" s="150"/>
-      <c r="G195" s="150"/>
-      <c r="H195" s="150"/>
-      <c r="I195" s="150"/>
-      <c r="J195" s="150"/>
-      <c r="K195" s="150"/>
-      <c r="L195" s="150"/>
-      <c r="M195" s="150"/>
+      <c r="F195" s="152"/>
+      <c r="G195" s="152"/>
+      <c r="H195" s="152"/>
+      <c r="I195" s="152"/>
+      <c r="J195" s="152"/>
+      <c r="K195" s="152"/>
+      <c r="L195" s="152"/>
+      <c r="M195" s="152"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="F196" s="150"/>
-      <c r="G196" s="150"/>
-      <c r="H196" s="150"/>
-      <c r="I196" s="150"/>
-      <c r="J196" s="150"/>
-      <c r="K196" s="150"/>
-      <c r="L196" s="150"/>
-      <c r="M196" s="150"/>
+      <c r="F196" s="152"/>
+      <c r="G196" s="152"/>
+      <c r="H196" s="152"/>
+      <c r="I196" s="152"/>
+      <c r="J196" s="152"/>
+      <c r="K196" s="152"/>
+      <c r="L196" s="152"/>
+      <c r="M196" s="152"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="F197" s="150"/>
-      <c r="G197" s="150"/>
-      <c r="H197" s="150"/>
-      <c r="I197" s="150"/>
-      <c r="J197" s="150"/>
-      <c r="K197" s="150"/>
-      <c r="L197" s="150"/>
-      <c r="M197" s="150"/>
+      <c r="F197" s="152"/>
+      <c r="G197" s="152"/>
+      <c r="H197" s="152"/>
+      <c r="I197" s="152"/>
+      <c r="J197" s="152"/>
+      <c r="K197" s="152"/>
+      <c r="L197" s="152"/>
+      <c r="M197" s="152"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="F198" s="150"/>
-      <c r="G198" s="150"/>
-      <c r="H198" s="150"/>
-      <c r="I198" s="150"/>
-      <c r="J198" s="150"/>
-      <c r="K198" s="150"/>
-      <c r="L198" s="150"/>
-      <c r="M198" s="150"/>
+      <c r="F198" s="152"/>
+      <c r="G198" s="152"/>
+      <c r="H198" s="152"/>
+      <c r="I198" s="152"/>
+      <c r="J198" s="152"/>
+      <c r="K198" s="152"/>
+      <c r="L198" s="152"/>
+      <c r="M198" s="152"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="F199" s="150"/>
-      <c r="G199" s="150"/>
-      <c r="H199" s="150"/>
-      <c r="I199" s="150"/>
-      <c r="J199" s="150"/>
-      <c r="K199" s="150"/>
-      <c r="L199" s="150"/>
-      <c r="M199" s="150"/>
+      <c r="F199" s="152"/>
+      <c r="G199" s="152"/>
+      <c r="H199" s="152"/>
+      <c r="I199" s="152"/>
+      <c r="J199" s="152"/>
+      <c r="K199" s="152"/>
+      <c r="L199" s="152"/>
+      <c r="M199" s="152"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="F200" s="150"/>
-      <c r="G200" s="150"/>
-      <c r="H200" s="150"/>
-      <c r="I200" s="150"/>
-      <c r="J200" s="150"/>
-      <c r="K200" s="150"/>
-      <c r="L200" s="150"/>
-      <c r="M200" s="150"/>
+      <c r="F200" s="152"/>
+      <c r="G200" s="152"/>
+      <c r="H200" s="152"/>
+      <c r="I200" s="152"/>
+      <c r="J200" s="152"/>
+      <c r="K200" s="152"/>
+      <c r="L200" s="152"/>
+      <c r="M200" s="152"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="F201" s="150"/>
-      <c r="G201" s="150"/>
-      <c r="H201" s="150"/>
-      <c r="I201" s="150"/>
-      <c r="J201" s="150"/>
-      <c r="K201" s="150"/>
-      <c r="L201" s="150"/>
-      <c r="M201" s="150"/>
+      <c r="F201" s="152"/>
+      <c r="G201" s="152"/>
+      <c r="H201" s="152"/>
+      <c r="I201" s="152"/>
+      <c r="J201" s="152"/>
+      <c r="K201" s="152"/>
+      <c r="L201" s="152"/>
+      <c r="M201" s="152"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="F202" s="150"/>
-      <c r="G202" s="150"/>
-      <c r="H202" s="150"/>
-      <c r="I202" s="150"/>
-      <c r="J202" s="150"/>
-      <c r="K202" s="150"/>
-      <c r="L202" s="150"/>
-      <c r="M202" s="150"/>
+      <c r="F202" s="152"/>
+      <c r="G202" s="152"/>
+      <c r="H202" s="152"/>
+      <c r="I202" s="152"/>
+      <c r="J202" s="152"/>
+      <c r="K202" s="152"/>
+      <c r="L202" s="152"/>
+      <c r="M202" s="152"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="F203" s="150"/>
-      <c r="G203" s="150"/>
-      <c r="H203" s="150"/>
-      <c r="I203" s="150"/>
-      <c r="J203" s="150"/>
-      <c r="K203" s="150"/>
-      <c r="L203" s="150"/>
-      <c r="M203" s="150"/>
+      <c r="F203" s="152"/>
+      <c r="G203" s="152"/>
+      <c r="H203" s="152"/>
+      <c r="I203" s="152"/>
+      <c r="J203" s="152"/>
+      <c r="K203" s="152"/>
+      <c r="L203" s="152"/>
+      <c r="M203" s="152"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="F204" s="150"/>
-      <c r="G204" s="150"/>
-      <c r="H204" s="150"/>
-      <c r="I204" s="150"/>
-      <c r="J204" s="150"/>
-      <c r="K204" s="150"/>
-      <c r="L204" s="150"/>
-      <c r="M204" s="150"/>
+      <c r="F204" s="152"/>
+      <c r="G204" s="152"/>
+      <c r="H204" s="152"/>
+      <c r="I204" s="152"/>
+      <c r="J204" s="152"/>
+      <c r="K204" s="152"/>
+      <c r="L204" s="152"/>
+      <c r="M204" s="152"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="F205" s="150"/>
-      <c r="G205" s="150"/>
-      <c r="H205" s="150"/>
-      <c r="I205" s="150"/>
-      <c r="J205" s="150"/>
-      <c r="K205" s="150"/>
-      <c r="L205" s="150"/>
-      <c r="M205" s="150"/>
+      <c r="F205" s="152"/>
+      <c r="G205" s="152"/>
+      <c r="H205" s="152"/>
+      <c r="I205" s="152"/>
+      <c r="J205" s="152"/>
+      <c r="K205" s="152"/>
+      <c r="L205" s="152"/>
+      <c r="M205" s="152"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="F206" s="150"/>
-      <c r="G206" s="150"/>
-      <c r="H206" s="150"/>
-      <c r="I206" s="150"/>
-      <c r="J206" s="150"/>
-      <c r="K206" s="150"/>
-      <c r="L206" s="150"/>
-      <c r="M206" s="150"/>
+      <c r="F206" s="152"/>
+      <c r="G206" s="152"/>
+      <c r="H206" s="152"/>
+      <c r="I206" s="152"/>
+      <c r="J206" s="152"/>
+      <c r="K206" s="152"/>
+      <c r="L206" s="152"/>
+      <c r="M206" s="152"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="F207" s="150"/>
-      <c r="G207" s="150"/>
-      <c r="H207" s="150"/>
-      <c r="I207" s="150"/>
-      <c r="J207" s="150"/>
-      <c r="K207" s="150"/>
-      <c r="L207" s="150"/>
-      <c r="M207" s="150"/>
+      <c r="F207" s="152"/>
+      <c r="G207" s="152"/>
+      <c r="H207" s="152"/>
+      <c r="I207" s="152"/>
+      <c r="J207" s="152"/>
+      <c r="K207" s="152"/>
+      <c r="L207" s="152"/>
+      <c r="M207" s="152"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="F208" s="150"/>
-      <c r="G208" s="150"/>
-      <c r="H208" s="150"/>
-      <c r="I208" s="150"/>
-      <c r="J208" s="150"/>
-      <c r="K208" s="150"/>
-      <c r="L208" s="150"/>
-      <c r="M208" s="150"/>
+      <c r="F208" s="152"/>
+      <c r="G208" s="152"/>
+      <c r="H208" s="152"/>
+      <c r="I208" s="152"/>
+      <c r="J208" s="152"/>
+      <c r="K208" s="152"/>
+      <c r="L208" s="152"/>
+      <c r="M208" s="152"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="F209" s="150"/>
-      <c r="G209" s="150"/>
-      <c r="H209" s="150"/>
-      <c r="I209" s="150"/>
-      <c r="J209" s="150"/>
-      <c r="K209" s="150"/>
-      <c r="L209" s="150"/>
-      <c r="M209" s="150"/>
+      <c r="F209" s="152"/>
+      <c r="G209" s="152"/>
+      <c r="H209" s="152"/>
+      <c r="I209" s="152"/>
+      <c r="J209" s="152"/>
+      <c r="K209" s="152"/>
+      <c r="L209" s="152"/>
+      <c r="M209" s="152"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="F210" s="150"/>
-      <c r="G210" s="150"/>
-      <c r="H210" s="150"/>
-      <c r="I210" s="150"/>
-      <c r="J210" s="150"/>
-      <c r="K210" s="150"/>
-      <c r="L210" s="150"/>
-      <c r="M210" s="150"/>
+      <c r="F210" s="152"/>
+      <c r="G210" s="152"/>
+      <c r="H210" s="152"/>
+      <c r="I210" s="152"/>
+      <c r="J210" s="152"/>
+      <c r="K210" s="152"/>
+      <c r="L210" s="152"/>
+      <c r="M210" s="152"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="F211" s="150"/>
-      <c r="G211" s="150"/>
-      <c r="H211" s="150"/>
-      <c r="I211" s="150"/>
-      <c r="J211" s="150"/>
-      <c r="K211" s="150"/>
-      <c r="L211" s="150"/>
-      <c r="M211" s="150"/>
+      <c r="F211" s="152"/>
+      <c r="G211" s="152"/>
+      <c r="H211" s="152"/>
+      <c r="I211" s="152"/>
+      <c r="J211" s="152"/>
+      <c r="K211" s="152"/>
+      <c r="L211" s="152"/>
+      <c r="M211" s="152"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="F212" s="150"/>
-      <c r="G212" s="150"/>
-      <c r="H212" s="150"/>
-      <c r="I212" s="150"/>
-      <c r="J212" s="150"/>
-      <c r="K212" s="150"/>
-      <c r="L212" s="150"/>
-      <c r="M212" s="150"/>
+      <c r="F212" s="152"/>
+      <c r="G212" s="152"/>
+      <c r="H212" s="152"/>
+      <c r="I212" s="152"/>
+      <c r="J212" s="152"/>
+      <c r="K212" s="152"/>
+      <c r="L212" s="152"/>
+      <c r="M212" s="152"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="F213" s="150"/>
-      <c r="G213" s="150"/>
-      <c r="H213" s="150"/>
-      <c r="I213" s="150"/>
-      <c r="J213" s="150"/>
-      <c r="K213" s="150"/>
-      <c r="L213" s="150"/>
-      <c r="M213" s="150"/>
+      <c r="F213" s="152"/>
+      <c r="G213" s="152"/>
+      <c r="H213" s="152"/>
+      <c r="I213" s="152"/>
+      <c r="J213" s="152"/>
+      <c r="K213" s="152"/>
+      <c r="L213" s="152"/>
+      <c r="M213" s="152"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="F214" s="150"/>
-      <c r="G214" s="150"/>
-      <c r="H214" s="150"/>
-      <c r="I214" s="150"/>
-      <c r="J214" s="150"/>
-      <c r="K214" s="150"/>
-      <c r="L214" s="150"/>
-      <c r="M214" s="150"/>
+      <c r="F214" s="152"/>
+      <c r="G214" s="152"/>
+      <c r="H214" s="152"/>
+      <c r="I214" s="152"/>
+      <c r="J214" s="152"/>
+      <c r="K214" s="152"/>
+      <c r="L214" s="152"/>
+      <c r="M214" s="152"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="F215" s="150"/>
-      <c r="G215" s="150"/>
-      <c r="H215" s="150"/>
-      <c r="I215" s="150"/>
-      <c r="J215" s="150"/>
-      <c r="K215" s="150"/>
-      <c r="L215" s="150"/>
-      <c r="M215" s="150"/>
+      <c r="F215" s="152"/>
+      <c r="G215" s="152"/>
+      <c r="H215" s="152"/>
+      <c r="I215" s="152"/>
+      <c r="J215" s="152"/>
+      <c r="K215" s="152"/>
+      <c r="L215" s="152"/>
+      <c r="M215" s="152"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="F216" s="150"/>
-      <c r="G216" s="150"/>
-      <c r="H216" s="150"/>
-      <c r="I216" s="150"/>
-      <c r="J216" s="150"/>
-      <c r="K216" s="150"/>
-      <c r="L216" s="150"/>
-      <c r="M216" s="150"/>
+      <c r="F216" s="152"/>
+      <c r="G216" s="152"/>
+      <c r="H216" s="152"/>
+      <c r="I216" s="152"/>
+      <c r="J216" s="152"/>
+      <c r="K216" s="152"/>
+      <c r="L216" s="152"/>
+      <c r="M216" s="152"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="F217" s="150"/>
-      <c r="G217" s="150"/>
-      <c r="H217" s="150"/>
-      <c r="I217" s="150"/>
-      <c r="J217" s="150"/>
-      <c r="K217" s="150"/>
-      <c r="L217" s="150"/>
-      <c r="M217" s="150"/>
+      <c r="F217" s="152"/>
+      <c r="G217" s="152"/>
+      <c r="H217" s="152"/>
+      <c r="I217" s="152"/>
+      <c r="J217" s="152"/>
+      <c r="K217" s="152"/>
+      <c r="L217" s="152"/>
+      <c r="M217" s="152"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="F218" s="150"/>
-      <c r="G218" s="150"/>
-      <c r="H218" s="150"/>
-      <c r="I218" s="150"/>
-      <c r="J218" s="150"/>
-      <c r="K218" s="150"/>
-      <c r="L218" s="150"/>
-      <c r="M218" s="150"/>
+      <c r="F218" s="152"/>
+      <c r="G218" s="152"/>
+      <c r="H218" s="152"/>
+      <c r="I218" s="152"/>
+      <c r="J218" s="152"/>
+      <c r="K218" s="152"/>
+      <c r="L218" s="152"/>
+      <c r="M218" s="152"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="F219" s="150"/>
-      <c r="G219" s="150"/>
-      <c r="H219" s="150"/>
-      <c r="I219" s="150"/>
-      <c r="J219" s="150"/>
-      <c r="K219" s="150"/>
-      <c r="L219" s="150"/>
-      <c r="M219" s="150"/>
+      <c r="F219" s="152"/>
+      <c r="G219" s="152"/>
+      <c r="H219" s="152"/>
+      <c r="I219" s="152"/>
+      <c r="J219" s="152"/>
+      <c r="K219" s="152"/>
+      <c r="L219" s="152"/>
+      <c r="M219" s="152"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="F220" s="150"/>
-      <c r="G220" s="150"/>
-      <c r="H220" s="150"/>
-      <c r="I220" s="150"/>
-      <c r="J220" s="150"/>
-      <c r="K220" s="150"/>
-      <c r="L220" s="150"/>
-      <c r="M220" s="150"/>
+      <c r="F220" s="152"/>
+      <c r="G220" s="152"/>
+      <c r="H220" s="152"/>
+      <c r="I220" s="152"/>
+      <c r="J220" s="152"/>
+      <c r="K220" s="152"/>
+      <c r="L220" s="152"/>
+      <c r="M220" s="152"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="F221" s="150"/>
-      <c r="G221" s="150"/>
-      <c r="H221" s="150"/>
-      <c r="I221" s="150"/>
-      <c r="J221" s="150"/>
-      <c r="K221" s="150"/>
-      <c r="L221" s="150"/>
-      <c r="M221" s="150"/>
+      <c r="F221" s="152"/>
+      <c r="G221" s="152"/>
+      <c r="H221" s="152"/>
+      <c r="I221" s="152"/>
+      <c r="J221" s="152"/>
+      <c r="K221" s="152"/>
+      <c r="L221" s="152"/>
+      <c r="M221" s="152"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="F222" s="150"/>
-      <c r="G222" s="150"/>
-      <c r="H222" s="150"/>
-      <c r="I222" s="150"/>
-      <c r="J222" s="150"/>
-      <c r="K222" s="150"/>
-      <c r="L222" s="150"/>
-      <c r="M222" s="150"/>
+      <c r="F222" s="152"/>
+      <c r="G222" s="152"/>
+      <c r="H222" s="152"/>
+      <c r="I222" s="152"/>
+      <c r="J222" s="152"/>
+      <c r="K222" s="152"/>
+      <c r="L222" s="152"/>
+      <c r="M222" s="152"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="F223" s="150"/>
-      <c r="G223" s="150"/>
-      <c r="H223" s="150"/>
-      <c r="I223" s="150"/>
-      <c r="J223" s="150"/>
-      <c r="K223" s="150"/>
-      <c r="L223" s="150"/>
-      <c r="M223" s="150"/>
+      <c r="F223" s="152"/>
+      <c r="G223" s="152"/>
+      <c r="H223" s="152"/>
+      <c r="I223" s="152"/>
+      <c r="J223" s="152"/>
+      <c r="K223" s="152"/>
+      <c r="L223" s="152"/>
+      <c r="M223" s="152"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="F224" s="150"/>
-      <c r="G224" s="150"/>
-      <c r="H224" s="150"/>
-      <c r="I224" s="150"/>
-      <c r="J224" s="150"/>
-      <c r="K224" s="150"/>
-      <c r="L224" s="150"/>
-      <c r="M224" s="150"/>
+      <c r="F224" s="152"/>
+      <c r="G224" s="152"/>
+      <c r="H224" s="152"/>
+      <c r="I224" s="152"/>
+      <c r="J224" s="152"/>
+      <c r="K224" s="152"/>
+      <c r="L224" s="152"/>
+      <c r="M224" s="152"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="F225" s="150"/>
-      <c r="G225" s="150"/>
-      <c r="H225" s="150"/>
-      <c r="I225" s="150"/>
-      <c r="J225" s="150"/>
-      <c r="K225" s="150"/>
-      <c r="L225" s="150"/>
-      <c r="M225" s="150"/>
+      <c r="F225" s="152"/>
+      <c r="G225" s="152"/>
+      <c r="H225" s="152"/>
+      <c r="I225" s="152"/>
+      <c r="J225" s="152"/>
+      <c r="K225" s="152"/>
+      <c r="L225" s="152"/>
+      <c r="M225" s="152"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="F226" s="150"/>
-      <c r="G226" s="150"/>
-      <c r="H226" s="150"/>
-      <c r="I226" s="150"/>
-      <c r="J226" s="150"/>
-      <c r="K226" s="150"/>
-      <c r="L226" s="150"/>
-      <c r="M226" s="150"/>
+      <c r="F226" s="152"/>
+      <c r="G226" s="152"/>
+      <c r="H226" s="152"/>
+      <c r="I226" s="152"/>
+      <c r="J226" s="152"/>
+      <c r="K226" s="152"/>
+      <c r="L226" s="152"/>
+      <c r="M226" s="152"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="F227" s="150"/>
-      <c r="G227" s="150"/>
-      <c r="H227" s="150"/>
-      <c r="I227" s="150"/>
-      <c r="J227" s="150"/>
-      <c r="K227" s="150"/>
-      <c r="L227" s="150"/>
-      <c r="M227" s="150"/>
+      <c r="F227" s="152"/>
+      <c r="G227" s="152"/>
+      <c r="H227" s="152"/>
+      <c r="I227" s="152"/>
+      <c r="J227" s="152"/>
+      <c r="K227" s="152"/>
+      <c r="L227" s="152"/>
+      <c r="M227" s="152"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="F228" s="150"/>
-      <c r="G228" s="150"/>
-      <c r="H228" s="150"/>
-      <c r="I228" s="150"/>
-      <c r="J228" s="150"/>
-      <c r="K228" s="150"/>
-      <c r="L228" s="150"/>
-      <c r="M228" s="150"/>
+      <c r="F228" s="152"/>
+      <c r="G228" s="152"/>
+      <c r="H228" s="152"/>
+      <c r="I228" s="152"/>
+      <c r="J228" s="152"/>
+      <c r="K228" s="152"/>
+      <c r="L228" s="152"/>
+      <c r="M228" s="152"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="F229" s="150"/>
-      <c r="G229" s="150"/>
-      <c r="H229" s="150"/>
-      <c r="I229" s="150"/>
-      <c r="J229" s="150"/>
-      <c r="K229" s="150"/>
-      <c r="L229" s="150"/>
-      <c r="M229" s="150"/>
+      <c r="F229" s="152"/>
+      <c r="G229" s="152"/>
+      <c r="H229" s="152"/>
+      <c r="I229" s="152"/>
+      <c r="J229" s="152"/>
+      <c r="K229" s="152"/>
+      <c r="L229" s="152"/>
+      <c r="M229" s="152"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="F230" s="150"/>
-      <c r="G230" s="150"/>
-      <c r="H230" s="150"/>
-      <c r="I230" s="150"/>
-      <c r="J230" s="150"/>
-      <c r="K230" s="150"/>
-      <c r="L230" s="150"/>
-      <c r="M230" s="150"/>
+      <c r="F230" s="152"/>
+      <c r="G230" s="152"/>
+      <c r="H230" s="152"/>
+      <c r="I230" s="152"/>
+      <c r="J230" s="152"/>
+      <c r="K230" s="152"/>
+      <c r="L230" s="152"/>
+      <c r="M230" s="152"/>
     </row>
     <row r="231" ht="15.75" customHeight="1"/>
     <row r="232" ht="15.75" customHeight="1"/>
@@ -10334,14 +10504,14 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="C30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>10000000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
+  <conditionalFormatting sqref="R24">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>10000000</formula>
     </cfRule>
